--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/文件 - 王台中的MacBook Pro -  OffLine/MAC-92-WebSite/A7Kanban08/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D91CD-9EA2-AF46-92FD-E4CBCE17CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE322EE-65C6-E244-9465-AC9598860DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1000" windowWidth="27120" windowHeight="16380" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="197">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -477,10 +477,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Green</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;h5&gt;變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
 &lt;ul&gt;
 &lt;li&gt;工程內容：起自文化一路至樂善一路，道路長度約170公尺（其中橋梁長度約96公尺），寬度20公尺。&lt;/li&gt;
@@ -558,10 +554,6 @@
   </si>
   <si>
     <t>2023/09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,510萬</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2845,6 +2837,21 @@
    href="https://tcwang.github.io/A7Xinlinkou/A7XLK-12-ParkTrail.html#Menu-B14"&gt;泰山崎頭步道&lt;/a&gt;。
  目前的道路寬度是行人與車輛共用快車道，對行人/自行車通過會有很大安全威脅！
  &lt;/p&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9,490</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>萬</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3553,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8086C-E977-C64A-B0B4-A5B2B5BCC698}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3569,7 +3576,7 @@
     <col min="11" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="335">
+    <row r="2" spans="1:10" ht="356">
       <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3638,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="192">
+    <row r="3" spans="1:10" ht="204">
       <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
@@ -3687,7 +3694,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="256">
+    <row r="5" spans="1:10" ht="289">
       <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
@@ -3715,7 +3722,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="256">
+    <row r="6" spans="1:10" ht="289">
       <c r="A6" s="30" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +3750,7 @@
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="256">
+    <row r="7" spans="1:10" ht="289">
       <c r="A7" s="30" t="s">
         <v>39</v>
       </c>
@@ -3801,7 +3808,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="80">
+    <row r="9" spans="1:10" ht="85">
       <c r="A9" s="30" t="s">
         <v>48</v>
       </c>
@@ -3829,7 +3836,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="128">
+    <row r="10" spans="1:10" ht="136">
       <c r="A10" s="30" t="s">
         <v>55</v>
       </c>
@@ -3859,9 +3866,9 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="160">
+    <row r="11" spans="1:10" ht="170">
       <c r="A11" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>56</v>
@@ -3870,7 +3877,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>59</v>
@@ -3885,10 +3892,10 @@
         <v>53</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -3920,7 +3927,7 @@
         <v>68</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -3943,118 +3950,118 @@
         <v>73</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="I14" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>23</v>
+      <c r="G15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -4062,212 +4069,212 @@
         <v>52</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="32">
+    <row r="18" spans="1:10" ht="34">
       <c r="A18" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="32">
+    <row r="20" spans="1:10" ht="34">
       <c r="A20" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="319">
       <c r="A21" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="32">
+    <row r="22" spans="1:10" ht="34">
       <c r="A22" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="D22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>16</v>
+      <c r="G22" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="16" t="s">
-        <v>80</v>
+      <c r="G23" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
@@ -4277,200 +4284,200 @@
         <v>53</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16" t="s">
-        <v>80</v>
+      <c r="G26" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="16" t="s">
-        <v>80</v>
+      <c r="G27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="32">
+    <row r="28" spans="1:10" ht="34">
       <c r="A28" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="80">
+    <row r="29" spans="1:10" ht="85">
       <c r="A29" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="32">
+    <row r="30" spans="1:10" ht="34">
       <c r="A30" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="32">
+    <row r="31" spans="1:10" ht="34">
       <c r="A31" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="224">
+    <row r="32" spans="1:10" ht="238">
       <c r="A32" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="136">
       <c r="A33" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -4481,79 +4488,79 @@
         <v>23</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="128">
+    <row r="34" spans="1:10" ht="136">
       <c r="A34" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="16" t="s">
-        <v>80</v>
+      <c r="G34" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="48">
+    <row r="35" spans="1:10" ht="51">
       <c r="A35" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="16" t="s">
-        <v>16</v>
+      <c r="G35" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="D36" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
@@ -4563,24 +4570,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="409.6">
+      <c r="A37" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="B37" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="395">
-      <c r="A37" s="30" t="s">
+      <c r="D37" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -4591,37 +4598,37 @@
         <v>53</v>
       </c>
       <c r="I37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="68">
+      <c r="A38" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="B38" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="64">
-      <c r="A38" s="33" t="s">
+      <c r="D38" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J38" s="27"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B42A31-6A9D-0242-817E-537D3C6CC66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8EE03-E749-3C47-9CB1-66276E34F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="-21060" windowWidth="27120" windowHeight="16380" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="10820" yWindow="-27280" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2323,16 +2323,52 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> &lt;p&gt;2021/10/05 陳雅倫議員質詢：
+ A7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助10.3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
+ &lt;/p&gt;
+ &lt;p&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+ &lt;/p&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ 樟腦寮磚窯廠遺址：將保留 （圖片來源：
+ &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;）
+ &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h5&gt;郵政物流園區&lt;/h5&gt;
+&lt;p&gt;中華郵政斥資220億元打造「郵政物流園區」，佔地17.14公頃，涵蓋郵政物流中心、北台灣郵件作業中心、郵政資訊中心、郵政訓練中心及工商服務中心等5棟建築物，2023年1月起分階段啟動營運，將有一部分人員先進駐，未來台北、桃園的郵件中心都將進行整併，移至A7，預計未來至少可創造6,000個工作機會。
+&lt;/p&gt;
+&lt;p&gt;中華郵政以建置智慧園區為目標，導入多項自動化設備進行郵件處理作業，推動物流共享平台，以及跨境電+I5子商務物流服務，吸引很多廠商關注，還可望成為東亞地區跨境物流示範基地。
+&lt;/p&gt;
+&lt;p&gt;園區仿效美國蘋果電腦在加州庫帕提諾新總部Apple Park「與自然共存」生態圈工法，建置寬40米、縱深400米，面積逾4000坪的郵政形象公園，連結近2公頃滯洪池，形成自然生態景觀，提供員工及附近居民的休憩場所。
+&lt;/p&gt;
+&lt;p&gt;郵政物流中心地上八層、地下一層，主要樓層四層，每層四倉儲單元，共有16倉儲單元，倉儲面積約4.8萬坪，總樓地板面積達6萬9,686坪，設置兩座立體迴旋車道及218個裝（卸）貨月台。
+&lt;/p&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-02-01.webp" alt="郵政物流園區" sizes="sm:100vw md:150vw lg:200vw" /&gt; 
+郵政物流園區 圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;h5&gt;樂善科學園區開發&lt;/h5&gt;
 &lt;p&gt;樂善科學園區加上華亞科技園區，產值將達竹科的一半，要打造成桃園版的內湖科技園區，同時「亞洲•矽谷計劃」也會將此處作為重要的實驗場及推動產官學合作方案的基地。產業專區45公頃，22公頃由禾聯碩標得；另一半的土地由中華郵政公司設置物流中心及行政大樓，中華郵政未來的營運重心將會移至本區。
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" alt="樂善科學園區"  sizes="sm:100vw md:150vw lg:200vw" /&gt; 
+&lt;h5&gt;順達,致茂與禾聯碩廠區&lt;/h5&gt;
+&lt;p&gt;樂善科技園區將是桃園版內湖科學園區。該區已由順達科技、致茂電子及禾揚國際（禾聯）等3家民間企業標下22.23公頃土地，其中致茂與禾聯碩各35%土地，順達科則取得30%土地。致茂電子預計設立新總部及生產基地，順達科技則做為新總部、研發、生產基地，禾聯碩則設定為電視、節能空調等產品的第2生產據點，3家預計共創造2300個以上的就業機會，年產值將達到1100億元。
+&lt;/p&gt;I6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;樂善科學園區開發&lt;/h5&gt;
+&lt;p&gt;樂善科學園區加上華亞科技園區，產值將達竹科的一半，要打造成桃園版的內湖科技園區，同時「亞洲•矽谷計劃」也會將此處作為重要的實驗場及推動產官學合作方案的基地。產業專區45公頃，22公頃由禾聯碩標得；另一半的土地由中華郵政公司設置物流中心及行政大樓，中華郵政未來的營運重心將會移至本區。
+&lt;/p&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" alt="樂善科學園區"  sizes="sm:100vw md:150vw lg:200vw" /&gt; 
 &lt;h5&gt;順達,致茂與禾聯碩廠區&lt;/h5&gt;
 &lt;p&gt;樂善科技園區將是桃園版內湖科學園區。該區已由順達科技、致茂電子及禾揚國際（禾聯）等3家民間企業標下22.23公頃土地，其中致茂與禾聯碩各35%土地，順達科則取得30%土地。致茂電子預計設立新總部及生產基地，順達科技則做為新總部、研發、生產基地，禾聯碩則設定為電視、節能空調等產品的第2生產據點，3家預計共創造2300個以上的就業機會，年產值將達到1100億元。
 &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5 id="CON-08"&gt;南林科技園區&lt;/h5&gt;
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h5 id="CON-08"&gt;南林科技園區&lt;/h5&gt;
 &lt;p&gt;台塑集團旗下的DRAM製造商南亞科技落腳新北市泰山區南林科技園區，廠商投資三千億元，興建十奈米十二吋先進晶圓新廠，全案預計二○二五年完工，開發土地面積約十二．○三公頃，每年可創造超過七百億元產值，並提供三千個就業機會。&lt;/p&gt;
 &lt;p&gt;南亞科技投資興建雙層無塵先進晶圓廠，開發土地面積約十二．○三公頃，分為A到D四區建築基地，總開發量體達十一萬六八四九坪，包含A區主廠房、B區水資源再生中心、C區清水廠的停車場及D區研發大樓，未來七年分三階段擴增產能規模，預估完工後開始裝機投片量產。
 &lt;/p&gt;
@@ -2347,9 +2383,10 @@
 	Youtube 2022/06/23 &lt;a href="https://www.youtube.com/watch?v=M0qma7tL0ms"&gt;南亞科3千億建新廠&lt;/a&gt;
 	&lt;/li&gt;
 &lt;/ul&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-08-01.jpeg" class="img-fluid float-right m-1" style="width:800px"&gt;&lt;br&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-08-01.jpeg" alt="南亞科技新廠完工模擬圖"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
 南亞科技新廠完工模擬圖
-</t>
++I10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>龜山區青山路、文青路口拓寬工程：
@@ -2358,7 +2395,8 @@
 &lt;li&gt;工程總經費：目前約1500萬元（其中市長統籌分配款補助 900萬元）&lt;/li&gt;
 &lt;li&gt;辦理情形：112年9月20日辦理設計書圖審查，俟審查意見辦理修正後進行派工單準備，並預計於10月初邀集地方民代、里民辦理現地說明會，112年10月底進場。&lt;/li&gt;
 &lt;/ul&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;</t>
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5&gt;A7 主要道路變更規劃&lt;/h5&gt; 
@@ -2381,7 +2419,7 @@
      內政部 2019/01/29 &lt;a href="file/XLK-242-A7規劃書-05.pdf"&gt;都市計畫委員會第939次會議紀錄&lt;/a&gt;
    &lt;/li&gt;
  &lt;/ul&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
  圖片來源：&lt;a
    href="https://ec.ltn.com.tw/article/breakingnews/3558405?utm_medium=R&amp;utm_campaign=SHARE&amp;utm_source=FACEBOOK&amp;fbclid=IwAR0AXAzdLKlSWeJkECpwSgm1HxNCjks-0Wxz47Wb9hHf1uWLx1_jsAZrFkA"&gt;自由時報
    2021/06/04&lt;/a&gt;
@@ -2404,17 +2442,7 @@
    新聞&lt;/a&gt;:
  已克服八卦窯磚窯廠文資保存問題，預計於2022年完成規劃設計；
  &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;p&gt;2021/10/05 陳雅倫議員質詢：
- A7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助10.3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
- &lt;/p&gt;
- &lt;p&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
- &lt;/p&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- 樟腦寮磚窯廠遺址：將保留 （圖片來源：
- &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;）
- &lt;br&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5&gt;變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
@@ -2429,7 +2457,7 @@
 &lt;/p&gt;
 &lt;p&gt;「變二道路」跨越十八份坑溪，道路兩端高低差達25公尺，橋墩施作不易，因此工程單位將橋樑規劃為「π型橋梁」，並於橋下設置2座小型滯洪池，以調節邊坡及當地排水功能。未來完工後，也將進行植栽、石溝整治等工程，以提高此地區的防災韌性，而景觀橋梁也將成為A7重劃區的都市亮點。
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-01.jpeg" class="img-fluid float-right m-1" style="width:800px"&gt;&lt;br&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-01.jpeg" alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 資料來源工務局
 &lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5221445557982869/"&gt;臉書留言摘錄&lt;/a&gt;
 牛煦庭議員回覆: 桃園新工處稱第一次招標無法決標是因為只有一家投標，未達法定3家的門檻，當天再上網招標，等標期7天，會採最有利標，廠商投標後會由評選會評選，若有達標就會決標，並預計於2022年11月開工。
@@ -2442,13 +2470,14 @@
   新聞&lt;/a&gt;:
 預計2022年動工
 &lt;br&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> &lt;h5 id="CON-15"&gt;變三案: 文藝街 延伸計畫&lt;/h5&gt;
  &lt;p&gt;已經於 2023/1月 完工, 聯合新聞網 2023/01/17：&lt;a
    href="https://udn.com/news/amp/story/7324/6917649?fbclid=IwAR0SkvK1vrFO96alOFiFRzqWCtoBKFub33tGt9pn_h3QcD1ZROQJwreuPQs"&gt;龜山變三道路拓寬2023/01/17日通車&lt;/a&gt;
  &lt;/p&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-15-01.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-15-01.jpeg"  alt="A7重劃區變三工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
  &lt;p&gt;
  2022/11/15日 桃園電子報: 「變三道路」拓寬工程範圍起自龜山區文藝街，將改善長80公尺、寬約6至15公尺的道路，工程經費約為3000萬，已於今（111）年3月開工，預計明年1月竣工；
  &lt;/p&gt;
@@ -2462,6 +2491,7 @@
  於 2022/3月底動工。 上面3條道路總經費超過10億元，已獲中央同意補助，完工之後可望打通A7站周邊道路任督二脈，讓交通更順暢。
  &lt;/p&gt;
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2488,8 +2518,8 @@
    &lt;/li&gt;
  &lt;/ul&gt;
  改善示意圖：&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-01.webp" class="img-fluid m-1" style="width:600px"&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-02.jpeg" class="img-fluid m-1"  style="width:600px"&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-01.webp" alt="林口國1改善工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-02.jpeg" alt="林口國1改善工程"   sizes="sm:100vw md:150vw lg:200vw" /&gt;
  &lt;h5&gt;計畫緣起&lt;/h5&gt;
  &lt;p&gt;國道1號林口交流道位於新北市林口區與桃園市龜山區交界，設有林口A(約41K)及林口B(約43K)二個鑽石型交流道，並以集散道串聯。因周邊大型開發持續增加，人口快速成長，交通量大幅增加，囿於匝道出入口受主線長爬坡、匝道縱坡、地方道路號誌延滯及文化一路跨越橋儲車空間不足等影響，導致車輛回堵主線壅塞嚴重，爰辦理本工程。
  &lt;/p&gt;
@@ -2509,9 +2539,10 @@
  規劃示意圖：&lt;br&gt;
  &lt;NuxtImg src="../_nuxt/assets/img/CON-17-03.jpeg" class="img-fluid m-1" style="width:600px"&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;h5&gt;林口工五工業區 - 擴大方案&lt;/h5&gt;
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h5&gt;林口工五工業區 - 擴大方案&lt;/h5&gt;
 &lt;ul&gt;
 	&lt;li&gt;
 		土地徵收審議 會議 111/08/10 &lt;a href="file/XLK-236-內政部土地徵收審議小組第247次會議開會通知單及議程.pdf"&gt;會議記錄&lt;/a&gt;
@@ -2543,16 +2574,34 @@
 			工五工業區產能提升計畫-工五工業區擴大方案)書&lt;/a&gt; 2019/04
 	&lt;/li&gt;
 &lt;/ul&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-22-01.png" class="img-fluid m-1" style="width:400px"&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-22-01.png" alt="工五工業區"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;依據 2022/08/10 &lt;a href="file/XLK-236-內政部土地徵收審議小組第247次會議開會通知單及議程.pdf"&gt;會議記錄&lt;/a&gt;:&lt;br&gt;
 區段徵收範圍內使用現況：&lt;br&gt;
 主要為龜山區第三公墓使用，約 13,500 座墳墓，已於 108 年 3
 月公告禁葬，西側有部分為農業及森林使用土地，農業使用為零星分布，面積狹小，主要為果樹、旱作，西北側有部分建築使用土地，主要為住宅（共有 16 戶，實際居住約 13
 戶）及製造業之廠房分布；東北側現況有較多建築使用土地，主要為製造業之廠房，合計區內現有工廠約 18 家。&lt;/p&gt;
-&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;h5&gt;新莊區壽山路丹鳳橋瓶頸路口改善 &lt;/h5&gt;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">新莊區壽山路丹鳳橋瓶頸路口改善 &lt;/h5&gt;
  &lt;ol&gt;
    &lt;li&gt;計畫目的:新北市新莊區 #壽山路 為承接新北市及桃園市上下班車流，交通量龐大，為改善壽山路丹鳳橋路口尖峰時段交通繁忙，常發生壅塞回堵至相鄰之新北大道路口，及1K+360至1K+480路段
      轉彎處視距不佳之問題，透過本案於工址1新莊區壽山路丹鳳橋路口處拓寬既有道路，北向舒緩直行壽山路車流、南向分流壽山 路南下直行車流，以改善路口段服務水準不足之問題，另於工址
@@ -2562,12 +2611,14 @@
    &lt;li&gt;主體工程:本案主要辦理2處路段局部拓寬，工址1位新莊區壽山路丹鳳橋路口處之既有道路拓寬，規劃為雙向4車道，西側新設 懸臂式護岸(長約79公尺，基礎寬4公尺含懸臂板)、北側新設2處
      擋土設施(長約12公尺及21公尺)、新設人行道及既有人行道復舊， 工址2位壽山路1K+360至1K+480路段彎道線型優化，西側新設擋 土設施(長約66公尺)及留設路肩供緊急停靠。&lt;/li&gt;
  &lt;/ol&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-01.jpeg" class="img-fluid m-1"  style="width:800px"&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-02.jpeg" class="img-fluid m-1"  style="width:800px"&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-03.jpeg" class="img-fluid m-1"  style="width:800px"&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-04.jpeg" class="img-fluid m-1"  style="width:800px"&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-05.jpeg" class="img-fluid m-1" style="width:800px"&gt;&lt;br&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-01.jpeg"  alt="壽山路拓寬1" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-02.jpeg"   alt="壽山路拓寬2" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-03.jpeg"  alt="壽山路拓寬3" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-04.jpeg" alt="壽山路拓寬4" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-05.jpeg" alt="壽山路拓寬5"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5 &gt;善捷段社會住宅&lt;/h5&gt;
@@ -2584,13 +2635,14 @@
 善捷段社宅基地是善捷段298、299地號土地，面積約2860坪，經費17億2747萬元，將興建地上15層、地下2層建物，因鄰近桃園機場捷運A7體育大學站，與A7合宜住宅同屬一個生活圈，是名副其實的捷運宅，規劃設置社區式長照機構、家庭照顧者支持服務據點、公社民營托嬰中心、幼兒園等。
 預計2024年完工
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-01.png" class="img-fluid mb-2" style="width:600px float-right m-1"&gt;&lt;br&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-01.png" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 圖：社會住宅位址
 &lt;p&gt;
 社會住宅不單純只是住宅，它還包含相關社會福利設施如 老人日照中心，公辦私營幼兒園 及健身中心。對於家中有老人跟小孩的家庭有很大的幫助。 &lt;br&gt;&lt;br&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" class="img-fluid mb-2" style="width:600px"&gt;&lt;br&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" class="img-fluid mb-2" style="width:600px"&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt; 社會住宅 詳圖 &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5 &gt;龜山第三公墓/樂善公墓遷移計畫&lt;/h5&gt;
@@ -2630,20 +2682,23 @@
 &lt;p&gt;市長鄭文燦表示，林口工五工業區擴大都市計畫變更案目前尚在內政部營建署，過去樂善寺兩次來函前後意見並不一致，樂善寺若要進行相關財產處分，請樂善寺以1年為期，整合信徒意見後提出，市府將最大程度尊重樂善寺意見。
 &lt;/p&gt;
 在未來長久作業期間是否能多種樹木來美化此一區域，讓A7住宅的高樓層能有美麗的視野？
-&lt;NuxtImg src="fig/XLK-131-Transportation/A7XLK-117-建設願景-公墓遷移.jpeg" class="img-fluid" style="width:600px"&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-21-01.jpeg"  alt="樂善公墓" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt;&lt;br&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" class="img-fluid m-1" style="width:500px"&gt; 
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" alt="A7空橋" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;A7重劃區空橋規劃圖&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.tshsc.org.tw/w/tshsc/SocialHousing_21081301011090040"&gt;龜山樂捷段社會住宅&lt;/a&gt; &lt;/p&gt; &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-34-01.png" class="img-fluid mt-1" style="width:600px"&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.tshsc.org.tw/w/tshsc/SocialHousing_21081301011090040"&gt;龜山樂捷段社會住宅&lt;/a&gt; &lt;/p&gt; &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-34-01.png"  alt="樂捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5&gt;文青國中小&lt;/h5&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" class="img-fluid float-left m-1" style="width:400px"&gt;
+&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;
 文青國中小學正在籌備中：&lt;a href="https://www.facebook.com/%E6%96%87%E9%9D%92%E5%9C%8B%E4%B8%AD%E5%B0%8F%E7%B1%8C%E5%82%99%E8%99%95-305945223529559/"&gt;籌備處&lt;/a&gt;設在大埔國小辦公室。
 &lt;/p&gt;
@@ -2669,19 +2724,6 @@
 &lt;p&gt;早期教育局曾研議在體育大學附設實驗高中的可行性，教育局長林正峰2020/08/26強調，坪頂地區增設高中問題談了二十幾年，市府指派的坪頂高中設校籌備處主任（校長）未通過校長遴聘，派任迄今也未認真推動設校，坐領乾薪還有餘力與其前任學校同事訴訟打官司，&lt;span class="text-danger"&gt;對設校不抱太多期待&lt;/span&gt;。鑑於這幾年更因該地區人口成長快速，為確保並解決該地區學子就讀高中問題，建議市府優先推動大崗國中改制為完全中學。
 &lt;/p&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;h5&gt;郵政物流園區&lt;/h5&gt;
-&lt;p&gt;中華郵政斥資220億元打造「郵政物流園區」，佔地17.14公頃，涵蓋郵政物流中心、北台灣郵件作業中心、郵政資訊中心、郵政訓練中心及工商服務中心等5棟建築物，2023年1月起分階段啟動營運，將有一部分人員先進駐，未來台北、桃園的郵件中心都將進行整併，移至A7，預計未來至少可創造6,000個工作機會。
-&lt;/p&gt;
-&lt;p&gt;中華郵政以建置智慧園區為目標，導入多項自動化設備進行郵件處理作業，推動物流共享平台，以及跨境電子商務物流服務，吸引很多廠商關注，還可望成為東亞地區跨境物流示範基地。
-&lt;/p&gt;
-&lt;p&gt;園區仿效美國蘋果電腦在加州庫帕提諾新總部Apple Park「與自然共存」生態圈工法，建置寬40米、縱深400米，面積逾4000坪的郵政形象公園，連結近2公頃滯洪池，形成自然生態景觀，提供員工及附近居民的休憩場所。
-&lt;/p&gt;
-&lt;p&gt;郵政物流中心地上八層、地下一層，主要樓層四層，每層四倉儲單元，共有16倉儲單元，倉儲面積約4.8萬坪，總樓地板面積達6萬9,686坪，設置兩座立體迴旋車道及218個裝（卸）貨月台。
-&lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-02-01.webp" class="img-fluid float-right m-1" style="width:600px"&gt; 
-郵政物流園區 圖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3383,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8086C-E977-C64A-B0B4-A5B2B5BCC698}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3457,7 +3499,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -3541,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -3569,7 +3611,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -3597,7 +3639,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -3627,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -3715,7 +3757,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>176</v>
@@ -3747,10 +3789,10 @@
         <v>50</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -3779,7 +3821,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -3809,7 +3851,7 @@
         <v>75</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -3869,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -3895,7 +3937,7 @@
         <v>88</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J17" s="10"/>
     </row>
@@ -3997,7 +4039,7 @@
         <v>103</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -4079,7 +4121,7 @@
         <v>50</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -4161,7 +4203,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J27" s="10"/>
     </row>
@@ -4187,7 +4229,7 @@
         <v>88</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J28" s="10"/>
     </row>
@@ -4365,7 +4407,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J35" s="10"/>
     </row>
@@ -4393,7 +4435,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>164</v>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8EE03-E749-3C47-9CB1-66276E34F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874490D7-8F29-EB41-A83F-00A5345D9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="-27280" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="4400" yWindow="-25340" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2323,17 +2323,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p&gt;2021/10/05 陳雅倫議員質詢：
- A7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助10.3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
- &lt;/p&gt;
- &lt;p&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
- &lt;/p&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- 樟腦寮磚窯廠遺址：將保留 （圖片來源：
- &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;）
- &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;h5&gt;郵政物流園區&lt;/h5&gt;
 &lt;p&gt;中華郵政斥資220億元打造「郵政物流園區」，佔地17.14公頃，涵蓋郵政物流中心、北台灣郵件作業中心、郵政資訊中心、郵政訓練中心及工商服務中心等5棟建築物，2023年1月起分階段啟動營運，將有一部分人員先進駐，未來台北、桃園的郵件中心都將進行整併，移至A7，預計未來至少可創造6,000個工作機會。
 &lt;/p&gt;
@@ -2343,29 +2332,26 @@
 &lt;/p&gt;
 &lt;p&gt;郵政物流中心地上八層、地下一層，主要樓層四層，每層四倉儲單元，共有16倉儲單元，倉儲面積約4.8萬坪，總樓地板面積達6萬9,686坪，設置兩座立體迴旋車道及218個裝（卸）貨月台。
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-02-01.webp" alt="郵政物流園區" sizes="sm:100vw md:150vw lg:200vw" /&gt; 
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-02-01.webp" alt="郵政物流園區" sizes="sm:100vw md:150vw lg:200vw" /&gt; 
 郵政物流園區 圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5&gt;樂善科學園區開發&lt;/h5&gt;
 &lt;p&gt;樂善科學園區加上華亞科技園區，產值將達竹科的一半，要打造成桃園版的內湖科技園區，同時「亞洲•矽谷計劃」也會將此處作為重要的實驗場及推動產官學合作方案的基地。產業專區45公頃，22公頃由禾聯碩標得；另一半的土地由中華郵政公司設置物流中心及行政大樓，中華郵政未來的營運重心將會移至本區。
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" alt="樂善科學園區"  sizes="sm:100vw md:150vw lg:200vw" /&gt; 
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" alt="樂善科學園區"  sizes="sm:100vw md:150vw lg:200vw" /&gt; 
 &lt;h5&gt;順達,致茂與禾聯碩廠區&lt;/h5&gt;
 &lt;p&gt;樂善科技園區將是桃園版內湖科學園區。該區已由順達科技、致茂電子及禾揚國際（禾聯）等3家民間企業標下22.23公頃土地，其中致茂與禾聯碩各35%土地，順達科則取得30%土地。致茂電子預計設立新總部及生產基地，順達科技則做為新總部、研發、生產基地，禾聯碩則設定為電視、節能空調等產品的第2生產據點，3家預計共創造2300個以上的就業機會，年產值將達到1100億元。
 &lt;/p&gt;I6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5&gt;樂善科學園區開發&lt;/h5&gt;
 &lt;p&gt;樂善科學園區加上華亞科技園區，產值將達竹科的一半，要打造成桃園版的內湖科技園區，同時「亞洲•矽谷計劃」也會將此處作為重要的實驗場及推動產官學合作方案的基地。產業專區45公頃，22公頃由禾聯碩標得；另一半的土地由中華郵政公司設置物流中心及行政大樓，中華郵政未來的營運重心將會移至本區。
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" alt="樂善科學園區"  sizes="sm:100vw md:150vw lg:200vw" /&gt; 
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-05-01.jpeg" alt="樂善科學園區"  sizes="sm:100vw md:150vw lg:200vw" /&gt; 
 &lt;h5&gt;順達,致茂與禾聯碩廠區&lt;/h5&gt;
 &lt;p&gt;樂善科技園區將是桃園版內湖科學園區。該區已由順達科技、致茂電子及禾揚國際（禾聯）等3家民間企業標下22.23公頃土地，其中致茂與禾聯碩各35%土地，順達科則取得30%土地。致茂電子預計設立新總部及生產基地，順達科技則做為新總部、研發、生產基地，禾聯碩則設定為電視、節能空調等產品的第2生產據點，3家預計共創造2300個以上的就業機會，年產值將達到1100億元。
 &lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5 id="CON-08"&gt;南林科技園區&lt;/h5&gt;
@@ -2383,10 +2369,9 @@
 	Youtube 2022/06/23 &lt;a href="https://www.youtube.com/watch?v=M0qma7tL0ms"&gt;南亞科3千億建新廠&lt;/a&gt;
 	&lt;/li&gt;
 &lt;/ul&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-08-01.jpeg" alt="南亞科技新廠完工模擬圖"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-08-01.jpeg" alt="南亞科技新廠完工模擬圖"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
 南亞科技新廠完工模擬圖
 +I10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>龜山區青山路、文青路口拓寬工程：
@@ -2395,8 +2380,7 @@
 &lt;li&gt;工程總經費：目前約1500萬元（其中市長統籌分配款補助 900萬元）&lt;/li&gt;
 &lt;li&gt;辦理情形：112年9月20日辦理設計書圖審查，俟審查意見辦理修正後進行派工單準備，並預計於10月初邀集地方民代、里民辦理現地說明會，112年10月底進場。&lt;/li&gt;
 &lt;/ul&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
   </si>
   <si>
     <t>&lt;h5&gt;A7 主要道路變更規劃&lt;/h5&gt; 
@@ -2419,7 +2403,7 @@
      內政部 2019/01/29 &lt;a href="file/XLK-242-A7規劃書-05.pdf"&gt;都市計畫委員會第939次會議紀錄&lt;/a&gt;
    &lt;/li&gt;
  &lt;/ul&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
  圖片來源：&lt;a
    href="https://ec.ltn.com.tw/article/breakingnews/3558405?utm_medium=R&amp;utm_campaign=SHARE&amp;utm_source=FACEBOOK&amp;fbclid=IwAR0AXAzdLKlSWeJkECpwSgm1HxNCjks-0Wxz47Wb9hHf1uWLx1_jsAZrFkA"&gt;自由時報
    2021/06/04&lt;/a&gt;
@@ -2442,7 +2426,17 @@
    新聞&lt;/a&gt;:
  已克服八卦窯磚窯廠文資保存問題，預計於2022年完成規劃設計；
  &lt;br&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;p&gt;2021/10/05 陳雅倫議員質詢：
+ A7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助10.3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
+ &lt;/p&gt;
+ &lt;p&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+ &lt;/p&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ 樟腦寮磚窯廠遺址：將保留 （圖片來源：
+ &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;）
+ &lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>&lt;h5&gt;變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
@@ -2457,7 +2451,7 @@
 &lt;/p&gt;
 &lt;p&gt;「變二道路」跨越十八份坑溪，道路兩端高低差達25公尺，橋墩施作不易，因此工程單位將橋樑規劃為「π型橋梁」，並於橋下設置2座小型滯洪池，以調節邊坡及當地排水功能。未來完工後，也將進行植栽、石溝整治等工程，以提高此地區的防災韌性，而景觀橋梁也將成為A7重劃區的都市亮點。
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-01.jpeg" alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-01.jpeg" alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 資料來源工務局
 &lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5221445557982869/"&gt;臉書留言摘錄&lt;/a&gt;
 牛煦庭議員回覆: 桃園新工處稱第一次招標無法決標是因為只有一家投標，未達法定3家的門檻，當天再上網招標，等標期7天，會採最有利標，廠商投標後會由評選會評選，若有達標就會決標，並預計於2022年11月開工。
@@ -2470,14 +2464,13 @@
   新聞&lt;/a&gt;:
 預計2022年動工
 &lt;br&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> &lt;h5 id="CON-15"&gt;變三案: 文藝街 延伸計畫&lt;/h5&gt;
  &lt;p&gt;已經於 2023/1月 完工, 聯合新聞網 2023/01/17：&lt;a
    href="https://udn.com/news/amp/story/7324/6917649?fbclid=IwAR0SkvK1vrFO96alOFiFRzqWCtoBKFub33tGt9pn_h3QcD1ZROQJwreuPQs"&gt;龜山變三道路拓寬2023/01/17日通車&lt;/a&gt;
  &lt;/p&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-15-01.jpeg"  alt="A7重劃區變三工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-15-01.jpeg"  alt="A7重劃區變三工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
  &lt;p&gt;
  2022/11/15日 桃園電子報: 「變三道路」拓寬工程範圍起自龜山區文藝街，將改善長80公尺、寬約6至15公尺的道路，工程經費約為3000萬，已於今（111）年3月開工，預計明年1月竣工；
  &lt;/p&gt;
@@ -2491,7 +2484,6 @@
  於 2022/3月底動工。 上面3條道路總經費超過10億元，已獲中央同意補助，完工之後可望打通A7站周邊道路任督二脈，讓交通更順暢。
  &lt;/p&gt;
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2518,8 +2510,8 @@
    &lt;/li&gt;
  &lt;/ul&gt;
  改善示意圖：&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-01.webp" alt="林口國1改善工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-02.jpeg" alt="林口國1改善工程"   sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-01.webp" alt="林口國1改善工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-02.jpeg" alt="林口國1改善工程"   sizes="sm:100vw md:150vw lg:200vw" /&gt;
  &lt;h5&gt;計畫緣起&lt;/h5&gt;
  &lt;p&gt;國道1號林口交流道位於新北市林口區與桃園市龜山區交界，設有林口A(約41K)及林口B(約43K)二個鑽石型交流道，並以集散道串聯。因周邊大型開發持續增加，人口快速成長，交通量大幅增加，囿於匝道出入口受主線長爬坡、匝道縱坡、地方道路號誌延滯及文化一路跨越橋儲車空間不足等影響，導致車輛回堵主線壅塞嚴重，爰辦理本工程。
  &lt;/p&gt;
@@ -2537,9 +2529,8 @@
  歷經9次流標， 2022/12/22 終於以29億5,880萬元決標，預計2027年完工。 &lt;del&gt;5年, 2021/7/30日核定，預計2025年完工通車&lt;/del&gt;
  &lt;/p&gt;
  規劃示意圖：&lt;br&gt;
- &lt;NuxtImg src="../_nuxt/assets/img/CON-17-03.jpeg" class="img-fluid m-1" style="width:600px"&gt;
+ &lt;img src="../_nuxt/assets/img/CON-17-03.jpeg" class="img-fluid m-1" style="width:600px"&gt;
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5&gt;林口工五工業區 - 擴大方案&lt;/h5&gt;
@@ -2574,34 +2565,16 @@
 			工五工業區產能提升計畫-工五工業區擴大方案)書&lt;/a&gt; 2019/04
 	&lt;/li&gt;
 &lt;/ul&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-22-01.png" alt="工五工業區"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-22-01.png" alt="工五工業區"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;依據 2022/08/10 &lt;a href="file/XLK-236-內政部土地徵收審議小組第247次會議開會通知單及議程.pdf"&gt;會議記錄&lt;/a&gt;:&lt;br&gt;
 區段徵收範圍內使用現況：&lt;br&gt;
 主要為龜山區第三公墓使用，約 13,500 座墳墓，已於 108 年 3
 月公告禁葬，西側有部分為農業及森林使用土地，農業使用為零星分布，面積狹小，主要為果樹、旱作，西北側有部分建築使用土地，主要為住宅（共有 16 戶，實際居住約 13
 戶）及製造業之廠房分布；東北側現況有較多建築使用土地，主要為製造業之廠房，合計區內現有工廠約 18 家。&lt;/p&gt;
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;h5&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">新莊區壽山路丹鳳橋瓶頸路口改善 &lt;/h5&gt;
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;h5&gt;新莊區壽山路丹鳳橋瓶頸路口改善 &lt;/h5&gt;
  &lt;ol&gt;
    &lt;li&gt;計畫目的:新北市新莊區 #壽山路 為承接新北市及桃園市上下班車流，交通量龐大，為改善壽山路丹鳳橋路口尖峰時段交通繁忙，常發生壅塞回堵至相鄰之新北大道路口，及1K+360至1K+480路段
      轉彎處視距不佳之問題，透過本案於工址1新莊區壽山路丹鳳橋路口處拓寬既有道路，北向舒緩直行壽山路車流、南向分流壽山 路南下直行車流，以改善路口段服務水準不足之問題，另於工址
@@ -2611,14 +2584,12 @@
    &lt;li&gt;主體工程:本案主要辦理2處路段局部拓寬，工址1位新莊區壽山路丹鳳橋路口處之既有道路拓寬，規劃為雙向4車道，西側新設 懸臂式護岸(長約79公尺，基礎寬4公尺含懸臂板)、北側新設2處
      擋土設施(長約12公尺及21公尺)、新設人行道及既有人行道復舊， 工址2位壽山路1K+360至1K+480路段彎道線型優化，西側新設擋 土設施(長約66公尺)及留設路肩供緊急停靠。&lt;/li&gt;
  &lt;/ol&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-01.jpeg"  alt="壽山路拓寬1" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-02.jpeg"   alt="壽山路拓寬2" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-03.jpeg"  alt="壽山路拓寬3" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-04.jpeg" alt="壽山路拓寬4" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-05.jpeg" alt="壽山路拓寬5"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-01.jpeg"  alt="壽山路拓寬1" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-02.jpeg"   alt="壽山路拓寬2" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-03.jpeg"  alt="壽山路拓寬3" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-04.jpeg" alt="壽山路拓寬4" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-05.jpeg" alt="壽山路拓寬5"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;h5 &gt;善捷段社會住宅&lt;/h5&gt;
@@ -2635,14 +2606,13 @@
 善捷段社宅基地是善捷段298、299地號土地，面積約2860坪，經費17億2747萬元，將興建地上15層、地下2層建物，因鄰近桃園機場捷運A7體育大學站，與A7合宜住宅同屬一個生活圈，是名副其實的捷運宅，規劃設置社區式長照機構、家庭照顧者支持服務據點、公社民營托嬰中心、幼兒園等。
 預計2024年完工
 &lt;/p&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-01.png" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-01.png" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 圖：社會住宅位址
 &lt;p&gt;
 社會住宅不單純只是住宅，它還包含相關社會福利設施如 老人日照中心，公辦私營幼兒園 及健身中心。對於家中有老人跟小孩的家庭有很大的幫助。 &lt;br&gt;&lt;br&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt; 社會住宅 詳圖 &lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5 &gt;龜山第三公墓/樂善公墓遷移計畫&lt;/h5&gt;
@@ -2682,23 +2652,20 @@
 &lt;p&gt;市長鄭文燦表示，林口工五工業區擴大都市計畫變更案目前尚在內政部營建署，過去樂善寺兩次來函前後意見並不一致，樂善寺若要進行相關財產處分，請樂善寺以1年為期，整合信徒意見後提出，市府將最大程度尊重樂善寺意見。
 &lt;/p&gt;
 在未來長久作業期間是否能多種樹木來美化此一區域，讓A7住宅的高樓層能有美麗的視野？
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-21-01.jpeg"  alt="樂善公墓" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-21-01.jpeg"  alt="樂善公墓" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt;&lt;br&gt;
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" alt="A7空橋" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+  </si>
+  <si>
+    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" alt="A7空橋" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;A7重劃區空橋規劃圖&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.tshsc.org.tw/w/tshsc/SocialHousing_21081301011090040"&gt;龜山樂捷段社會住宅&lt;/a&gt; &lt;/p&gt; &lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-34-01.png"  alt="樂捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.tshsc.org.tw/w/tshsc/SocialHousing_21081301011090040"&gt;龜山樂捷段社會住宅&lt;/a&gt; &lt;/p&gt; &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-34-01.png"  alt="樂捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5&gt;文青國中小&lt;/h5&gt;
-&lt;NuxtImg src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;
 文青國中小學正在籌備中：&lt;a href="https://www.facebook.com/%E6%96%87%E9%9D%92%E5%9C%8B%E4%B8%AD%E5%B0%8F%E7%B1%8C%E5%82%99%E8%99%95-305945223529559/"&gt;籌備處&lt;/a&gt;設在大埔國小辦公室。
 &lt;/p&gt;
@@ -2724,7 +2691,6 @@
 &lt;p&gt;早期教育局曾研議在體育大學附設實驗高中的可行性，教育局長林正峰2020/08/26強調，坪頂地區增設高中問題談了二十幾年，市府指派的坪頂高中設校籌備處主任（校長）未通過校長遴聘，派任迄今也未認真推動設校，坐領乾薪還有餘力與其前任學校同事訴訟打官司，&lt;span class="text-danger"&gt;對設校不抱太多期待&lt;/span&gt;。鑑於這幾年更因該地區人口成長快速，為確保並解決該地區學子就讀高中問題，建議市府優先推動大崗國中改制為完全中學。
 &lt;/p&gt;
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3425,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8086C-E977-C64A-B0B4-A5B2B5BCC698}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3499,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -3583,7 +3549,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -3611,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -3639,7 +3605,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -3669,7 +3635,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -3757,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>176</v>
@@ -3789,10 +3755,10 @@
         <v>50</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874490D7-8F29-EB41-A83F-00A5345D9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673B913-7787-6243-9A79-6A457E098454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="-25340" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="-820" yWindow="-26180" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="199">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -159,11 +159,6 @@
     <t>施工</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p&gt;    未來北臺灣郵件作業中心將整合中華郵政公司臺北及桃園郵件處理中心與國際進、出口郵件業務，處理範圍涵蓋北北基、桃園、新竹及宜蘭、花蓮等區域，約占國內郵件量70%，並導入新式自動化郵件處理設備，優化作業流程，提升郵務運作效能；同時推動海關、郵政、檢驗檢疫單位等跨部會協同作業機制，以提升通關效率。又為發揮園區倉配一體優勢，北臺灣郵件作業中心亦規劃1.2萬坪倉儲空間，除保留中華郵政公司申設保稅倉儲空間外，另供國內、國際電商物流或跨境電商物流業者進駐使用，預計於2021年底前辦理招商作業。&lt;/p&gt;
-&lt;p&gt;     郵政訓練中心為郵政物流園區行政核心，配合北臺灣郵件作業中心落實廠辦分離外，尚規劃設置智慧監控中心，增進園區維運管理效能，並建置完善訓練、會議等場域空間及相關設施，約2,400坪辦公空間將於建物落成後辦理招商，預期引進物流、電商等相關產業之新創或青創業者進駐使用，扶持產業發展。&lt;/p&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>中華郵政資訊中心</t>
   </si>
   <si>
@@ -175,10 +170,6 @@
   </si>
   <si>
     <t>2023/04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;郵政資訊中心：建構零缺失、智慧節能之資訊基礎設施，精進資訊機能，支撐業務發展，確保永續經營。&lt;/p&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -471,10 +462,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;陳雅倫議員爭取605/605A公車，2022/8/1-10/31試營運。牛煦庭議員爭取 158,159 及 A8長庚醫院站循環專車。 A8站循環專車預計2022/9月試營運。&lt;/p&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>長慶一街打通銜接文德路</t>
   </si>
   <si>
@@ -996,46 +983,6 @@
   </si>
   <si>
     <t>2025/06/01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h5&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">龜山國民運動中心&lt;/h5&gt;
-&lt;p&gt;依據 Facebook 2023/01/06 &lt;a
-	href="https://www.facebook.com/groups/1951117865015671/permalink/5588686557925432/"&gt;桃園市政府工務局
-	公共工程招標公告&lt;/a&gt;:
-桃園市龜山國民運動中心新建工程已上網公開閱覽，即將招標。
-根據公開閱覽資料，龜山國民運動中心為地下1層、地上3層建築，總樓地板面積為7814.25平方公尺，地下1層為停車空間，約有36個車位。1樓戶外空間另設有汽、機車停車位
-&lt;/p&gt;
-&lt;p&gt;依據 &lt;a href="https://reiso.tycg.gov.tw/governance-outcome/12"&gt;施政成果透明資訊網&lt;/a&gt;: 預計完成日期 2025/06/01 日。
-&lt;/p&gt;
-&lt;p&gt;2022/06/13 &lt;a
-	href="https://news.housefun.com.tw/news/article/143092338348.html?fbclid=IwAR1i_ZZzkWoNqj9JAJWV_iPwngbBd3wsecqw0oOh41Guj9ECa0dd6o6UC8s"&gt;聯合新聞網&lt;/a&gt;,
-龜山國民運動中心，體育局表示，已確定會蓋在復興三路、文化二路口的華亞園區內，儘管過去因爭取不到體育署經費而延宕，但市府決定用地方統籌分配款自己蓋，總經費6億元，今年已編列9310萬元預算，預計年底發包，2023至2025年再逐年編列建設經費。
-&lt;/p&gt;
-&lt;p&gt;自由時報 2022/04/30 &lt;a href="https://news.ltn.com.tw/news/life/paper/1514599"&gt;斥資6億
-	龜山運動中心年底發包&lt;/a&gt; &lt;br&gt;
-桃園市政府增設多間運動場館希望滿足民眾運動需求，議會定期會昨由市府體育局工作報告時，多位議員質疑場館工程與設備品質不佳、屢遭民眾投訴，議員林俐玲、陳雅倫、牛煦庭更砲轟龜山國民運動中心喊了兩年卻遲未動工，「難道是在騙龜山人」？
-&lt;/p&gt;
-&lt;p&gt;體育局長莊佳佳答詢說，有瑕疵的場館都已進行改善，龜山國民運動中心原預估施工經費三億三千萬元，受物料上漲等因素影響，總經費提高到六億元，市府將使用統籌分配款、分三年逐年編列預算，預計今年底就能發包動工。
-&lt;/p&gt;
-&lt;p&gt;預計興建龜山&lt;span class="text-danger"&gt;國民運動中心?&lt;/span&gt; ，原規劃2019年開始進行用地變更。&lt;br&gt;&lt;br&gt;
-2019/04/29 Yahoo
-新聞稱：副市長李憲明和體育局長莊佳佳都表示，龜山區國民運動中心已選定於龜山區復興三路華亞園區內的機關用地，目前已著手辦理土地個案變更，
-&lt;span
-	class="text-danger"&gt;原預計2020年4月動工興建，約2025年6月完工&lt;/span&gt;。林議員尊重市府的法和規劃，要求市府即將籌編明年度預算時，務必將預算納入並於2020年4月如期動工。
-&lt;/p&gt;
-</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2288,26 +2235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;h5 id="CON-16"&gt;林口工十二聯外道路 - 南林路拓寬工程&lt;/h5&gt;
-&lt;ul&gt;
-&lt;li&gt;工程內容：起自龜山區南林路至桃園市與新北市之交界處，接往林口特定區(新北市轄)工十二工業區，道路長度約為426公尺，寬度12公尺。&lt;/li&gt;
-&lt;li&gt;工程經費：約4510萬元。&lt;/li&gt;
-&lt;li&gt;辦理情形：111年3月25日開工，預計112年9月完工。&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt; &lt;a
-   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
-   新聞&lt;/a&gt;:
- 南林路林口工十二聯外道路位於新北市及桃園市交接，為工十二工業區出入要道，原道路不足8米，十分狹窄，且路型彎曲、排水不佳，亟需進行改善，市府歷經一番努力，包括都市計畫變更、水土保持設計、爭取經費，道路拓寬工程終於2022/03/18動工，改善路段全長426公尺，工期計270日曆天，預定於112年農曆年前完工通車。
- &lt;/p&gt;
-&lt;p&gt; 本案總經費共9,490萬5,266元，其中內政部營建署補助約4,342萬，其餘超過5,000萬經費，由南亞塑膠工業股份有限公司捐贈補足。拓寬工程完工後，小路變大路、彎路變直路，工十二工業區交通出入更安全、方便，有助於吸引產業投資，讓企業在此永續經營。
- &lt;/p&gt;
-&lt;p&gt; 本案完成後將有助於 A7居民步行或騎自行車前往 &lt;a
-   href="https://tcwang.github.io/A7Xinlinkou/A7XLK-12-ParkTrail.html#Menu-B14"&gt;泰山崎頭步道&lt;/a&gt;。
- 目前的道路寬度是行人與車輛共用快車道，對行人/自行車通過會有很大安全威脅！
- &lt;/p&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>9,490</t>
     </r>
@@ -2321,19 +2248,6 @@
       <t>萬</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;郵政物流園區&lt;/h5&gt;
-&lt;p&gt;中華郵政斥資220億元打造「郵政物流園區」，佔地17.14公頃，涵蓋郵政物流中心、北台灣郵件作業中心、郵政資訊中心、郵政訓練中心及工商服務中心等5棟建築物，2023年1月起分階段啟動營運，將有一部分人員先進駐，未來台北、桃園的郵件中心都將進行整併，移至A7，預計未來至少可創造6,000個工作機會。
-&lt;/p&gt;
-&lt;p&gt;中華郵政以建置智慧園區為目標，導入多項自動化設備進行郵件處理作業，推動物流共享平台，以及跨境電+I5子商務物流服務，吸引很多廠商關注，還可望成為東亞地區跨境物流示範基地。
-&lt;/p&gt;
-&lt;p&gt;園區仿效美國蘋果電腦在加州庫帕提諾新總部Apple Park「與自然共存」生態圈工法，建置寬40米、縱深400米，面積逾4000坪的郵政形象公園，連結近2公頃滯洪池，形成自然生態景觀，提供員工及附近居民的休憩場所。
-&lt;/p&gt;
-&lt;p&gt;郵政物流中心地上八層、地下一層，主要樓層四層，每層四倉儲單元，共有16倉儲單元，倉儲面積約4.8萬坪，總樓地板面積達6萬9,686坪，設置兩座立體迴旋車道及218個裝（卸）貨月台。
-&lt;/p&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-02-01.webp" alt="郵政物流園區" sizes="sm:100vw md:150vw lg:200vw" /&gt; 
-郵政物流園區 圖</t>
   </si>
   <si>
     <t>&lt;h5&gt;樂善科學園區開發&lt;/h5&gt;
@@ -2466,73 +2380,6 @@
 &lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;h5 id="CON-15"&gt;變三案: 文藝街 延伸計畫&lt;/h5&gt;
- &lt;p&gt;已經於 2023/1月 完工, 聯合新聞網 2023/01/17：&lt;a
-   href="https://udn.com/news/amp/story/7324/6917649?fbclid=IwAR0SkvK1vrFO96alOFiFRzqWCtoBKFub33tGt9pn_h3QcD1ZROQJwreuPQs"&gt;龜山變三道路拓寬2023/01/17日通車&lt;/a&gt;
- &lt;/p&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-15-01.jpeg"  alt="A7重劃區變三工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
- &lt;p&gt;
- 2022/11/15日 桃園電子報: 「變三道路」拓寬工程範圍起自龜山區文藝街，將改善長80公尺、寬約6至15公尺的道路，工程經費約為3000萬，已於今（111）年3月開工，預計明年1月竣工；
- &lt;/p&gt;
-&lt;p&gt;
- 內政部已核定工程經費2498萬元。全長70米，將開闢為6到15米寬的道路，市府於2021/04/23
- 召開協議價購會議，正辦理簽約過戶程序，預計2021下半年將先完成用地取得即可發包。將會是進度最快的變更計畫。
- &lt;/p&gt;
- &lt;p&gt;&lt;a
-   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
-   新聞&lt;/a&gt;:
- 於 2022/3月底動工。 上面3條道路總經費超過10億元，已獲中央同意補助，完工之後可望打通A7站周邊道路任督二脈，讓交通更順暢。
- &lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- &lt;h5&gt;國道1號 交流道改善工程&lt;/h5&gt;
- 相關資訊
- &lt;ul&gt;
-   &lt;li&gt;
-     壹蘋新聞網 2022/12/22 &lt;a
-       href="https://tw.nextapple.com/life/20221222/FE0B40CD25BB92F2F9E663B7761C2AC2?referralCode=30a32ea6&amp;fbclid=IwAR3M9wydXczmjew-_J6MSH5ETgpJpYAM63B0sYo6hy6iL_xQW9VG0a86TY8"&gt;終結9次流標！29.5億國1林口交流道改善工程今決標　拼2027年完工&lt;/a&gt;
-   &lt;/li&gt;
-   &lt;li&gt;
-     中央通訊社 2022/08/10 &lt;a
-       href="https://www.cna.com.tw/news/ahel/202208100314.aspx?fbclid=IwAR3B7-I4dyIODDIQSQskiNKMLL4aS8Zh9auOHhjwuRmtiyOjdAeiog7TRTU"&gt;林口交流道7度流標
-       高公局將檢討招標條件&lt;/a&gt;
-   &lt;/li&gt;
-   &lt;li&gt;
-     交通部高速公路局 &lt;a href="https://www.freeway.gov.tw/Publish.aspx?cnid=95&amp;p=22539"&gt;國道1號林口交流道改善工程&lt;/a&gt;,
-     &amp;nbsp;
-     &lt;a href="file/XLK-219-林口建設計畫定稿本(全).pdf"&gt;林口建設計畫-定稿本&lt;/a&gt;
-   &lt;/li&gt;
-   &lt;li&gt;
-     聯合新聞網 2021/08/06 &lt;a
-       href="https://udn.com/news/story/7323/5654995?from=udn-ch1_breaknews-1-cate3-news&amp;fbclid=IwAR0LYk0yPMCqCzX6nVjmWo1xmjyXvMahoves_1gH_jk7jpPycQCCuf6DREg"&gt;政院核定國1林口交流道改善工程&lt;/a&gt;
-   &lt;/li&gt;
- &lt;/ul&gt;
- 改善示意圖：&lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-01.webp" alt="林口國1改善工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-02.jpeg" alt="林口國1改善工程"   sizes="sm:100vw md:150vw lg:200vw" /&gt;
- &lt;h5&gt;計畫緣起&lt;/h5&gt;
- &lt;p&gt;國道1號林口交流道位於新北市林口區與桃園市龜山區交界，設有林口A(約41K)及林口B(約43K)二個鑽石型交流道，並以集散道串聯。因周邊大型開發持續增加，人口快速成長，交通量大幅增加，囿於匝道出入口受主線長爬坡、匝道縱坡、地方道路號誌延滯及文化一路跨越橋儲車空間不足等影響，導致車輛回堵主線壅塞嚴重，爰辦理本工程。
- &lt;/p&gt;
- &lt;h5&gt;計畫內容&lt;/h5&gt;
- &lt;ol&gt;
-   &lt;li&gt;新增林口A交流道南出匝道：原林口A南出匝道於外側公有地新增南出左轉高架匝道，跨越文化一路及國1主線後於桃園側各1車道銜接復興街及文化一路內側，並於原南出匝道外側新增1右轉車道。&lt;/li&gt;
-   &lt;li&gt;新增林口A交流道北入匝道：匝道起點為八德路與文化一路三角地帶，終點與林口B北入車道匯集後匯入主線。&lt;/li&gt;
-   &lt;li&gt;林口A、B交流道南出南入及北出北入交織改善：以箱涵立體化改善，避免車輛交織，並考量北出車流大，增設林口A北出匝道銜接文化三路。&lt;/li&gt;
- &lt;/ol&gt;
- &lt;h5&gt;計畫期程&lt;/h5&gt;
-&lt;p&gt;
- 依據 &lt;a
-   href="https://tw.nextapple.com/life/20221222/FE0B40CD25BB92F2F9E663B7761C2AC2?referralCode=30a32ea6&amp;fbclid=IwAR3M9wydXczmjew-_J6MSH5ETgpJpYAM63B0sYo6hy6iL_xQW9VG0a86TY8"&gt;壹蘋新聞網
-   2022/12/22&lt;/a&gt;:
- 歷經9次流標， 2022/12/22 終於以29億5,880萬元決標，預計2027年完工。 &lt;del&gt;5年, 2021/7/30日核定，預計2025年完工通車&lt;/del&gt;
- &lt;/p&gt;
- 規劃示意圖：&lt;br&gt;
- &lt;img src="../_nuxt/assets/img/CON-17-03.jpeg" class="img-fluid m-1" style="width:600px"&gt;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h5&gt;林口工五工業區 - 擴大方案&lt;/h5&gt;
 &lt;ul&gt;
 	&lt;li&gt;
@@ -2571,24 +2418,6 @@
 主要為龜山區第三公墓使用，約 13,500 座墳墓，已於 108 年 3
 月公告禁葬，西側有部分為農業及森林使用土地，農業使用為零星分布，面積狹小，主要為果樹、旱作，西北側有部分建築使用土地，主要為住宅（共有 16 戶，實際居住約 13
 戶）及製造業之廠房分布；東北側現況有較多建築使用土地，主要為製造業之廠房，合計區內現有工廠約 18 家。&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;h5&gt;新莊區壽山路丹鳳橋瓶頸路口改善 &lt;/h5&gt;
- &lt;ol&gt;
-   &lt;li&gt;計畫目的:新北市新莊區 #壽山路 為承接新北市及桃園市上下班車流，交通量龐大，為改善壽山路丹鳳橋路口尖峰時段交通繁忙，常發生壅塞回堵至相鄰之新北大道路口，及1K+360至1K+480路段
-     轉彎處視距不佳之問題，透過本案於工址1新莊區壽山路丹鳳橋路口處拓寬既有道路，北向舒緩直行壽山路車流、南向分流壽山 路南下直行車流，以改善路口段服務水準不足之問題，另於工址
-     2壽山路1K+360至1K+480路段彎道線型優化，改善轉彎路段之行車安全問題，及留設路肩供緊急停靠，以提升行車環境品質。&lt;/li&gt;
-   &lt;li&gt;計畫範圍:詳如土地使用計畫圖。&lt;/li&gt;
-   &lt;li&gt;計畫進度:預定112年2月開工，112年底完工。&lt;/li&gt;
-   &lt;li&gt;主體工程:本案主要辦理2處路段局部拓寬，工址1位新莊區壽山路丹鳳橋路口處之既有道路拓寬，規劃為雙向4車道，西側新設 懸臂式護岸(長約79公尺，基礎寬4公尺含懸臂板)、北側新設2處
-     擋土設施(長約12公尺及21公尺)、新設人行道及既有人行道復舊， 工址2位壽山路1K+360至1K+480路段彎道線型優化，西側新設擋 土設施(長約66公尺)及留設路肩供緊急停靠。&lt;/li&gt;
- &lt;/ol&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-01.jpeg"  alt="壽山路拓寬1" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-02.jpeg"   alt="壽山路拓寬2" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-03.jpeg"  alt="壽山路拓寬3" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-04.jpeg" alt="壽山路拓寬4" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-05.jpeg" alt="壽山路拓寬5"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 </t>
   </si>
   <si>
@@ -2692,12 +2521,1104 @@
 &lt;/p&gt;
 </t>
   </si>
+  <si>
+    <t>&lt;h5&gt;郵政物流園區&lt;/h5&gt;
+&lt;p&gt;中華郵政斥資220億元打造「郵政物流園區」，佔地17.14公頃，涵蓋郵政物流中心、北台灣郵件作業中心、郵政資訊中心、郵政訓練中心及工商服務中心等5棟建築物，2023年1月起分階段啟動營運，將有一部分人員先進駐，未來台北、桃園的郵件中心都將進行整併，移至A7，預計未來至少可創造6,000個工作機會。
+&lt;/p&gt;
+&lt;p&gt;中華郵政以建置智慧園區為目標，導入多項自動化設備進行郵件處理作業，推動物流共享平台，以及跨境電+I5子商務物流服務，吸引很多廠商關注，還可望成為東亞地區跨境物流示範基地。
+&lt;/p&gt;
+&lt;p&gt;園區仿效美國蘋果電腦在加州庫帕提諾新總部Apple Park「與自然共存」生態圈工法，建置寬40米、縱深400米，面積逾4000坪的郵政形象公園，連結近2公頃滯洪池，形成自然生態景觀，提供員工及附近居民的休憩場所。
+&lt;/p&gt;
+&lt;p&gt;郵政物流中心地上八層、地下一層，主要樓層四層，每層四倉儲單元，共有16倉儲單元，倉儲面積約4.8萬坪，總樓地板面積達6萬9,686坪，設置兩座立體迴旋車道及218個裝（卸）貨月台。
+&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-02-01.webp" alt="郵政物流園區" sizes="sm:100vw md:150vw lg:200vw" /&gt; 
+郵政物流園區 圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;p&gt;    未來北臺灣郵件作業中心將整合中華郵政公司臺北及桃園郵件處理中心與國際進、出口郵件業務，處理範圍涵蓋北北基、桃園、新竹及宜蘭、花蓮等區域，約占國內郵件量70%，並導入新式自動化郵件處理設備，優化作業流程，提升郵務運作效能；同時推動海關、郵政、檢驗檢疫單位等跨部會協同作業機制，以提升通關效率。又為發揮園區倉配一體優勢，北臺灣郵件作業中心亦規劃1.2萬坪倉儲空間，除保留中華郵政公司申設保稅倉儲空間外，另供國內、國際電商物流或跨境電商物流業者進駐使用，預計於2021年底前辦理招商作業。&lt;/p&gt;
+&lt;p&gt;     郵政訓練中心為郵政物流園區行政核心，配合北臺灣郵件作業中心落實廠辦分離外，尚規劃設置智慧監控中心，增進園區維運管理效能，並建置完善訓練、會議等場域空間及相關設施，約2,400坪辦公空間將於建物落成後辦理招商，預期引進物流、電商等相關產業之新創或青創業者進駐使用，扶持產業發展。&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-03-01.jpeg" alt="郵政作業中心" sizes="sm:100vw md:150vw lg:200vw" /&gt; </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;郵政資訊中心：建構零缺失、智慧節能之資訊基礎設施，精進資訊機能，支撐業務發展，確保永續經營。&lt;/p&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-04-01.jpeg" alt="郵政作業中心" sizes="sm:100vw md:150vw lg:200vw" /&gt; </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;h5 id="CON-15"&gt;變三案: 文藝街 延伸計畫&lt;/h5&gt;
+ &lt;p&gt;已經於 2023/1月 完工, 聯合新聞網 2023/01/17：&lt;a
+   href="https://udn.com/news/amp/story/7324/6917649?fbclid=IwAR0SkvK1vrFO96alOFiFRzqWCtoBKFub33tGt9pn_h3QcD1ZROQJwreuPQs"&gt;龜山變三道路拓寬2023/01/17日通車&lt;/a&gt;
+ &lt;/p&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-15-01.jpeg"  alt="A7重劃區變三工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;p&gt;
+ 2022/11/15日 桃園電子報: 「變三道路」拓寬工程範圍起自龜山區文藝街，將改善長80公尺、寬約6至15公尺的道路，工程經費約為3000萬，已於今（111）年3月開工，預計明年1月竣工；
+ &lt;/p&gt;
+&lt;p&gt;
+ 內政部已核定工程經費2498萬元。全長70米，將開闢為6到15米寬的道路，市府於2021/04/23
+ 召開協議價購會議，正辦理簽約過戶程序，預計2021下半年將先完成用地取得即可發包。將會是進度最快的變更計畫。
+ &lt;/p&gt;
+ &lt;p&gt;&lt;a
+   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
+   新聞&lt;/a&gt;:
+ 於 2022/3月底動工。 上面3條道路總經費超過10億元，已獲中央同意補助，完工之後可望打通A7站周邊道路任督二脈，讓交通更順暢。
+ &lt;/p&gt;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;h5 id="CON-16"&gt;林口工十二聯外道路 - 南林路拓寬工程&lt;/h5&gt;
+&lt;ul&gt;
+&lt;li&gt;工程內容：起自龜山區南林路至桃園市與新北市之交界處，接往林口特定區(新北市轄)工十二工業區，道路長度約為426公尺，寬度12公尺。&lt;/li&gt;
+&lt;li&gt;工程經費：約4510萬元。&lt;/li&gt;
+&lt;li&gt;辦理情形：111年3月25日開工，預計112年9月完工。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt; &lt;a
+   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
+   新聞&lt;/a&gt;:
+ 南林路林口工十二聯外道路位於新北市及桃園市交接，為工十二工業區出入要道，原道路不足8米，十分狹窄，且路型彎曲、排水不佳，亟需進行改善，市府歷經一番努力，包括都市計畫變更、水土保持設計、爭取經費，道路拓寬工程終於2022/03/18動工，改善路段全長426公尺，工期計270日曆天，預定於112年農曆年前完工通車。
+ &lt;/p&gt;
+&lt;p&gt; 本案總經費共9,490萬5,266元，其中內政部營建署補助約4,342萬，其餘超過5,000萬經費，由南亞塑膠工業股份有限公司捐贈補足。拓寬工程完工後，小路變大路、彎路變直路，工十二工業區交通出入更安全、方便，有助於吸引產業投資，讓企業在此永續經營。
+ &lt;/p&gt;
+&lt;p&gt; 本案完成後將有助於 A7居民步行或騎自行車前往 &lt;a
+   href="https://tcwang.github.io/A7Xinlinkou/A7XLK-12-ParkTrail.html#Menu-B14"&gt;泰山崎頭步道&lt;/a&gt;。
+ 目前的道路寬度是行人與車輛共用快車道，對行人/自行車通過會有很大安全威脅！
+ &lt;/p&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-16-01.jpeg"  alt="A7重劃區變三工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ &lt;h5&gt;國道1號 交流道改善工程&lt;/h5&gt;
+ 相關資訊
+ &lt;ul&gt;
+   &lt;li&gt;
+     壹蘋新聞網 2022/12/22 &lt;a
+       href="https://tw.nextapple.com/life/20221222/FE0B40CD25BB92F2F9E663B7761C2AC2?referralCode=30a32ea6&amp;fbclid=IwAR3M9wydXczmjew-_J6MSH5ETgpJpYAM63B0sYo6hy6iL_xQW9VG0a86TY8"&gt;終結9次流標！29.5億國1林口交流道改善工程今決標　拼2027年完工&lt;/a&gt;
+   &lt;/li&gt;
+   &lt;li&gt;
+     中央通訊社 2022/08/10 &lt;a
+       href="https://www.cna.com.tw/news/ahel/202208100314.aspx?fbclid=IwAR3B7-I4dyIODDIQSQskiNKMLL4aS8Zh9auOHhjwuRmtiyOjdAeiog7TRTU"&gt;林口交流道7度流標
+       高公局將檢討招標條件&lt;/a&gt;
+   &lt;/li&gt;
+   &lt;li&gt;
+     交通部高速公路局 &lt;a href="https://www.freeway.gov.tw/Publish.aspx?cnid=95&amp;p=22539"&gt;國道1號林口交流道改善工程&lt;/a&gt;,
+     &amp;nbsp;
+     &lt;a href="file/XLK-219-林口建設計畫定稿本(全).pdf"&gt;林口建設計畫-定稿本&lt;/a&gt;
+   &lt;/li&gt;
+   &lt;li&gt;
+     聯合新聞網 2021/08/06 &lt;a
+       href="https://udn.com/news/story/7323/5654995?from=udn-ch1_breaknews-1-cate3-news&amp;fbclid=IwAR0LYk0yPMCqCzX6nVjmWo1xmjyXvMahoves_1gH_jk7jpPycQCCuf6DREg"&gt;政院核定國1林口交流道改善工程&lt;/a&gt;
+   &lt;/li&gt;
+ &lt;/ul&gt;
+ 改善示意圖：&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-01.webp" alt="林口國1改善工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-02.jpeg" alt="林口國1改善工程2"   sizes="sm:100vw md:150vw lg:200vw" /&gt;
+ &lt;h5&gt;計畫緣起&lt;/h5&gt;
+ &lt;p&gt;國道1號林口交流道位於新北市林口區與桃園市龜山區交界，設有林口A(約41K)及林口B(約43K)二個鑽石型交流道，並以集散道串聯。因周邊大型開發持續增加，人口快速成長，交通量大幅增加，囿於匝道出入口受主線長爬坡、匝道縱坡、地方道路號誌延滯及文化一路跨越橋儲車空間不足等影響，導致車輛回堵主線壅塞嚴重，爰辦理本工程。
+ &lt;/p&gt;
+ &lt;h5&gt;計畫內容&lt;/h5&gt;
+ &lt;ol&gt;
+   &lt;li&gt;新增林口A交流道南出匝道：原林口A南出匝道於外側公有地新增南出左轉高架匝道，跨越文化一路及國1主線後於桃園側各1車道銜接復興街及文化一路內側，並於原南出匝道外側新增1右轉車道。&lt;/li&gt;
+   &lt;li&gt;新增林口A交流道北入匝道：匝道起點為八德路與文化一路三角地帶，終點與林口B北入車道匯集後匯入主線。&lt;/li&gt;
+   &lt;li&gt;林口A、B交流道南出南入及北出北入交織改善：以箱涵立體化改善，避免車輛交織，並考量北出車流大，增設林口A北出匝道銜接文化三路。&lt;/li&gt;
+ &lt;/ol&gt;
+ &lt;h5&gt;計畫期程&lt;/h5&gt;
+&lt;p&gt;
+ 依據 &lt;a
+   href="https://tw.nextapple.com/life/20221222/FE0B40CD25BB92F2F9E663B7761C2AC2?referralCode=30a32ea6&amp;fbclid=IwAR3M9wydXczmjew-_J6MSH5ETgpJpYAM63B0sYo6hy6iL_xQW9VG0a86TY8"&gt;壹蘋新聞網
+   2022/12/22&lt;/a&gt;:
+ 歷經9次流標， 2022/12/22 終於以29億5,880萬元決標，預計2027年完工。 &lt;del&gt;5年, 2021/7/30日核定，預計2025年完工通車&lt;/del&gt;
+ &lt;/p&gt;
+ 規劃示意圖：&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-17-03.jpeg" alt="林口國1改善工程3"   sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫議員爭取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>605/605A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公車，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022/8/1-10/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>試營運。牛煦庭議員爭取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 158,159 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">長庚醫院站循環專車。606 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站循環專車</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月起試營運。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">新莊區壽山路丹鳳橋瓶頸路口改善 &lt;/h5&gt;
+ &lt;ol&gt;
+   &lt;li&gt;計畫目的:新北市新莊區 #壽山路 為承接新北市及桃園市上下班車流，交通量龐大，為改善壽山路丹鳳橋路口尖峰時段交通繁忙，常發生壅塞回堵至相鄰之新北大道路口，及1K+360至1K+480路段
+     轉彎處視距不佳之問題，透過本案於工址1新莊區壽山路丹鳳橋路口處拓寬既有道路，北向舒緩直行壽山路車流、南向分流壽山 路南下直行車流，以改善路口段服務水準不足之問題，另於工址
+     2壽山路1K+360至1K+480路段彎道線型優化，改善轉彎路段之行車安全問題，及留設路肩供緊急停靠，以提升行車環境品質。&lt;/li&gt;
+   &lt;li&gt;計畫範圍:詳如土地使用計畫圖。&lt;/li&gt;
+   &lt;li&gt;計畫進度:預定112年2月開工，112年底完工。&lt;/li&gt;
+   &lt;li&gt;主體工程:本案主要辦理2處路段局部拓寬，工址1位新莊區壽山路丹鳳橋路口處之既有道路拓寬，規劃為雙向4車道，西側新設 懸臂式護岸(長約79公尺，基礎寬4公尺含懸臂板)、北側新設2處
+     擋土設施(長約12公尺及21公尺)、新設人行道及既有人行道復舊， 工址2位壽山路1K+360至1K+480路段彎道線型優化，西側新設擋 土設施(長約66公尺)及留設路肩供緊急停靠。&lt;/li&gt;
+ &lt;/ol&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-01.jpeg"  alt="壽山路拓寬1" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-02.jpeg"   alt="壽山路拓寬2" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-03.jpeg"  alt="壽山路拓寬3" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-04.jpeg" alt="壽山路拓寬4" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-05.jpeg" alt="壽山路拓寬5"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+	&lt;li&gt;工程名稱; 南崁溪上游水質共融式親水公園 &lt;/li&gt;
+	&lt;li&gt;決標金額: 3,880,000 元 &lt;/li&gt;
+	&lt;li&gt;施工期間: 2022/03/09 - 2022/08/08, 實際竣工 2022/09/24 &lt;/li&gt;
+	&lt;li&gt;臉書追蹤: &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5252846688176089/"&gt;A7重劃區大小事2022/09/13&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-32-01.jpeg" alt="壽山路拓寬5"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>龜山國民運動中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Facebook 2023/01/06 &lt;a
+	href="https://www.facebook.com/groups/1951117865015671/permalink/5588686557925432/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">桃園市政府工務局
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公共工程招標公告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市龜山國民運動中心新建工程已上網公開閱覽，即將招標。
+根據公開閱覽資料，龜山國民運動中心為地下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層、地上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層建築，總樓地板面積為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7814.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平方公尺，地下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>層為停車空間，約有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個車位。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">樓戶外空間另設有汽、機車停車位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://reiso.tycg.gov.tw/governance-outcome/12"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>施政成果透明資訊網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預計完成日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2025/06/01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">日。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;2022/06/13 &lt;a
+	href="https://news.housefun.com.tw/news/article/143092338348.html?fbclid=IwAR1i_ZZzkWoNqj9JAJWV_iPwngbBd3wsecqw0oOh41Guj9ECa0dd6o6UC8s"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>龜山國民運動中心，體育局表示，已確定會蓋在復興三路、文化二路口的華亞園區內，儘管過去因爭取不到體育署經費而延宕，但市府決定用地方統籌分配款自己蓋，總經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元，今年已編列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬元預算，預計年底發包，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年再逐年編列建設經費。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022/04/30 &lt;a href="https://news.ltn.com.tw/news/life/paper/1514599"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>斥資</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">億
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>龜山運動中心年底發包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">桃園市政府增設多間運動場館希望滿足民眾運動需求，議會定期會昨由市府體育局工作報告時，多位議員質疑場館工程與設備品質不佳、屢遭民眾投訴，議員林俐玲、陳雅倫、牛煦庭更砲轟龜山國民運動中心喊了兩年卻遲未動工，「難道是在騙龜山人」？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">體育局長莊佳佳答詢說，有瑕疵的場館都已進行改善，龜山國民運動中心原預估施工經費三億三千萬元，受物料上漲等因素影響，總經費提高到六億元，市府將使用統籌分配款、分三年逐年編列預算，預計今年底就能發包動工。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預計興建龜山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span class="text-danger"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國民運動中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">?&lt;/span&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，原規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年開始進行用地變更。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
+2019/04/29 Yahoo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">新聞稱：副市長李憲明和體育局長莊佳佳都表示，龜山區國民運動中心已選定於龜山區復興三路華亞園區內的機關用地，目前已著手辦理土地個案變更，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span
+	class="text-red-400"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月動工興建，約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月完工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。林議員尊重市府的法和規劃，要求市府即將籌編明年度預算時，務必將預算納入並於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月如期動工。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2784,6 +3705,13 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3391,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8086C-E977-C64A-B0B4-A5B2B5BCC698}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3465,11 +4393,11 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="192">
+    <row r="3" spans="1:10" ht="224">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
@@ -3493,25 +4421,25 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="51">
+    <row r="4" spans="1:10" ht="64">
       <c r="A4" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="5" t="s">
@@ -3521,25 +4449,25 @@
         <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="272">
       <c r="A5" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="5" t="s">
@@ -3549,25 +4477,25 @@
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="272">
       <c r="A6" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5" t="s">
@@ -3577,25 +4505,25 @@
         <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="272">
       <c r="A7" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
@@ -3605,28 +4533,28 @@
         <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="409.6">
       <c r="A8" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>16</v>
@@ -3635,150 +4563,150 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="80">
       <c r="A9" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="128">
       <c r="A10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="160">
       <c r="A11" s="30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
       <c r="A12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
       <c r="A13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>16</v>
@@ -3787,528 +4715,530 @@
         <v>22</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="32">
+    <row r="22" spans="1:10" ht="160">
       <c r="A22" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="E22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="G22" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="48">
       <c r="A28" s="30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="80">
       <c r="A29" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="32">
       <c r="A30" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="32">
       <c r="A31" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="136">
       <c r="A33" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -4319,79 +5249,79 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="128">
       <c r="A34" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="48">
       <c r="A35" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
@@ -4401,65 +5331,65 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="395">
       <c r="A37" s="30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J38" s="27"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673B913-7787-6243-9A79-6A457E098454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A851588D-EACA-4E49-879D-D26AC07FF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="-26180" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="11320" yWindow="-27680" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1958,23 +1958,6 @@
       <t xml:space="preserve">總金額 112,600 (千元), 112年度 8,000, 113年度 50,000, 114年度 54,000 (千元）
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;p&gt;&lt;a href="https://tyenews.com/2023/05/380121/"&gt;桃園電子報 2023/05/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/a&gt;: 龜山文青水園水資中心啟動擴建工程 污水處理量將提升至每日9千噸
-&lt;/p&gt;
-&lt;p&gt;桃園機場捷運A7站地區人口快速增長，為提升污水處理量，開始啟動文青水園水資源回收中心第二期擴建工程。水務局表示，該工程採用統包工程方式，已於2023年4月決標，該案完成後污水處理量，從原本每日可處理4000噸，提升至每日9000噸，所提升處理量以服務更多民眾家庭，避免家庭生活污水直接排入河川，提升桃市生活環境，讓都市發展的同時有更好的生活環境，並減少河川負擔。&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>協和磚窯場的修復再利用計畫</t>
@@ -2488,9 +2471,6 @@
   <si>
     <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" alt="A7空橋" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;p&gt;A7重劃區空橋規劃圖&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.tshsc.org.tw/w/tshsc/SocialHousing_21081301011090040"&gt;龜山樂捷段社會住宅&lt;/a&gt; &lt;/p&gt; &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-34-01.png"  alt="樂捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5&gt;文青國中小&lt;/h5&gt;
@@ -3610,6 +3590,209 @@
       </rPr>
       <t xml:space="preserve">&lt;/p&gt;
 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.tshsc.org.tw/w/tshsc/SocialHousing_21081301011090040"&gt;龜山樂捷段社會住宅&lt;/a&gt; &lt;/p&gt; &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-34-01.png"  alt="樂捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;&lt;a href="https://tyenews.com/2023/05/380121/"&gt;桃園電子報 2023/05/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>龜山文青水園水資中心啟動擴建工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>污水處理量將提升至每日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">千噸
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園機場捷運</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站地區人口快速增長，為提升污水處理量，開始啟動文青水園水資源回收中心第二期擴建工程。水務局表示，該工程採用統包工程方式，已於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月決標，該案完成後污水處理量，從原本每日可處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噸，提升至每日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噸，所提升處理量以服務更多民眾家庭，避免家庭生活污水直接排入河川，提升桃市生活環境，讓都市發展的同時有更好的生活環境，並減少河川負擔。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-30-01.jpg"  alt="水資源第二期" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4319,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8086C-E977-C64A-B0B4-A5B2B5BCC698}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -4393,7 +4576,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -4421,7 +4604,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -4449,7 +4632,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4477,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -4505,7 +4688,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -4533,7 +4716,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -4563,7 +4746,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -4627,7 +4810,7 @@
     </row>
     <row r="11" spans="1:10" ht="160">
       <c r="A11" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>51</v>
@@ -4636,7 +4819,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>54</v>
@@ -4651,10 +4834,10 @@
         <v>48</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -4683,10 +4866,10 @@
         <v>48</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -4715,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -4745,7 +4928,7 @@
         <v>73</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -4760,13 +4943,13 @@
         <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>72</v>
@@ -4775,7 +4958,7 @@
         <v>73</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -4805,7 +4988,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -4831,7 +5014,7 @@
         <v>86</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" s="10"/>
     </row>
@@ -4881,7 +5064,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -4933,7 +5116,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -4963,7 +5146,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -5017,7 +5200,7 @@
         <v>48</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -5045,7 +5228,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>119</v>
@@ -5099,7 +5282,7 @@
         <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J27" s="10"/>
     </row>
@@ -5125,7 +5308,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J28" s="10"/>
     </row>
@@ -5227,7 +5410,7 @@
       </c>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="136">
+    <row r="33" spans="1:10" ht="167">
       <c r="A33" s="30" t="s">
         <v>143</v>
       </c>
@@ -5249,22 +5432,22 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="128">
       <c r="A34" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -5275,25 +5458,25 @@
         <v>86</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="48">
       <c r="A35" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
@@ -5303,25 +5486,25 @@
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
@@ -5331,24 +5514,24 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="395">
       <c r="A37" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -5359,28 +5542,28 @@
         <v>48</v>
       </c>
       <c r="I37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>72</v>
@@ -5389,7 +5572,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="27"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A851588D-EACA-4E49-879D-D26AC07FF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA173487-0056-D84F-9308-FCC160357936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="-27680" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="19880" yWindow="-27640" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3795,6 +3795,14 @@
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-30-01.jpg"  alt="水資源第二期" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.126億</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4502,8 +4510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F8086C-E977-C64A-B0B4-A5B2B5BCC698}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -5423,8 +5434,12 @@
       <c r="D33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="G33" s="16" t="s">
         <v>16</v>
       </c>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA173487-0056-D84F-9308-FCC160357936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08D825-A899-CA4B-B5B1-B6DCC8C7453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="-27640" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="5340" yWindow="-26920" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="207">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2467,10 +2467,6 @@
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-21-01.jpeg"  alt="樂善公墓" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt;&lt;br&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" alt="A7空橋" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;p&gt;A7重劃區空橋規劃圖&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5&gt;文青國中小&lt;/h5&gt;
@@ -3802,6 +3798,425 @@
   </si>
   <si>
     <t>2025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 規劃預算被刪！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遙遙無期？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-23-01%20(1).png" alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>空橋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;p&gt;A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區空橋規劃圖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/a7.home.tw/permalink/6839610802744561/?mibextid=uyAsYr"&gt;FB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區準鄰居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/13&lt;/a&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>議員稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滯洪池公園預算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">遭刪除！】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;
+雅倫爭取A7滯洪池濕轉乾改為公園乙案，水務局有盡責做好規劃並編列了4355萬元的預算，卻在今年7/10被市府高層刪除。
+昨日才聽到市府說大山頂（山頂里、幸福里、山福里…等）周邊沒有公園需求，今日又被我發現A7滯洪池公園的預算也慘遭刪除！
+兩個生活圈都缺乏公園綠地，但現在市府無心建設龜山，令人心寒！
+&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-24-01.jpeg" alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滯洪池預算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5472370532890369/?mibextid=zDhOQc"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; 2022/11/29: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長慶三街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樂捷市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>社區前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已經換植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吉野櫻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">的櫻花大道
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-25-01.jpeg" alt="櫻花大道" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/127251476046776/search/?q=%E7%A9%BA%E6%B1%A1"&gt;FB A7新林口-社區網站&lt;/a&gt; 對A7重劃區的 空污問題 討論紀錄，希望徹底解決民眾疑慮。加強區域空汙監控措施！
+&lt;/p&gt;
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4511,10 +4926,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -4587,7 +5002,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -4615,7 +5030,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -4643,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -4939,7 +5354,7 @@
         <v>73</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -4969,7 +5384,7 @@
         <v>73</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -4999,7 +5414,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -5075,7 +5490,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -5127,7 +5542,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -5157,7 +5572,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -5239,7 +5654,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>119</v>
@@ -5297,7 +5712,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="48">
+    <row r="28" spans="1:10" ht="51">
       <c r="A28" s="30" t="s">
         <v>127</v>
       </c>
@@ -5318,12 +5733,12 @@
       <c r="H28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>185</v>
+      <c r="I28" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="80">
+    <row r="29" spans="1:10" ht="272">
       <c r="A29" s="30" t="s">
         <v>130</v>
       </c>
@@ -5336,18 +5751,24 @@
       <c r="D29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="G29" s="16" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="12" t="s">
+        <v>204</v>
+      </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="32">
+    <row r="30" spans="1:10" ht="134">
       <c r="A30" s="30" t="s">
         <v>133</v>
       </c>
@@ -5368,10 +5789,12 @@
       <c r="H30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="32">
+    <row r="31" spans="1:10" ht="112">
       <c r="A31" s="30" t="s">
         <v>136</v>
       </c>
@@ -5392,7 +5815,9 @@
       <c r="H31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="224">
@@ -5435,10 +5860,10 @@
         <v>145</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>16</v>
@@ -5447,11 +5872,11 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="128">
+    <row r="34" spans="1:10" ht="144">
       <c r="A34" s="30" t="s">
         <v>146</v>
       </c>
@@ -5477,7 +5902,7 @@
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="48">
+    <row r="35" spans="1:10" ht="64">
       <c r="A35" s="30" t="s">
         <v>150</v>
       </c>
@@ -5501,7 +5926,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J35" s="10"/>
     </row>
@@ -5529,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>159</v>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08D825-A899-CA4B-B5B1-B6DCC8C7453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95D80A-D64A-DF47-BF99-4D9701DB3CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="-26920" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="5320" yWindow="-26940" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3871,7 +3871,194 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5472370532890369/?mibextid=zDhOQc"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; 2022/11/29: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長慶三街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樂捷市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>社區前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已經換植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吉野櫻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">的櫻花大道
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-25-01.jpeg" alt="櫻花大道" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/127251476046776/search/?q=%E7%A9%BA%E6%B1%A1"&gt;FB A7新林口-社區網站&lt;/a&gt; 對A7重劃區的 空污問題 討論紀錄，希望徹底解決民眾疑慮。加強區域空汙監控措施！
+&lt;/p&gt;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">&lt;p&gt;
+請參閱 &lt;a href="https://www.facebook.com/groups/127251476046776/search/?q=%E5%85%AC%E6%BB%AF%E4%B8%80"&gt;FB A7新林口-社區網站&lt;/a&gt;: 以往對A7重劃區 滯洪池活化的討論紀錄！
+&lt;/p&gt;
+&lt;p&gt;
 &lt;a href="https://www.facebook.com/groups/a7.home.tw/permalink/6839610802744561/?mibextid=uyAsYr"&gt;FB </t>
     </r>
     <r>
@@ -4033,190 +4220,6 @@
       </rPr>
       <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt;
-&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5472370532890369/?mibextid=zDhOQc"&gt;FB A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區大小事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt; 2022/11/29: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長慶三街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樂捷市</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>社區前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已經換植</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吉野櫻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">的櫻花大道
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-25-01.jpeg" alt="櫻花大道" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-&lt;a href="https://www.facebook.com/groups/127251476046776/search/?q=%E7%A9%BA%E6%B1%A1"&gt;FB A7新林口-社區網站&lt;/a&gt; 對A7重劃區的 空污問題 討論紀錄，希望徹底解決民眾疑慮。加強區域空汙監控措施！
-&lt;/p&gt;
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4929,7 +4932,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -5738,7 +5741,7 @@
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="272">
+    <row r="29" spans="1:10" ht="372">
       <c r="A29" s="30" t="s">
         <v>130</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J29" s="10"/>
     </row>
@@ -5790,7 +5793,7 @@
         <v>86</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J30" s="10"/>
     </row>
@@ -5816,7 +5819,7 @@
         <v>86</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J31" s="10"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95D80A-D64A-DF47-BF99-4D9701DB3CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DD9F9-CFF9-CF47-A58C-5107078FD8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="-26940" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
@@ -1870,11 +1870,6 @@
   </si>
   <si>
     <t>CON-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">市2023年已編列350萬預算委託設計規劃，將A7站公滯1、公滯4、公滯9、公滯11，共計4座濕式轉為乾式滯洪池 ；
-2022/09/30 牛煦庭議員: 「公滯一」滯洪池濕式改乾式案會勘，經水務局評估可行性沒問題！&lt;br&gt;
-</t>
   </si>
   <si>
     <t>A7景觀大道 建議案</t>
@@ -3805,10 +3800,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023 規劃預算被刪！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>遙遙無期？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4219,6 +4210,228 @@
         <family val="1"/>
       </rPr>
       <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年已編列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬預算委託設計規劃，將</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站公滯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、公滯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、公滯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、公滯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，共計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>座濕式轉為乾式滯洪池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;
+&lt;p&gt; 
+牛煦庭議員2022/09/30 現場探勘紀錄:&lt;br&gt;
+「公滯01」滯洪池濕式改乾式案09/30日現勘，經水務局評估可行性沒問題！工程上會增設排水箱涵增加效率，並設草坪鋪面、共融遊具和運動場。可以給缺乏公園綠地的A7重劃區增加活動空間。 2023年進入正式的規劃設計，我要求水務局、公所、工務局遊戲場總顧問等單位屆時共同會商，並參酌其他縣市案例，讓規劃設計一步到位。順利的情況下，2024年可進入正式工程階段
+&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-24-02.jpeg" alt="A7滯洪池預算" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4,355 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬預算被刪！</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4929,7 +5142,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
@@ -5005,7 +5218,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -5033,7 +5246,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -5061,7 +5274,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -5089,7 +5302,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -5117,7 +5330,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -5145,7 +5358,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -5175,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -5239,7 +5452,7 @@
     </row>
     <row r="11" spans="1:10" ht="160">
       <c r="A11" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>51</v>
@@ -5248,7 +5461,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>54</v>
@@ -5263,10 +5476,10 @@
         <v>48</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -5295,10 +5508,10 @@
         <v>48</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -5327,7 +5540,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -5357,7 +5570,7 @@
         <v>73</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -5372,13 +5585,13 @@
         <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>72</v>
@@ -5387,7 +5600,7 @@
         <v>73</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -5417,7 +5630,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -5443,7 +5656,7 @@
         <v>86</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J17" s="10"/>
     </row>
@@ -5493,7 +5706,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -5545,7 +5758,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -5575,7 +5788,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -5629,7 +5842,7 @@
         <v>48</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -5657,7 +5870,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>119</v>
@@ -5711,7 +5924,7 @@
         <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J27" s="10"/>
     </row>
@@ -5737,7 +5950,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J28" s="10"/>
     </row>
@@ -5751,38 +5964,38 @@
       <c r="C29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>132</v>
+      <c r="D29" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -5793,22 +6006,22 @@
         <v>86</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -5819,22 +6032,22 @@
         <v>86</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -5845,28 +6058,28 @@
         <v>86</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>16</v>
@@ -5875,22 +6088,22 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -5901,25 +6114,25 @@
         <v>86</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
@@ -5929,25 +6142,25 @@
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
@@ -5957,24 +6170,24 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="395">
       <c r="A37" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -5985,28 +6198,28 @@
         <v>48</v>
       </c>
       <c r="I37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>72</v>
@@ -6015,7 +6228,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J38" s="27"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DD9F9-CFF9-CF47-A58C-5107078FD8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB56571-AC37-E746-BE8E-3AEE56FDAECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="-26940" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="15980" yWindow="-27200" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2356,47 +2356,6 @@
   新聞&lt;/a&gt;:
 預計2022年動工
 &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5&gt;林口工五工業區 - 擴大方案&lt;/h5&gt;
-&lt;ul&gt;
-	&lt;li&gt;
-		土地徵收審議 會議 111/08/10 &lt;a href="file/XLK-236-內政部土地徵收審議小組第247次會議開會通知單及議程.pdf"&gt;會議記錄&lt;/a&gt;
-	&lt;/li&gt;
-	&lt;li&gt;
-		ETtoday 2022/04/30 &lt;a
-			href="https://house.ettoday.net/news/2234083?fbclid=IwAR3lCZMiZhtSxdsi4B0C-GLV6ek-94vPSAmmqMLnNbOFg_zL2BIGhUMn9iU"&gt;內科第二出現了！工五工業區初步審議剛過關&lt;/a&gt;
-	&lt;/li&gt;
-	&lt;li&gt;
-		自由時報 2022/04/16 &lt;a
-			href="https://news.ltn.com.tw/news/life/paper/1511986?fbclid=IwAR1KwpNnygMW6IeZsTB3fn4Pwd9GP3ksCDkKtbwf_BEAN4U5k7tVPZfWIMw"&gt;林口工五擴大
-			提供近25公頃產業用地&lt;/a&gt;
-	&lt;/li&gt;
-	&lt;li&gt;
-		Mobile01 2020/04/20 &lt;a
-			href="https://www.mobile01.com/topicdetail.php?f=456&amp;t=6073423&amp;p=3"&gt;林口工五工業區&lt;/a&gt;
-	&lt;/li&gt;
-	&lt;li&gt;
-		2021/01/05 修訂 &lt;a
-			href="https://urdb.tycg.gov.tw/home.jsp?aplistdn=ou%3Ddata%2Cou%3Dchdevelopment1%2Cou%3Dchdevelopment%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;dataserno=201905080001&amp;id=231&amp;mcustomize=onemessages_view.jsp&amp;parentpath=0%2C3&amp;toolsflag=Y"&gt;變更林口特定區計畫（配合工五工業區產能提升計畫-工五工業區擴大方案）案&lt;/a&gt;
-		計畫書
-	&lt;/li&gt;
-	&lt;li&gt;
-		變更林口特定區計畫(工五工業區) &lt;a href="file/XLK-226-林口工五工業區計劃-01.pdf"&gt;細部計畫(第二次通盤檢討)
-			(第二階段擴大部分)案&lt;/a&gt; 2013/10
-	&lt;/li&gt;
-	&lt;li&gt;
-		變更暨擴大林口特定區(工五工業區) &lt;a href="file/XLK-226-林口工五工業區計劃-02.pdf"&gt;細部計畫(配合
-			工五工業區產能提升計畫-工五工業區擴大方案)書&lt;/a&gt; 2019/04
-	&lt;/li&gt;
-&lt;/ul&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-22-01.png" alt="工五工業區"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;p&gt;依據 2022/08/10 &lt;a href="file/XLK-236-內政部土地徵收審議小組第247次會議開會通知單及議程.pdf"&gt;會議記錄&lt;/a&gt;:&lt;br&gt;
-區段徵收範圍內使用現況：&lt;br&gt;
-主要為龜山區第三公墓使用，約 13,500 座墳墓，已於 108 年 3
-月公告禁葬，西側有部分為農業及森林使用土地，農業使用為零星分布，面積狹小，主要為果樹、旱作，西北側有部分建築使用土地，主要為住宅（共有 16 戶，實際居住約 13
-戶）及製造業之廠房分布；東北側現況有較多建築使用土地，主要為製造業之廠房，合計區內現有工廠約 18 家。&lt;/p&gt;
-</t>
   </si>
   <si>
     <t>&lt;h5 &gt;善捷段社會住宅&lt;/h5&gt;
@@ -4433,6 +4392,1281 @@
       </rPr>
       <t>萬預算被刪！</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林口工五工業區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擴大方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;
+&lt;ul&gt;
+            &lt;li&gt;  &lt;a href="https://urdb.tycg.gov.tw/home.jsp?id=231&amp;parentpath=0%2C3&amp;mcustomize=onemessages_view.jsp&amp;dataserno=201905080001&amp;aplistdn=ou%3Ddata%2Cou%3Dchdevelopment1%2Cou%3Dchdevelopment%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR3oAvogcE15HMI646jYBNCg-UDhOkwWUfphdFpZAeOLT1J63SPfEcteDPY"&gt;桃園市都市發展局&lt;/a&gt;: 辦理「變更林口特定區計畫（配合工五工業區產能提升計畫-工五工業區擴大方案）案」及「變更暨擴大林口特定區計畫(工五工業區)細部計畫（配合工五工業區產能提升計畫-工五工業區擴大方案）案」
+            &lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		土地徵收審議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 111/08/10 &lt;a href="file/XLK-236-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部土地徵收審議小組第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>247</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>次會議開會通知單及議程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會議記錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ETtoday 2022/04/30 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://house.ettoday.net/news/2234083?fbclid=IwAR3lCZMiZhtSxdsi4B0C-GLV6ek-94vPSAmmqMLnNbOFg_zL2BIGhUMn9iU"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內科第二出現了！工五工業區初步審議剛過關</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022/04/16 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://news.ltn.com.tw/news/life/paper/1511986?fbclid=IwAR1KwpNnygMW6IeZsTB3fn4Pwd9GP3ksCDkKtbwf_BEAN4U5k7tVPZfWIMw"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林口工五擴大
+			提供近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃產業用地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mobile01 2020/04/20 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://www.mobile01.com/topicdetail.php?f=456&amp;t=6073423&amp;p=3"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林口工五工業區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021/01/05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>修訂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://urdb.tycg.gov.tw/home.jsp?aplistdn=ou%3Ddata%2Cou%3Dchdevelopment1%2Cou%3Dchdevelopment%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;dataserno=201905080001&amp;id=231&amp;mcustomize=onemessages_view.jsp&amp;parentpath=0%2C3&amp;toolsflag=Y"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變更林口特定區計畫（配合工五工業區產能提升計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工五工業區擴大方案）案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		計畫書
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		變更林口特定區計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工五工業區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>) &lt;a href="file/XLK-226-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林口工五工業區計劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-01.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>細部計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第二次通盤檢討</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第二階段擴大部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; 2013/10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		變更暨擴大林口特定區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工五工業區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>) &lt;a href="file/XLK-226-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林口工五工業區計劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-02.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>細部計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>配合
+			工五工業區產能提升計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工五工業區擴大方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; 2019/04
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;/ul&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-22-01.png" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工五工業區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022/08/10 &lt;a href="file/XLK-236-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部土地徵收審議小組第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>247</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>次會議開會通知單及議程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會議記錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>區段徵收範圍內使用現況：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要為龜山區第三公墓使用，約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 13,500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>座墳墓，已於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 108 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月公告禁葬，西側有部分為農業及森林使用土地，農業使用為零星分布，面積狹小，主要為果樹、旱作，西北側有部分建築使用土地，主要為住宅（共有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>戶，實際居住約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 13
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>戶）及製造業之廠房分布；東北側現況有較多建築使用土地，主要為製造業之廠房，合計區內現有工廠約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>家。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+ &lt;a href="https://www.facebook.com/TYleehao"&gt;李宗豪議員&lt;/a&gt; 2023/10/13 &lt;br&gt;
+有關工五擴大，我還是希望市府與樂善寺可以加速意見整合，因目前該案進度仍在延滯，阻礙地區發展，接下來都發局的工作報告我也會持續追蹤此案進度，也歡迎大家表達意見，如果有更多的人關注到這件事情，政策推動的強度也會更大，政策推行的方向也才會正確，市政府也才會更重視此問題。
+&lt;/p&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5142,10 +6376,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -5218,7 +6452,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -5246,7 +6480,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -5274,7 +6508,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -5570,7 +6804,7 @@
         <v>73</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -5600,7 +6834,7 @@
         <v>73</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -5630,7 +6864,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -5655,10 +6889,12 @@
       <c r="H17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="I17" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="30" t="s">
@@ -5706,7 +6942,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -5758,7 +6994,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -5788,7 +7024,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -5842,7 +7078,7 @@
         <v>48</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -5870,7 +7106,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>119</v>
@@ -5924,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" s="10"/>
     </row>
@@ -5950,7 +7186,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J28" s="10"/>
     </row>
@@ -5965,22 +7201,22 @@
         <v>131</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="G29" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J29" s="10"/>
     </row>
@@ -6006,7 +7242,7 @@
         <v>86</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J30" s="10"/>
     </row>
@@ -6032,7 +7268,7 @@
         <v>86</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J31" s="10"/>
     </row>
@@ -6076,10 +7312,10 @@
         <v>144</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>16</v>
@@ -6088,7 +7324,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J33" s="10"/>
     </row>
@@ -6142,7 +7378,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J35" s="10"/>
     </row>
@@ -6170,7 +7406,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>158</v>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB56571-AC37-E746-BE8E-3AEE56FDAECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4468E68-8871-9D4F-88F8-0B3937BE35E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="-27200" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="12100" yWindow="-23520" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4002,181 +4002,6 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;
-請參閱 &lt;a href="https://www.facebook.com/groups/127251476046776/search/?q=%E5%85%AC%E6%BB%AF%E4%B8%80"&gt;FB A7新林口-社區網站&lt;/a&gt;: 以往對A7重劃區 滯洪池活化的討論紀錄！
-&lt;/p&gt;
-&lt;p&gt;
-&lt;a href="https://www.facebook.com/groups/a7.home.tw/permalink/6839610802744561/?mibextid=uyAsYr"&gt;FB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區準鄰居</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/13&lt;/a&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳雅倫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>議員稱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>滯洪池公園預算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">遭刪除！】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;
-雅倫爭取A7滯洪池濕轉乾改為公園乙案，水務局有盡責做好規劃並編列了4355萬元的預算，卻在今年7/10被市府高層刪除。
-昨日才聽到市府說大山頂（山頂里、幸福里、山福里…等）周邊沒有公園需求，今日又被我發現A7滯洪池公園的預算也慘遭刪除！
-兩個生活圈都缺乏公園綠地，但現在市府無心建設龜山，令人心寒！
-&lt;/p&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-24-01.jpeg" alt="A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>滯洪池預算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="BiauKai"/>
         <family val="1"/>
         <charset val="136"/>
@@ -5667,6 +5492,410 @@
  &lt;a href="https://www.facebook.com/TYleehao"&gt;李宗豪議員&lt;/a&gt; 2023/10/13 &lt;br&gt;
 有關工五擴大，我還是希望市府與樂善寺可以加速意見整合，因目前該案進度仍在延滯，阻礙地區發展，接下來都發局的工作報告我也會持續追蹤此案進度，也歡迎大家表達意見，如果有更多的人關注到這件事情，政策推動的強度也會更大，政策推行的方向也才會正確，市政府也才會更重視此問題。
 &lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請參閱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/127251476046776/search/?q=%E5%85%AC%E6%BB%AF%E4%B8%80"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新林口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>社區網站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以往對</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">滯洪池活化的討論紀錄！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+&lt;p &gt;陳雅倫議員發起:&lt;a href="https://docs.google.com/forms/d/e/1FAIpQLSe0hhyOgS1cSqD5NdyxKu5aO8Y5NwkIMLFBw69qZB58Off8aw/viewform"&gt;還我公園綠地 連署網站&lt;/a&gt; &lt;/p&gt;
+&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/a7.home.tw/permalink/6839610802744561/?mibextid=uyAsYr"&gt;FB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區準鄰居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/13&lt;/a&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>議員稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滯洪池公園預算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">遭刪除！】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+&lt;p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>雅倫爭取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滯洪池濕轉乾改為公園乙案，水務局有盡責做好規劃並編列了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4355</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬元的預算，卻在今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>被市府高層刪除。
+昨日才聽到市府說大山頂（山頂里、幸福里、山福里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>等）周邊沒有公園需求，今日又被我發現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">滯洪池公園的預算也慘遭刪除！
+兩個生活圈都缺乏公園綠地，但現在市府無心建設龜山，令人心寒！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-24-01.jpeg" alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滯洪池預算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6376,10 +6605,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -6890,10 +7119,10 @@
         <v>86</v>
       </c>
       <c r="I17" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
@@ -7190,7 +7419,7 @@
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="372">
+    <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="30" t="s">
         <v>130</v>
       </c>
@@ -7201,13 +7430,13 @@
         <v>131</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>198</v>
@@ -7216,7 +7445,7 @@
         <v>86</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J29" s="10"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4468E68-8871-9D4F-88F8-0B3937BE35E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD4EC1A-BC1B-4F47-9C24-8C9E27277BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="-23520" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="18160" yWindow="-25340" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5619,7 +5619,280 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/p&gt;
-&lt;p &gt;陳雅倫議員發起:&lt;a href="https://docs.google.com/forms/d/e/1FAIpQLSe0hhyOgS1cSqD5NdyxKu5aO8Y5NwkIMLFBw69qZB58Off8aw/viewform"&gt;還我公園綠地 連署網站&lt;/a&gt; &lt;/p&gt;
+&lt;p &gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因應</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滯洪池活化案經費被刪議題：希望龜山四位議員共提提案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>爭取市府</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">依原計畫執行！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;li&gt;陳雅倫議員10/14: 發起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:&lt;a href="https://docs.google.com/forms/d/e/1FAIpQLSe0hhyOgS1cSqD5NdyxKu5aO8Y5NwkIMLFBw69qZB58Off8aw/viewform"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>還我公園綠地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>連署網站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>牛煦庭議員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10/14: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已經緊急聯繫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>爭取新財源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將會於質詢時正式要求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按照原計畫明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">動工。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+&lt;/ul&gt;
+ &lt;/p&gt;
 &lt;p&gt;
 &lt;a href="https://www.facebook.com/groups/a7.home.tw/permalink/6839610802744561/?mibextid=uyAsYr"&gt;FB </t>
     </r>
@@ -6605,7 +6878,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J29" sqref="J29"/>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD4EC1A-BC1B-4F47-9C24-8C9E27277BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41519C46-44A5-AC40-ADB6-BC31F699EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="-25340" windowWidth="39440" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="2620" yWindow="-25340" windowWidth="44200" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5708,7 +5708,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>&lt;li&gt;陳雅倫議員10/14: 發起</t>
+      <t>&lt;li&gt;陳雅倫議員10/13: 發起</t>
     </r>
     <r>
       <rPr>
@@ -5755,7 +5755,8 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;/a&gt;&lt;/li&gt;
+      <t xml:space="preserve">&lt;/a&gt;. 10/13日當晚已經超過一千人參與連署！我們的心聲市府聽到了，雅倫也跟王副市長聯繫上，表達A7公園的迫切需求，副市長表示會優先使用增額統籌分配稅款來支應這筆預算，有很大的機會可以明年動工！
+&lt;/li&gt;
 &lt;li&gt; </t>
     </r>
     <r>
@@ -5775,7 +5776,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">10/14: </t>
+      <t>10/14: 牛議員反饋</t>
     </r>
     <r>
       <rPr>
@@ -6878,10 +6879,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41519C46-44A5-AC40-ADB6-BC31F699EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6D984-DCA4-0C42-99AF-28FD7E2F735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="-25340" windowWidth="44200" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
+    <workbookView xWindow="8780" yWindow="-25340" windowWidth="44200" windowHeight="25340" xr2:uid="{1F23CA79-2858-564C-9E4E-268D5C623B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1049,762 +1049,6 @@
       </rPr>
       <t>"&gt; 牛議員辦公室釐清&lt;/a&gt; 2022/6/23, 7/15 兩次招標都無廠商投標。 2023/3/10日第五次招標, 3/30日開標。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;h5&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>廣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">18/19 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>廣場用地開發</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;p&gt;依據</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a href="https://www.tcd.gov.tw/uploadfile/tcd_plan/201018101143117.pdf"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園縣擬定都市計畫審核摘要表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>考量大眾運輸導向發展</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Transit-Oriented Development, TOD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規劃構想</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>形塑大眾運輸節點周圍以行人導向規劃廣場用地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>處</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">計畫面積
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.36 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">公頃。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt; &lt;a href="https://www.lceb.gov.tw/News_Toggle.aspx?n=7269&amp;sms=11056&amp;s=96161"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>土地重劃工程處</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>機場捷運</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區周邊人行空橋與廣場地下停車場開闢工程目前辦理情形</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">?&lt;/&gt;
-&lt;ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">		「機場捷運</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站地區區段徵收公共工程第七標廣場地下停車場工程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>含人行空橋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>」細部設計成果已召開審查會議辦理審查，並由設計單位依審查委員審查意見辦理第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">次修正，
-		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>111/1/31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">前完成細部設計成果審查及核定程序後，續辦工程發包作業；另捷運限建範圍內本工程對捷運設施影響評估報告，已委託中華民國大地技師公會辦理審查，將依審查結果配合修正及納入細部設計圖資。
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;a
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">			</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>href="https://pcc.mlwmlw.org/tender/%E5%85%A7%E6%94%BF%E9%83%A8%E5%9C%9F%E5%9C%B0%E9%87%8D%E5%8A%83%E5%B7%A5%E7%A8%8B%E8%99%95/107001"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公共工程第七標</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">		機場捷運</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站地區區段徵收公共工程第七標</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>廣場及地下停車場工程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>招標日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2018/02/21, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>決標日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2022/06/05, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">金額
-		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">368,986,956
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">		廣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">18 &amp;amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>廣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">19 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>廣場用地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及地下停車場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - 2022/05/24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公開招標</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 2022/06/23 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">開標
-	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>龜山樂善公墓遷移計畫</t>
@@ -2356,29 +1600,6 @@
   新聞&lt;/a&gt;:
 預計2022年動工
 &lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h5 &gt;善捷段社會住宅&lt;/h5&gt;
-&lt;p&gt;桃園電子報 2023/08/09 &lt;a href="https://tyenews.com/2023/08/417803/"&gt;桃園住發處資訊&lt;/a&gt;
-善捷段社宅位於機場捷運A7體育大學站周邊，規劃興建地上16層，地下2層，至少295戶住宅；
-社宅規劃各種功能的公共服務設施，善捷段有公托中心、身障社區日照服務、社區日間作業設施、家庭照顧者支持據點、幼兒園及微型運動場館；
-&lt;/p&gt;
-&lt;p&gt;統包工程已於112年7月31日順利決標，由福清營造股份有限公司、承龍水電工程有限公司、陳信樟建築師事務所共同攜手承攬，預計117年完工，並興建多種公共服務設施供周邊民眾使用。
-&lt;/p&gt;
-&lt;p&gt;依據 &lt;a href="https://news.ltn.com.tw/news/life/paper/1459334"&gt;自由時報 2021/07/08&lt;/a&gt; 及
-市府 &lt;a
-	href="https://ohd.tycg.gov.tw/home.jsp?id=145&amp;parentpath=0,96,143&amp;mcustomize=onemessages_view.jsp&amp;dataserno=202203160007&amp;aplistdn=ou=data,ou=socialhousing1,ou=house,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y"&gt;住宅發展處&lt;/a&gt;
-資訊，
-善捷段社宅基地是善捷段298、299地號土地，面積約2860坪，經費17億2747萬元，將興建地上15層、地下2層建物，因鄰近桃園機場捷運A7體育大學站，與A7合宜住宅同屬一個生活圈，是名副其實的捷運宅，規劃設置社區式長照機構、家庭照顧者支持服務據點、公社民營托嬰中心、幼兒園等。
-預計2024年完工
-&lt;/p&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-01.png" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
-圖：社會住宅位址
-&lt;p&gt;
-社會住宅不單純只是住宅，它還包含相關社會福利設施如 老人日照中心，公辦私營幼兒園 及健身中心。對於家中有老人跟小孩的家庭有很大的幫助。 &lt;br&gt;&lt;br&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;br&gt; 社會住宅 詳圖 &lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h5 &gt;龜山第三公墓/樂善公墓遷移計畫&lt;/h5&gt;
@@ -6171,6 +5392,913 @@
       <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5 &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">善捷段社會住宅&lt;/h5&gt;
+&lt;p&gt;桃園電子報 2023/08/09 &lt;a href="https://tyenews.com/2023/08/417803/"&gt;桃園住發處資訊&lt;/a&gt;
+善捷段社宅位於機場捷運A7體育大學站周邊，規劃興建地上16層，地下2層，至少295戶住宅；
+社宅規劃各種功能的公共服務設施，善捷段有公托中心、身障社區日照服務、社區日間作業設施、家庭照顧者支持據點、幼兒園及微型運動場館；
+&lt;/p&gt;
+&lt;p&gt;統包工程已於112年7月31日順利決標，由福清營造股份有限公司、承龍水電工程有限公司、陳信樟建築師事務所共同攜手承攬，預計117年完工，並興建多種公共服務設施供周邊民眾使用。
+&lt;/p&gt;
+&lt;p&gt;依據 &lt;a href="https://news.ltn.com.tw/news/life/paper/1459334"&gt;自由時報 2021/07/08&lt;/a&gt; 及
+市府 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://ohd.tycg.gov.tw/home.jsp?id=145&amp;parentpath=0,96,143&amp;mcustomize=onemessages_view.jsp&amp;dataserno=202203160007&amp;aplistdn=ou=data,ou=socialhousing1,ou=house,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>住宅發展處&lt;/a&gt;
+資訊，
+善捷段社宅基地是善捷段298、299地號土地，面積約2860坪，經費17億2747萬元，將興建地上15層、地下2層建物，因鄰近桃園機場捷運A7體育大學站，與A7合宜住宅同屬一個生活圈，是名副其實的捷運宅，規劃設置社區式長照機構、家庭照顧者支持服務據點、公社民營托嬰中心、幼兒園等。
+預計2024年完工
+&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-01.png" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+圖：社會住宅位址
+&lt;p&gt;
+社會住宅不單純只是住宅，它還包含相關社會福利設施如 老人日照中心，公辦私營幼兒園 及健身中心。對於家中有老人跟小孩的家庭有很大的幫助。 &lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;br&gt; 社會住宅 詳圖 &lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">18/19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣場用地開發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="https://www.tcd.gov.tw/uploadfile/tcd_plan/201018101143117.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園縣擬定都市計畫審核摘要表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考量大眾運輸導向發展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Transit-Oriented Development, TOD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規劃構想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>形塑大眾運輸節點周圍以行人導向規劃廣場用地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>處</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">計畫面積
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.36 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">公頃。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt; &lt;a href="https://www.lceb.gov.tw/News_Toggle.aspx?n=7269&amp;sms=11056&amp;s=96161"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>土地重劃工程處</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機場捷運</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區周邊人行空橋與廣場地下停車場開闢工程目前辦理情形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">?&lt;/&gt;
+&lt;ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「機場捷運</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站地區區段徵收公共工程第七標廣場地下停車場工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>含人行空橋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>」細部設計成果已召開審查會議辦理審查，並由設計單位依審查委員審查意見辦理第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">次修正，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>111/1/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">前完成細部設計成果審查及核定程序後，續辦工程發包作業；另捷運限建範圍內本工程對捷運設施影響評估報告，已委託中華民國大地技師公會辦理審查，將依審查結果配合修正及納入細部設計圖資。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://pcc.mlwmlw.org/tender/%E5%85%A7%E6%94%BF%E9%83%A8%E5%9C%9F%E5%9C%B0%E9%87%8D%E5%8A%83%E5%B7%A5%E7%A8%8B%E8%99%95/107001"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公共工程第七標</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機場捷運</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站地區區段徵收公共工程第七標</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣場及地下停車場工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>招標日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2018/02/21, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>決標日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022/06/05, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">金額
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">368,986,956
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">18 &amp;amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廣場用地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及地下停車場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 2022/05/24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公開招標</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 2022/06/23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">開標
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-12-01.jpeg" alt="廣19停車位" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6879,10 +7007,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -6955,7 +7083,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -6983,7 +7111,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J3" s="10"/>
     </row>
@@ -7011,7 +7139,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J4" s="10"/>
     </row>
@@ -7039,7 +7167,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -7067,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J6" s="10"/>
     </row>
@@ -7095,7 +7223,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -7125,7 +7253,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J8" s="10"/>
     </row>
@@ -7189,7 +7317,7 @@
     </row>
     <row r="11" spans="1:10" ht="160">
       <c r="A11" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>51</v>
@@ -7198,7 +7326,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>54</v>
@@ -7213,10 +7341,10 @@
         <v>48</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -7245,10 +7373,10 @@
         <v>48</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -7277,7 +7405,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -7307,7 +7435,7 @@
         <v>73</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -7322,13 +7450,13 @@
         <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>72</v>
@@ -7337,7 +7465,7 @@
         <v>73</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J15" s="10"/>
     </row>
@@ -7367,7 +7495,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -7393,10 +7521,10 @@
         <v>86</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
@@ -7445,7 +7573,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -7497,7 +7625,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -7527,7 +7655,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J22" s="10"/>
     </row>
@@ -7580,8 +7708,8 @@
       <c r="H24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>181</v>
+      <c r="I24" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -7609,7 +7737,7 @@
         <v>48</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>119</v>
@@ -7637,22 +7765,22 @@
         <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -7663,22 +7791,22 @@
         <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -7689,52 +7817,52 @@
         <v>86</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -7745,22 +7873,22 @@
         <v>86</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -7771,22 +7899,22 @@
         <v>86</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -7797,28 +7925,28 @@
         <v>86</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>16</v>
@@ -7827,22 +7955,22 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -7853,25 +7981,25 @@
         <v>86</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
@@ -7881,25 +8009,25 @@
         <v>22</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
@@ -7909,24 +8037,24 @@
         <v>22</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="395">
       <c r="A37" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -7937,28 +8065,28 @@
         <v>48</v>
       </c>
       <c r="I37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>72</v>
@@ -7967,7 +8095,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J38" s="27"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD80C281-43E0-5E4D-AD0E-02AAAE23023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E3C8A-4016-9C4F-AE95-904E6BDE5040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="-26040" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="4680" yWindow="-17480" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -403,15 +403,6 @@
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
   </si>
   <si>
-    <t>FB &lt;a href="https://www.facebook.com/18NIUstart/"&gt;牛煦庭 &lt;/a&gt; 2023/09/05: 文青路、青山路口的交通負載越來越沈重，是A7合宜區長期關注的問題， 牛議員要求市府對症下藥已久，工務局2023/09/05 會勘, 要求
-&lt;ul&gt;
-&lt;li&gt;工務局將利用文青路、青山路週邊閒置的公有空間，在不影響行人的情況下分別增設車道。&lt;/li&gt;
-&lt;li&gt;整體號誌也將連動調整，增加疏運車流的效率。&lt;/li&gt;
-&lt;li&gt;成功爭取到工務局專案預算約7,000萬，目標2023年底動工，2024年就能完工。&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>變一:文學路,樂善一路延伸計畫</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1782,204 +1773,6 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">年完成規劃設計；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt; 陳雅倫及牛煦庭議員質詢: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;文青路/青山路拓寬案vs文學路（變一） 2023/10/19&lt;/a&gt;  
-希望市府不要忘記，變一道路變更設計期程，從上個會期5月份說要變更設計，到現在仍沒有看到方案。
-文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
-既然工務局能在今年7月規劃、今年10月就執行文青、青山拓寬案， #那早已編列好預算的變一到底在等什麼？
-既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，#土地早已取得的文青市民活動中心是否也可以使用？
-A7成長上萬人，先花1500萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
-&lt;/P&gt;
-&lt;p&gt;2021/10/05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員質詢：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月獲得內政部同意補助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樟腦寮磚窯廠遺址：將保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">（圖片來源：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">）
 </t>
     </r>
     <r>
@@ -8429,6 +8222,762 @@
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-02.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-10-03.jpeg" alt="善捷段社宅" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt; 社會住宅 詳圖 &lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7重劃區大小事 2023/10/23&lt;/a&gt; 四位龜山區議員聯合質詢&lt;br&gt;
+文化一路打通至青山路二段工程：
+道路所需的土地已取得完成。上週已完成設計標案發包，預計一年完成設計、明年底發包、後年初動工。
+&lt;/p&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;四位龜山區議員聯合質詢 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青路拓寬工程：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日已完成會勘，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">10/24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將舉行開工典禮，市長本人會出席，典禮結束後會有文南路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>南林路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">拓寬工程的竣工視察。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;FB &lt;a href="https://www.facebook.com/18NIUstart/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>牛煦庭 &lt;/a&gt; 2023/09/05: 文青路、青山路口的交通負載越來越沈重，是A7合宜區長期關注的問題， 牛議員要求市府對症下藥已久，工務局2023/09/05 會勘, 要求
+&lt;ul&gt;
+&lt;li&gt;工務局將利用文青路、青山路週邊閒置的公有空間，在不影響行人的情況下分別增設車道。&lt;/li&gt;
+&lt;li&gt;整體號誌也將連動調整，增加疏運車流的效率。&lt;/li&gt;
+&lt;li&gt;成功爭取到工務局專案預算約7,000萬，目標2023年底動工，2024年就能完工。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;四位龜山區議員聯合質詢 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路地下化打通至文化一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月。預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成設計，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年底至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年初動工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+&lt;/p&gt;
+&lt;p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫及牛煦庭議員質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>青山路拓寬案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>vs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路（變一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月份說要變更設計，到現在仍沒有看到方案。
+文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
+既然工務局能在今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月規劃、今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月就執行文青、青山拓寬案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那早已編列好預算的變一到底在等什麼？
+既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成長上萬人，先花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/P&gt;
+&lt;p&gt;2021/10/05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫議員質詢：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月獲得內政部同意補助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樟腦寮磚窯廠遺址：將保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">（圖片來源：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9145,10 +9694,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -9423,7 +9972,7 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="128">
+    <row r="10" spans="1:10" ht="144">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -9451,9 +10000,11 @@
       <c r="I10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="160">
+    <row r="11" spans="1:10" ht="329">
       <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
@@ -9481,28 +10032,28 @@
       <c r="I11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>68</v>
+      <c r="J11" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
       <c r="A12" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>53</v>
@@ -9511,30 +10062,30 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
       <c r="A13" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>16</v>
@@ -9543,112 +10094,112 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="I14" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -9656,159 +10207,159 @@
         <v>53</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="160">
       <c r="A22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="D22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="G22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -9819,53 +10370,53 @@
         <v>23</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -9875,24 +10426,24 @@
         <v>54</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -9903,22 +10454,22 @@
         <v>54</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -9926,165 +10477,165 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="H29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10093,22 +10644,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -10116,28 +10667,28 @@
         <v>53</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -10147,25 +10698,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="D36" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -10175,24 +10726,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -10203,37 +10754,37 @@
         <v>54</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E3C8A-4016-9C4F-AE95-904E6BDE5040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94FC7F-9D9F-7C44-BBC2-A1B84E609B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="-17480" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="10640" yWindow="-22860" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="210">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8980,6 +8980,10 @@
       <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/10/31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9265,7 +9269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9375,6 +9379,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9694,10 +9701,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10018,7 +10025,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>66</v>
@@ -10049,8 +10056,8 @@
       <c r="D12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>60</v>
+      <c r="E12" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>71</v>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94FC7F-9D9F-7C44-BBC2-A1B84E609B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24897EC-4449-C146-B07B-1C423E7FC765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="-22860" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="9320" yWindow="-26800" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -392,15 +392,6 @@
   <si>
     <t>1,500萬</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龜山區青山路、文青路口拓寬工程：
-&lt;ul&gt;
-&lt;li&gt;工程內容：青山路文青路口道路断面重新配置，分別於文青路南側、青山路東側進行道路拓寬。&lt;/li&gt;
-&lt;li&gt;工程總經費：目前約1500萬元（其中市長統籌分配款補助 900萬元）&lt;/li&gt;
-&lt;li&gt;辦理情形：112年9月20日辦理設計書圖審查，俟審查意見辦理修正後進行派工單準備，並預計於10月初邀集地方民代、里民辦理現地說明會，112年10月底進場。&lt;/li&gt;
-&lt;/ul&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
   </si>
   <si>
     <t>變一:文學路,樂善一路延伸計畫</t>
@@ -8241,6 +8232,621 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;四位龜山區議員聯合質詢 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路地下化打通至文化一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月。預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成設計，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年底至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年初動工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+&lt;/p&gt;
+&lt;p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫及牛煦庭議員質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>青山路拓寬案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>vs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路（變一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月份說要變更設計，到現在仍沒有看到方案。
+文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
+既然工務局能在今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月規劃、今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月就執行文青、青山拓寬案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那早已編列好預算的變一到底在等什麼？
+既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成長上萬人，先花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/P&gt;
+&lt;p&gt;2021/10/05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫議員質詢：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月獲得內政部同意補助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樟腦寮磚窯廠遺址：將保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">（圖片來源：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/10/31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區青山路、文青路口拓寬工程：
+&lt;ul&gt;
+&lt;li&gt;工程內容：青山路文青路口道路断面重新配置，分別於文青路南側、青山路東側進行道路拓寬。&lt;/li&gt;
+&lt;li&gt;工程總經費：目前約1500萬元（其中市長統籌分配款補助 900萬元）&lt;/li&gt;
+&lt;li&gt;辦理情形：112年9月20日辦理設計書圖審查，俟審查意見辦理修正後進行派工單準備，並預計於10月初邀集地方民代、里民辦理現地說明會，112年10月底進場。&lt;/li&gt;
+&lt;/ul&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>&lt;p&gt;
 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
     </r>
@@ -8261,7 +8867,26 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;四位龜山區議員聯合質詢 &lt;br&gt;
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四位龜山區議員聯合質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
 </t>
     </r>
     <r>
@@ -8301,7 +8926,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">10/24 </t>
+      <t xml:space="preserve">10/24 10:30 </t>
     </r>
     <r>
       <rPr>
@@ -8350,6 +8975,7 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">拓寬工程的竣工視察。
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-02.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
 </t>
     </r>
     <r>
@@ -8379,611 +9005,6 @@
 &lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區大小事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;四位龜山區議員聯合質詢 &lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路地下化打通至文化一路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個月。預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成設計，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年底至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年初動工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-&lt;/p&gt;
-&lt;p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳雅倫及牛煦庭議員質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>青山路拓寬案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>vs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路（變一）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月份說要變更設計，到現在仍沒有看到方案。
-文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
-既然工務局能在今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月規劃、今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月就執行文青、青山拓寬案，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>那早已編列好預算的變一到底在等什麼？
-既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成長上萬人，先花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/P&gt;
-&lt;p&gt;2021/10/05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員質詢：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月獲得內政部同意補助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樟腦寮磚窯廠遺址：將保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">（圖片來源：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026/10/31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9701,16 +9722,17 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.6640625" style="35" customWidth="1"/>
-    <col min="2" max="3" width="11.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="66" style="4" customWidth="1"/>
     <col min="5" max="7" width="16" style="4" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
@@ -10008,10 +10030,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="329">
+    <row r="11" spans="1:10" ht="374">
       <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
@@ -10025,7 +10047,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>66</v>
@@ -10036,31 +10058,31 @@
       <c r="H11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>67</v>
+      <c r="I11" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
       <c r="A12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>53</v>
@@ -10069,30 +10091,30 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
       <c r="A13" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>16</v>
@@ -10101,112 +10123,112 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="I14" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10214,159 +10236,159 @@
         <v>53</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="160">
       <c r="A22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -10377,53 +10399,53 @@
         <v>23</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -10433,24 +10455,24 @@
         <v>54</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10461,22 +10483,22 @@
         <v>54</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10484,165 +10506,165 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10651,22 +10673,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -10674,28 +10696,28 @@
         <v>53</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -10705,25 +10727,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -10733,24 +10755,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -10761,37 +10783,37 @@
         <v>54</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24897EC-4449-C146-B07B-1C423E7FC765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DFCC3-D476-2347-9930-874AC6F917B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="-26800" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="9040" yWindow="-25220" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1794,33 +1794,6 @@
   <si>
     <t>1.99億</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
-&lt;ul&gt;
-&lt;li&gt;工程內容：起自文化一路至樂善一路，道路長度約170公尺（其中橋梁長度約96公尺），寬度20公尺。&lt;/li&gt;
-&lt;li&gt;工程經費：約1億9,990萬元。&lt;/li&gt;
-&lt;li&gt;辦理情形：111年12月20日開工，預計114年1月完工。&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;依據&lt;a href="https://tyenews.com/2022/11/318904/?fbclid=IwAR1XC2bHyy3SAXYu6s957sBRoHNC3ptE9LhOx5qCRLnRo8MhOC97pGDbLpc"&gt;桃園電子報&lt;/a&gt;:
-2022/11/15 日 牛角坡路 &lt;a href="https://www.youtube.com/watch?v=AlxrPzM56Ro"&gt;開工典禮&lt;/a&gt; &lt;br&gt;
-變二道路」西起龜山文化一路，向東至牛角坡路與樂善一路口，將新闢全長約170公尺、寬20公尺道路，且配合該路段跨越十八份坑溪及山坡地等需求，將建置1座長約96公尺的景觀橋梁，工程總經費包括用地費5578萬元，總共為2.76億元，由內政部營建署全額補助，預計於113年底竣工通車，將有效紓解A7站周邊的車潮。
-&lt;/p&gt;
-&lt;p&gt;「變二道路」跨越十八份坑溪，道路兩端高低差達25公尺，橋墩施作不易，因此工程單位將橋樑規劃為「π型橋梁」，並於橋下設置2座小型滯洪池，以調節邊坡及當地排水功能。未來完工後，也將進行植栽、石溝整治等工程，以提高此地區的防災韌性，而景觀橋梁也將成為A7重劃區的都市亮點。
-&lt;/p&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-01.jpeg" alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
-資料來源工務局
-&lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5221445557982869/"&gt;臉書留言摘錄&lt;/a&gt;
-牛煦庭議員回覆: 桃園新工處稱第一次招標無法決標是因為只有一家投標，未達法定3家的門檻，當天再上網招標，等標期7天，會採最有利標，廠商投標後會由評選會評選，若有達標就會決標，並預計於2022年11月開工。
-&lt;/p&gt;
-但第二次招標 2022/08/30 &lt;a href="file/XLK-242-變二工程.jpeg"&gt; 已經決標！ &lt;/a&gt; 履約期間 2022/11/30 - 2024/12/31, 決標金額
-199,906,000元. 承包公司 傑瀚營造
-&lt;br&gt;&lt;br&gt;
-&lt;a
-  href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
-  新聞&lt;/a&gt;:
-預計2022年動工
-&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>CON-15</t>
@@ -8217,12 +8190,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;
-&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7重劃區大小事 2023/10/23&lt;/a&gt; 四位龜山區議員聯合質詢&lt;br&gt;
-文化一路打通至青山路二段工程：
-道路所需的土地已取得完成。上週已完成設計標案發包，預計一年完成設計、明年底發包、後年初動工。
-&lt;/p&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2026/10/31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8251,7 +8224,26 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;四位龜山區議員聯合質詢 &lt;br&gt;
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四位龜山區議員聯合質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
 </t>
     </r>
     <r>
@@ -8406,6 +8398,11 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">.
+&lt;/p&gt;
+&lt;p&gt;
+2023/10/24 張市長稱: 原規劃T字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定114年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。 &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ 樟腦寮磚窯廠遺址將保留 示意圖 
 &lt;/p&gt;
 &lt;p&gt; </t>
     </r>
@@ -8761,73 +8758,9 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> &lt;/p&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-02.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樟腦寮磚窯廠遺址：將保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">（圖片來源：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/1951117865015671"&gt;Facebook&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
+</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026/10/31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>龜山區青山路、文青路口拓寬工程：
@@ -8975,7 +8908,10 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">拓寬工程的竣工視察。
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-02.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;/p&gt;
+&lt;/p&gt;
+ 為儘快紓解文青路塞車問題，工務局也與交通局合作，利用公有土地拓寬文青路以及青山路口，增加車道並搭配號誌連鎖設計，快速紓解文青路大量車流。本工程總經費約2,000萬元，工期約3個月，將於明年春節前完工，施工過程均利用路旁公有地，不影響既有車流動線，請用路人安心。 
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt;
 </t>
     </r>
     <r>
@@ -9003,6 +8939,82 @@
 &lt;li&gt;成功爭取到工務局專案預算約7,000萬，目標2023年底動工，2024年就能完工。&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事 2023/10/23&lt;/a&gt; 四位龜山區議員聯合質詢&lt;br&gt;
+文化一路打通至青山路二段工程：
+道路所需的土地已取得完成。上週已完成設計標案發包，預計一年完成設計、明年底發包、後年初動工。
+&lt;/p&gt;
+&lt;p&gt;
+2023/10/24日 張市長在龜山文青路拓寬開工典禮上重申: 本案市府工程團隊積極辦理設計規劃中。
+A7合宜住宅主要聯外的文青路，多年來上下班尖峰時段車流嚴重雍塞，工務局曾總工程司清祥簡報時指出，經分析交通行為發現，文青路約有1/3交通量係來自振興路轉青山路往新莊之通勤車流，倘新闢道路銜接振興路與青山路，將可有效紓解文青路車流；惟因當地地形複雜，市府刻正進行道路工程設計，將以高架環形橋方式克服地形障礙，新闢青山路與振興路聯絡道路。 
+&lt;/p</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
+&lt;ul&gt;
+&lt;li&gt;工程內容：起自文化一路至樂善一路，道路長度約170公尺（其中橋梁長度約96公尺），寬度20公尺。&lt;/li&gt;
+&lt;li&gt;工程經費：約1億9,990萬元。&lt;/li&gt;
+&lt;li&gt;辦理情形：111年12月20日開工，預計114年1月完工。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;依據&lt;a href="https://tyenews.com/2022/11/318904/?fbclid=IwAR1XC2bHyy3SAXYu6s957sBRoHNC3ptE9LhOx5qCRLnRo8MhOC97pGDbLpc"&gt;桃園電子報&lt;/a&gt;:
+2022/11/15 日 牛角坡路 &lt;a href="https://www.youtube.com/watch?v=AlxrPzM56Ro"&gt;開工典禮&lt;/a&gt; &lt;br&gt;
+變二道路」西起龜山文化一路，向東至牛角坡路與樂善一路口，將新闢全長約170公尺、寬20公尺道路，且配合該路段跨越十八份坑溪及山坡地等需求，將建置1座長約96公尺的景觀橋梁，工程總經費包括用地費5578萬元，總共為2.76億元，由內政部營建署全額補助，預計於113年底竣工通車，將有效紓解A7站周邊的車潮。
+&lt;/p&gt;
+&lt;p&gt;「變二道路」跨越十八份坑溪，道路兩端高低差達25公尺，橋墩施作不易，因此工程單位將橋樑規劃為「π型橋梁」，並於橋下設置2座小型滯洪池，以調節邊坡及當地排水功能。未來完工後，也將進行植栽、石溝整治等工程，以提高此地區的防災韌性，而景觀橋梁也將成為A7重劃區的都市亮點。
+&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-02.jpeg" alt="A7重劃區交通變更"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+資料來源工務局
+&lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5221445557982869/"&gt;臉書留言摘錄&lt;/a&gt;
+牛煦庭議員回覆: 桃園新工處稱第一次招標無法決標是因為只有一家投標，未達法定3家的門檻，當天再上網招標，等標期7天，會採最有利標，廠商投標後會由評選會評選，若有達標就會決標，並預計於2022年11月開工。
+&lt;/p&gt;
+但第二次招標 2022/08/30 &lt;a href="file/XLK-242-變二工程.jpeg"&gt; 已經決標！ &lt;/a&gt; 履約期間 2022/11/30 - 2024/12/31, 決標金額
+199,906,000元. 承包公司 傑瀚營造
+&lt;br&gt;&lt;br&gt;
+&lt;a
+  href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
+  新聞&lt;/a&gt;:
+預計2022年動工
+&lt;br&gt;&lt;br&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9722,10 +9734,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10001,7 +10013,7 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="144">
+    <row r="10" spans="1:10" ht="308">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -10029,11 +10041,11 @@
       <c r="I10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>205</v>
+      <c r="J10" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="374">
+    <row r="11" spans="1:10" ht="409.6">
       <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
@@ -10047,7 +10059,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>66</v>
@@ -10059,10 +10071,10 @@
         <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -10079,7 +10091,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>70</v>
@@ -10123,112 +10135,112 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="I14" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10236,159 +10248,159 @@
         <v>53</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="160">
       <c r="A22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -10399,53 +10411,53 @@
         <v>23</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -10455,24 +10467,24 @@
         <v>54</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10483,22 +10495,22 @@
         <v>54</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10506,165 +10518,165 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10673,22 +10685,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -10696,28 +10708,28 @@
         <v>53</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -10727,25 +10739,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -10755,24 +10767,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -10783,37 +10795,37 @@
         <v>54</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DFCC3-D476-2347-9930-874AC6F917B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0BB75-8891-3541-9D2B-1BDF2383CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="-25220" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="8540" yWindow="-25220" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -8198,571 +8198,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區大小事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>四位龜山區議員聯合質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路地下化打通至文化一路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個月。預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成設計，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年底至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年初動工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-&lt;/p&gt;
-&lt;p&gt;
-2023/10/24 張市長稱: 原規劃T字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定114年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。 &lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- 樟腦寮磚窯廠遺址將保留 示意圖 
-&lt;/p&gt;
-&lt;p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳雅倫及牛煦庭議員質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>青山路拓寬案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>vs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路（變一）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月份說要變更設計，到現在仍沒有看到方案。
-文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
-既然工務局能在今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月規劃、今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月就執行文青、青山拓寬案，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>那早已編列好預算的變一到底在等什麼？
-既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成長上萬人，先花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/P&gt;
-&lt;p&gt;2021/10/05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員質詢：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月獲得內政部同意補助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>龜山區青山路、文青路口拓寬工程：
 &lt;ul&gt;
 &lt;li&gt;工程內容：青山路文青路口道路断面重新配置，分別於文青路南側、青山路東側進行道路拓寬。&lt;/li&gt;
@@ -9015,6 +8450,685 @@
   新聞&lt;/a&gt;:
 預計2022年動工
 &lt;br&gt;&lt;br&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四位龜山區議員聯合質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路地下化打通至文化一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月。預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成設計，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年底至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年初動工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+&lt;/p&gt;
+&lt;p&gt;
+2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樟腦寮磚窯廠遺址將保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>示意圖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+&lt;/p&gt;
+&lt;p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫及牛煦庭議員質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>青山路拓寬案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>vs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路（變一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月份說要變更設計，到現在仍沒有看到方案。
+文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
+既然工務局能在今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月規劃、今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月就執行文青、青山拓寬案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那早已編列好預算的變一到底在等什麼？
+既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成長上萬人，先花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/P&gt;
+&lt;p&gt;2021/10/05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫議員質詢：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月獲得內政部同意補助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9734,10 +9848,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10042,7 +10156,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -10071,10 +10185,10 @@
         <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -10106,7 +10220,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -10135,7 +10249,7 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J13" s="13"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0BB75-8891-3541-9D2B-1BDF2383CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1C9CA-FB32-2941-B5DE-CDE2ACFEB962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="-25220" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="5360" yWindow="-23340" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="212">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1846,21 +1846,6 @@
   </si>
   <si>
     <t>2023/09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9,490</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>萬</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -9129,6 +9114,48 @@
       </rPr>
       <t xml:space="preserve"> &lt;/p&gt;
 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.254億</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://tyenews.com/2023/10/441936/?fbclid=IwAR0Q_Fn_QEKc6W3BfyWY9Oc0HxVY9zWN1eLd8YzzCK3sDONa-M0RerMHrHc"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園電子報 2023/101/24&lt;/a&gt;: 桃園市長張善政今（10/24）日上午前往龜山區，出席「龜山區南林路道路拓寬工程」竣工視察。
+南林路道路拓寬工程順利完工，有效改善道路品質，雙線道不變，但車道變寬，讓行車更順暢、交通更安全，提升桃園龜山區、林口交流道與工十二工業區間往來之便利性。該案總經費1億254萬元，感謝內政部國土管理署、南亞塑膠工業股份有限公司共同負擔經費，促成中央、地方與民間企業攜手合作改善地區交通的良好示範。
+&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p&gt;
+「龜山區南林路道路拓寬工程」起訖點自桃園市龜山區南林路與新北市交界處，接往林口特定區工十二工業區，該案於去（111）年3月開工、今年9月完工，將原不足8公尺寬之既有道路拓寬為12公尺，拓寬長度約426公尺，工程內容包含道路鋪設、設置滯洪池、妥善排水系統及擋土牆、新設集水井6座、照明路燈17盞、交通標誌2座及喬木移植10株、增設鋼板護欄等等，提供沿線民眾安全可靠的道路。
+&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9848,10 +9875,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10156,7 +10183,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -10173,7 +10200,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>66</v>
@@ -10185,10 +10212,10 @@
         <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -10205,7 +10232,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>70</v>
@@ -10220,7 +10247,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -10249,13 +10276,13 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
@@ -10300,7 +10327,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>80</v>
@@ -10309,52 +10336,54 @@
         <v>81</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10362,27 +10391,27 @@
         <v>53</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -10390,23 +10419,23 @@
         <v>80</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -10414,25 +10443,25 @@
         <v>80</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -10440,57 +10469,57 @@
         <v>80</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>80</v>
       </c>
       <c r="H21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="160">
       <c r="A22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>80</v>
@@ -10499,22 +10528,22 @@
         <v>81</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -10525,53 +10554,53 @@
         <v>23</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -10581,24 +10610,24 @@
         <v>54</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10609,22 +10638,22 @@
         <v>54</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10632,25 +10661,25 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -10658,55 +10687,55 @@
         <v>80</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -10714,25 +10743,25 @@
         <v>80</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -10740,25 +10769,25 @@
         <v>80</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -10766,31 +10795,31 @@
         <v>80</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10799,22 +10828,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -10822,28 +10851,28 @@
         <v>53</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -10853,25 +10882,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>189</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -10881,24 +10910,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -10909,28 +10938,28 @@
         <v>54</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>80</v>
@@ -10939,7 +10968,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1C9CA-FB32-2941-B5DE-CDE2ACFEB962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093D29B-40EB-4E42-8A0B-6ECA4A517685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="-23340" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="16160" yWindow="-22860" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4798,20 +4798,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;2021/04/17
-聯合新聞網稱：桃園市政府喊出要建設11座國民運動中心、5座體育園區，但牛煦庭議員質疑龜山與八德國民運動中心進度拖延，淪為政治口號。市府體育局指出，龜山國民運動中心新建工程經費約3.3億元，因向教育部體育署申請前瞻基礎建設計畫-充實全民運動環境計畫補助2億元，正由體育署審辦計畫書，&lt;span
-	class="text-danger"&gt;經費尚未編列&lt;/span&gt;，才無法動工。運動設施科長姜相維也提到，龜山鄰近新北林口，為與林口國民運動中心區隔，因應龜山區新移入人口多，龜山國民運動中心規畫引進6歲以下孩童的體適能課程，迎合年輕家庭的需求。
-&lt;/p&gt;
-&lt;p&gt;2021/10/01
-陳雅倫議員 質詢：&lt;a href="https://www.youtube.com/watch?v=R-GV0FFhZZc"&gt;龜山國民運動中心停滯
-&lt;/a&gt;問題，體育局稱最遲 2022年1月 修訂計畫書送中央再審。原計畫書與林口國民運動中心的設施重疊性太高。 中國時報 2021/10/02 也指出 &lt;a
-	href="https://www.chinatimes.com/newspapers/20211002000448-260107?chdtv&amp;fbclid=IwAR0uxyKok4LkVo-ovHoaSZ043lt8MypGwAn22J7JBZohgTPE5TpAHLsB6nA"&gt;桃市府蓋運動場
-	執行率未過半&lt;/a&gt;，
-龜山國民運動中心部分，規畫設計已有雛型，預算到位便能執行，內部場館配置會依經費多寡滾動式調整。 所以需要議員們持續加強監督力道。
-&lt;/p&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>A7</t>
     </r>
@@ -9158,6 +9144,124 @@
 &lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;
+&lt;a href="https://www.facebook.com/permalink.php?story_fbid=pfbid02GSDfK4DMqtfVq96jahLpMesFQLmhvhxMn8nQgUvwvqc2i9qVoynhMEmPH7B3bVv4l&amp;id=100063574997048&amp;mibextid=uyAsYr"&gt;陳雅倫 2023/10/25&lt;/a&gt;: 
+《強力爭取龜山國民運動中心》&lt;br&gt;
+龜山國民運動中心，原已編列6億經費，無奈烏俄戰爭影響，國際原物料上漲，連續流標3次。
+經詢問體育局長及副市長的過程，體育局長尚未進入狀況，國民運動中心都已流標了三次，卻連要追加多少預算都不知道🤷‍♀️
+最後副市長 #沒有正面回覆同意追加預算支持龜山唯一的國民運動中心 ，現在龜山人只能去鄰近的新北林口、桃園區使用運動中心，跨縣市還不能使用市民卡優惠！
+雅倫會繼續強力督促市府，願早日完成龜山國民運動中心！
+&lt;/p&gt;
+&lt;p&gt;2021/04/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">聯合新聞網稱：桃園市政府喊出要建設11座國民運動中心、5座體育園區，但牛煦庭議員質疑龜山與八德國民運動中心進度拖延，淪為政治口號。市府體育局指出，龜山國民運動中心新建工程經費約3.3億元，因向教育部體育署申請前瞻基礎建設計畫-充實全民運動環境計畫補助2億元，正由體育署審辦計畫書，&lt;span
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>class="text-danger"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">經費尚未編列&lt;/span&gt;，才無法動工。運動設施科長姜相維也提到，龜山鄰近新北林口，為與林口國民運動中心區隔，因應龜山區新移入人口多，龜山國民運動中心規畫引進6歲以下孩童的體適能課程，迎合年輕家庭的需求。
+&lt;/p&gt;
+&lt;p&gt;2021/10/01
+陳雅倫議員 質詢：&lt;a href="https://www.youtube.com/watch?v=R-GV0FFhZZc"&gt;龜山國民運動中心停滯
+&lt;/a&gt;問題，體育局稱最遲 2022年1月 修訂計畫書送中央再審。原計畫書與林口國民運動中心的設施重疊性太高。 中國時報 2021/10/02 也指出 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://www.chinatimes.com/newspapers/20211002000448-260107?chdtv&amp;fbclid=IwAR0uxyKok4LkVo-ovHoaSZ043lt8MypGwAn22J7JBZohgTPE5TpAHLsB6nA"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">桃市府蓋運動場
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>執行率未過半&lt;/a&gt;，
+龜山國民運動中心部分，規畫設計已有雛型，預算到位便能執行，內部場館配置會依經費多寡滾動式調整。 所以需要議員們持續加強監督力道。
+&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9875,10 +9979,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10183,7 +10287,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -10200,7 +10304,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>66</v>
@@ -10212,10 +10316,10 @@
         <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -10232,7 +10336,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>70</v>
@@ -10247,7 +10351,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
@@ -10276,13 +10380,13 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
@@ -10327,7 +10431,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>80</v>
@@ -10339,7 +10443,7 @@
         <v>87</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="409.6">
@@ -10582,7 +10686,7 @@
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J24" s="13"/>
     </row>
@@ -10612,22 +10716,22 @@
       <c r="I25" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>137</v>
+      <c r="J25" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10638,22 +10742,22 @@
         <v>54</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10664,22 +10768,22 @@
         <v>98</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -10690,52 +10794,52 @@
         <v>98</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>98</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -10746,22 +10850,22 @@
         <v>98</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -10772,22 +10876,22 @@
         <v>98</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -10798,28 +10902,28 @@
         <v>98</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10828,22 +10932,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -10854,25 +10958,25 @@
         <v>98</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -10882,25 +10986,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -10910,24 +11014,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -10938,28 +11042,28 @@
         <v>54</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>80</v>
@@ -10968,7 +11072,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093D29B-40EB-4E42-8A0B-6ECA4A517685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9208655-5510-CD4D-BA73-EBF7995EEF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="-22860" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="7720" yWindow="-21680" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -368,15 +368,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>龜山區文化一路至青山路道路新關工程：
-&lt;ul&gt;
-&lt;li&gt; 工程內容：起點為龜山區振興路與文化一路路口，終點為青山路二段0K+450 轉彎處，長度約為658公尺，寬度為12.5公尺，採高架橋梁3車道方式銜接起訖點。&lt;/li&gt;
-&lt;li&gt;工程總經費：預估6億元。&lt;/li&gt;
-&lt;li&gt; 辦理情形：勞務招標已於 112年9月4日上網公告，預計 112年10月4日開標，決標後辦理設計作業。&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>青山路、文青路口拓寬工程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -426,1356 +417,6 @@
       <t>"&gt; 2026/10/31日&lt;/a&gt; 完成 , 原預計2022年底開始招標, 已延後。 &lt;del&gt;期望2023年3月招標, 6月動工&lt;/del&gt;。</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.6億</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5&gt;A7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主要道路變更規劃 - 變一案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/h5&gt; 
-&lt;ul&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工程內容：起自文化一路至文學路，道路總長約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>424</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公尺，路寬為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公尺。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/li&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工程總經費：約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>萬元。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/li&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦理情形：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日市長專案報告，決議採隧道方案，辦理重新設計契約變更中，預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月完成基本設計。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>自由時報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2021/06/04 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>報導</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>合宜住宅區對外聯外道路文青路塞車情形嚴重，市府規劃下面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>案希望能改善當地交通。總計工程及用地經費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元，已獲中央同意補助，目前正在進行用地取得作業，最晚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年就可動工發包。。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
- &lt;ul&gt;
-   &lt;li&gt;
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進度追蹤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a href="https://reiso.tycg.gov.tw/governance-progress/12"&gt;T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字型聯外道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一，變二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/a&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>經費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">預計
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     2026/10/31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">日完成
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;/li&gt;
-   &lt;li&gt;
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部營建屬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2019/02/27 &lt;a
-       href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦理林口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區二期都市計畫，補辦公開展覽及說明會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;
-   &lt;/li&gt;
-   &lt;li&gt;
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2019/01/29 &lt;a href="file/XLK-242-A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規劃書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-05.pdf"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>都市計畫委員會第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>939</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>次會議紀錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/a&gt;
-   &lt;/li&gt;
- &lt;/ul&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區交通變更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>圖片來源：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a
-   href="https://ec.ltn.com.tw/article/breakingnews/3558405?utm_medium=R&amp;utm_campaign=SHARE&amp;utm_source=FACEBOOK&amp;fbclid=IwAR0AXAzdLKlSWeJkECpwSgm1HxNCjks-0Wxz47Wb9hHf1uWLx1_jsAZrFkA"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">自由時報
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   2021/06/04&lt;/a&gt;
- &lt;h5&gt;A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區二期都市計畫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/h5&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>依據</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a
-   href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>營建署</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2019/02/27
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>說明會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第二期開發區除必要性聯繫道路外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>其餘維持現狀不予開發</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有鑑於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區第一期開發施工時，發現部分地區埋有大量廢棄物，經都市計畫程序變更恢復原有分區之經驗，第二期開發區爰比對</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年地形圖及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年新測地形圖，將地形變異較大之地區，辦理勘測鑽探，共完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>條地電阻影像剖面探測線，其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>條測線指出遭掩埋廢棄物，另完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>口鑽探井，鑽探結果各井皆有廢棄物掩埋；基於抵價地不足分配且有大量陳年廢棄物（土）違規傾倒情事，如進行開發，恐有公共安全之疑慮等因素，內政部都市計畫委員會會議決議第二期開發區維持現狀（保護區及農業區）不予開發，惟考量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">站區交通路網完整性，必要性聯繫道路宜予闢建。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;h5 id="CON-13"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路延伸與樂善一路延伸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字道路計畫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;
- 2022/11/15
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園電子報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「變一道路」範圍起自文化一路至文學路與樂善一路，延伸形成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字路口，工程經費約為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元，將保留部分牛角坡煙囪、八卦窯等文資設施，目前正辦理工程發包前置作業，預計興建長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>424</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公尺、寬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">公尺道路，將能讓交通更加方便。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部已於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021/05/26 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">核定補助經費。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主要是打通文學路連接文化一路，紓解文青路車流，全長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>389</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、將拓寬為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米道路；因用地範圍內含牛角坡煙囪、八卦窯等文化資產設施，目前正依文化資產保存法規定辦理審議程序，於文化資產認定前，同步辦理細部設計作業，預計於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">年發包。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
- &lt;a
-   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新聞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已克服八卦窯磚窯廠文資保存問題，預計於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">年完成規劃設計；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>變二:牛角坡路延伸文化一路計畫</t>
@@ -8386,6 +7027,845 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四位龜山區議員聯合質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路地下化打通至文化一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月。預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成設計，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年底至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年初動工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+&lt;/p&gt;
+&lt;p&gt;
+2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樟腦寮磚窯廠遺址將保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>示意圖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+&lt;/p&gt;
+&lt;p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳雅倫及牛煦庭議員質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>青山路拓寬案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>vs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路（變一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月份說要變更設計，到現在仍沒有看到方案。
+文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
+既然工務局能在今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月規劃、今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月就執行文青、青山拓寬案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那早已編列好預算的變一到底在等什麼？
+既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成長上萬人，先花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/P&gt;
+&lt;p&gt;2021/10/05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫議員質詢：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月獲得內政部同意補助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.254億</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://tyenews.com/2023/10/441936/?fbclid=IwAR0Q_Fn_QEKc6W3BfyWY9Oc0HxVY9zWN1eLd8YzzCK3sDONa-M0RerMHrHc"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園電子報 2023/101/24&lt;/a&gt;: 桃園市長張善政今（10/24）日上午前往龜山區，出席「龜山區南林路道路拓寬工程」竣工視察。
+南林路道路拓寬工程順利完工，有效改善道路品質，雙線道不變，但車道變寬，讓行車更順暢、交通更安全，提升桃園龜山區、林口交流道與工十二工業區間往來之便利性。該案總經費1億254萬元，感謝內政部國土管理署、南亞塑膠工業股份有限公司共同負擔經費，促成中央、地方與民間企業攜手合作改善地區交通的良好示範。
+&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p&gt;
+「龜山區南林路道路拓寬工程」起訖點自桃園市龜山區南林路與新北市交界處，接往林口特定區工十二工業區，該案於去（111）年3月開工、今年9月完工，將原不足8公尺寬之既有道路拓寬為12公尺，拓寬長度約426公尺，工程內容包含道路鋪設、設置滯洪池、妥善排水系統及擋土牆、新設集水井6座、照明路燈17盞、交通標誌2座及喬木移植10株、增設鋼板護欄等等，提供沿線民眾安全可靠的道路。
+&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;
+&lt;a href="https://www.facebook.com/permalink.php?story_fbid=pfbid02GSDfK4DMqtfVq96jahLpMesFQLmhvhxMn8nQgUvwvqc2i9qVoynhMEmPH7B3bVv4l&amp;id=100063574997048&amp;mibextid=uyAsYr"&gt;陳雅倫 2023/10/25&lt;/a&gt;: 
+《強力爭取龜山國民運動中心》&lt;br&gt;
+龜山國民運動中心，原已編列6億經費，無奈烏俄戰爭影響，國際原物料上漲，連續流標3次。
+經詢問體育局長及副市長的過程，體育局長尚未進入狀況，國民運動中心都已流標了三次，卻連要追加多少預算都不知道🤷‍♀️
+最後副市長 #沒有正面回覆同意追加預算支持龜山唯一的國民運動中心 ，現在龜山人只能去鄰近的新北林口、桃園區使用運動中心，跨縣市還不能使用市民卡優惠！
+雅倫會繼續強力督促市府，願早日完成龜山國民運動中心！
+&lt;/p&gt;
+&lt;p&gt;2021/04/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">聯合新聞網稱：桃園市政府喊出要建設11座國民運動中心、5座體育園區，但牛煦庭議員質疑龜山與八德國民運動中心進度拖延，淪為政治口號。市府體育局指出，龜山國民運動中心新建工程經費約3.3億元，因向教育部體育署申請前瞻基礎建設計畫-充實全民運動環境計畫補助2億元，正由體育署審辦計畫書，&lt;span
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>class="text-danger"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">經費尚未編列&lt;/span&gt;，才無法動工。運動設施科長姜相維也提到，龜山鄰近新北林口，為與林口國民運動中心區隔，因應龜山區新移入人口多，龜山國民運動中心規畫引進6歲以下孩童的體適能課程，迎合年輕家庭的需求。
+&lt;/p&gt;
+&lt;p&gt;2021/10/01
+陳雅倫議員 質詢：&lt;a href="https://www.youtube.com/watch?v=R-GV0FFhZZc"&gt;龜山國民運動中心停滯
+&lt;/a&gt;問題，體育局稱最遲 2022年1月 修訂計畫書送中央再審。原計畫書與林口國民運動中心的設施重疊性太高。 中國時報 2021/10/02 也指出 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://www.chinatimes.com/newspapers/20211002000448-260107?chdtv&amp;fbclid=IwAR0uxyKok4LkVo-ovHoaSZ043lt8MypGwAn22J7JBZohgTPE5TpAHLsB6nA"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">桃市府蓋運動場
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>執行率未過半&lt;/a&gt;，
+龜山國民運動中心部分，規畫設計已有雛型，預算到位便能執行，內部場館配置會依經費多寡滾動式調整。 所以需要議員們持續加強監督力道。
+&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>&lt;h5&gt;</t>
     </r>
     <r>
@@ -8397,7 +7877,6 @@
         <charset val="136"/>
       </rPr>
       <t>變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
-&lt;ul&gt;
 &lt;li&gt;工程內容：起自文化一路至樂善一路，道路長度約170公尺（其中橋梁長度約96公尺），寬度20公尺。&lt;/li&gt;
 &lt;li&gt;工程經費：約1億9,990萬元。&lt;/li&gt;
 &lt;li&gt;辦理情形：111年12月20日開工，預計114年1月完工。&lt;/li&gt;
@@ -8432,36 +7911,1314 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區大小事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>四位龜山區議員聯合質詢</t>
+      <t xml:space="preserve">&lt;h5&gt;A7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要道路變更規劃 - 變一案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt; 
+2023/10/24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青路拓寬開工典禮時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工務局曾總工程司清祥簡報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 說明
+&lt;ul&gt;
+&lt;li&gt;施工方式: 地下穿越式T字路銜接文化一路，樂善路及樂學路, 並結合磚窯廠紀念公園  &lt;/li&gt;
+&lt;li&gt;工程經費: 總經費 8.6億 包含地3億元及工程費5.6億元&lt;/li&gt;
+&lt;/ul&gt;
+原規劃
+&lt;ul&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工程內容：起自文化一路至文學路，道路總長約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公尺，路寬為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公尺。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工程總經費：約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬元。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦理情形：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日市長專案報告，決議採隧道方案，辦理重新設計契約變更中，預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月完成基本設計。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2021/06/04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>報導</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>合宜住宅區對外聯外道路文青路塞車情形嚴重，市府規劃下面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>案希望能改善當地交通。總計工程及用地經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元，已獲中央同意補助，目前正在進行用地取得作業，最晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年就可動工發包。。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+ &lt;ul&gt;
+   &lt;li&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進度追蹤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://reiso.tycg.gov.tw/governance-progress/12"&gt;T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字型聯外道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一，變二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">預計
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     2026/10/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">日完成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;/li&gt;
+   &lt;li&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部營建屬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/02/27 &lt;a
+       href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦理林口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區二期都市計畫，補辦公開展覽及說明會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+   &lt;/li&gt;
+   &lt;li&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/01/29 &lt;a href="file/XLK-242-A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規劃書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-05.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都市計畫委員會第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>次會議紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/a&gt;
+   &lt;/li&gt;
+ &lt;/ul&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區交通變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖片來源：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a
+   href="https://ec.ltn.com.tw/article/breakingnews/3558405?utm_medium=R&amp;utm_campaign=SHARE&amp;utm_source=FACEBOOK&amp;fbclid=IwAR0AXAzdLKlSWeJkECpwSgm1HxNCjks-0Wxz47Wb9hHf1uWLx1_jsAZrFkA"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">自由時報
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   2021/06/04&lt;/a&gt;
+ &lt;h5&gt;A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區二期都市計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+ &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a
+   href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>營建署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2019/02/27
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>說明會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第二期開發區除必要性聯繫道路外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其餘維持現狀不予開發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有鑑於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區第一期開發施工時，發現部分地區埋有大量廢棄物，經都市計畫程序變更恢復原有分區之經驗，第二期開發區爰比對</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年地形圖及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年新測地形圖，將地形變異較大之地區，辦理勘測鑽探，共完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>條地電阻影像剖面探測線，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>條測線指出遭掩埋廢棄物，另完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>口鑽探井，鑽探結果各井皆有廢棄物掩埋；基於抵價地不足分配且有大量陳年廢棄物（土）違規傾倒情事，如進行開發，恐有公共安全之疑慮等因素，內政部都市計畫委員會會議決議第二期開發區維持現狀（保護區及農業區）不予開發，惟考量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">站區交通路網完整性，必要性聯繫道路宜予闢建。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;h5 id="CON-13"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路延伸與樂善一路延伸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字道路計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;
+ 2022/11/15
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園電子報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「變一道路」範圍起自文化一路至文學路與樂善一路，延伸形成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字路口，工程經費約為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元，將保留部分牛角坡煙囪、八卦窯等文資設施，目前正辦理工程發包前置作業，預計興建長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公尺、寬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">公尺道路，將能讓交通更加方便。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部已於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021/05/26 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">核定補助經費。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要是打通文學路連接文化一路，紓解文青路車流，全長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、將拓寬為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米道路；因用地範圍內含牛角坡煙囪、八卦窯等文化資產設施，目前正依文化資產保存法規定辦理審議程序，於文化資產認定前，同步辦理細部設計作業，預計於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年發包。
+</t>
     </r>
     <r>
       <rPr>
@@ -8471,240 +9228,28 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> &lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路地下化打通至文化一路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個月。預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成設計，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年底至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年初動工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>.
-&lt;/p&gt;
-&lt;p&gt;
-2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聯合新聞網</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>原規劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ &lt;a
+   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新聞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
  </t>
     </r>
     <r>
@@ -8715,552 +9260,70 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>樟腦寮磚窯廠遺址將保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>示意圖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-&lt;/p&gt;
-&lt;p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳雅倫及牛煦庭議員質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>青山路拓寬案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>vs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路（變一）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月份說要變更設計，到現在仍沒有看到方案。
-文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
-既然工務局能在今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月規劃、今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月就執行文青、青山拓寬案，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>那早已編列好預算的變一到底在等什麼？
-既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成長上萬人，先花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/P&gt;
-&lt;p&gt;2021/10/05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員質詢：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月獲得內政部同意補助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
-</t>
+      <t>已克服八卦窯磚窯廠文資保存問題，預計於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年完成規劃設計；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.254億</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt;
-&lt;a href="https://tyenews.com/2023/10/441936/?fbclid=IwAR0Q_Fn_QEKc6W3BfyWY9Oc0HxVY9zWN1eLd8YzzCK3sDONa-M0RerMHrHc"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園電子報 2023/101/24&lt;/a&gt;: 桃園市長張善政今（10/24）日上午前往龜山區，出席「龜山區南林路道路拓寬工程」竣工視察。
-南林路道路拓寬工程順利完工，有效改善道路品質，雙線道不變，但車道變寬，讓行車更順暢、交通更安全，提升桃園龜山區、林口交流道與工十二工業區間往來之便利性。該案總經費1億254萬元，感謝內政部國土管理署、南亞塑膠工業股份有限公司共同負擔經費，促成中央、地方與民間企業攜手合作改善地區交通的良好示範。
-&lt;/p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;p&gt;
-「龜山區南林路道路拓寬工程」起訖點自桃園市龜山區南林路與新北市交界處，接往林口特定區工十二工業區，該案於去（111）年3月開工、今年9月完工，將原不足8公尺寬之既有道路拓寬為12公尺，拓寬長度約426公尺，工程內容包含道路鋪設、設置滯洪池、妥善排水系統及擋土牆、新設集水井6座、照明路燈17盞、交通標誌2座及喬木移植10株、增設鋼板護欄等等，提供沿線民眾安全可靠的道路。
-&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;
-&lt;a href="https://www.facebook.com/permalink.php?story_fbid=pfbid02GSDfK4DMqtfVq96jahLpMesFQLmhvhxMn8nQgUvwvqc2i9qVoynhMEmPH7B3bVv4l&amp;id=100063574997048&amp;mibextid=uyAsYr"&gt;陳雅倫 2023/10/25&lt;/a&gt;: 
-《強力爭取龜山國民運動中心》&lt;br&gt;
-龜山國民運動中心，原已編列6億經費，無奈烏俄戰爭影響，國際原物料上漲，連續流標3次。
-經詢問體育局長及副市長的過程，體育局長尚未進入狀況，國民運動中心都已流標了三次，卻連要追加多少預算都不知道🤷‍♀️
-最後副市長 #沒有正面回覆同意追加預算支持龜山唯一的國民運動中心 ，現在龜山人只能去鄰近的新北林口、桃園區使用運動中心，跨縣市還不能使用市民卡優惠！
-雅倫會繼續強力督促市府，願早日完成龜山國民運動中心！
-&lt;/p&gt;
-&lt;p&gt;2021/04/17
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">聯合新聞網稱：桃園市政府喊出要建設11座國民運動中心、5座體育園區，但牛煦庭議員質疑龜山與八德國民運動中心進度拖延，淪為政治口號。市府體育局指出，龜山國民運動中心新建工程經費約3.3億元，因向教育部體育署申請前瞻基礎建設計畫-充實全民運動環境計畫補助2億元，正由體育署審辦計畫書，&lt;span
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>class="text-danger"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">經費尚未編列&lt;/span&gt;，才無法動工。運動設施科長姜相維也提到，龜山鄰近新北林口，為與林口國民運動中心區隔，因應龜山區新移入人口多，龜山國民運動中心規畫引進6歲以下孩童的體適能課程，迎合年輕家庭的需求。
-&lt;/p&gt;
-&lt;p&gt;2021/10/01
-陳雅倫議員 質詢：&lt;a href="https://www.youtube.com/watch?v=R-GV0FFhZZc"&gt;龜山國民運動中心停滯
-&lt;/a&gt;問題，體育局稱最遲 2022年1月 修訂計畫書送中央再審。原計畫書與林口國民運動中心的設施重疊性太高。 中國時報 2021/10/02 也指出 &lt;a
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>href="https://www.chinatimes.com/newspapers/20211002000448-260107?chdtv&amp;fbclid=IwAR0uxyKok4LkVo-ovHoaSZ043lt8MypGwAn22J7JBZohgTPE5TpAHLsB6nA"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">桃市府蓋運動場
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>執行率未過半&lt;/a&gt;，
-龜山國民運動中心部分，規畫設計已有雛型，預算到位便能執行，內部場館配置會依經費多寡滾動式調整。 所以需要議員們持續加強監督力道。
-&lt;/p&gt;</t>
-    </r>
+    <t>龜山區文化一路至青山路道路新關工程：
+&lt;ul&gt;
+&lt;li&gt; 工程內容：起點為龜山區振興路與文化一路路口，終點為青山路二段0K+450 轉彎處，長度約為658公尺，寬度為12.5公尺，採高架橋梁3車道方式銜接起訖點。&lt;/li&gt;
+&lt;li&gt;工程總經費：預估6億元。&lt;/li&gt;
+&lt;li&gt; 辦理情形：勞務招標已於 112年9月4日上網公告，預計 112年10月4日開標，決標後辦理設計作業。&lt;/li&gt;
+&lt;/ul&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-02.png" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-04.png" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9979,10 +10042,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10283,31 +10346,31 @@
       <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>62</v>
+      <c r="I10" s="37" t="s">
+        <v>211</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
       <c r="A11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>53</v>
@@ -10316,30 +10379,30 @@
         <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
       <c r="A12" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="E12" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>70</v>
+        <v>199</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>53</v>
@@ -10348,30 +10411,30 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
       <c r="A13" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>16</v>
@@ -10380,114 +10443,114 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="J15" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10495,159 +10558,159 @@
         <v>53</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="160">
       <c r="A22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="E22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="G22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -10658,53 +10721,53 @@
         <v>23</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -10714,24 +10777,24 @@
         <v>54</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10742,22 +10805,22 @@
         <v>54</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10765,165 +10828,165 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="F29" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="G29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10932,22 +10995,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -10955,28 +11018,28 @@
         <v>53</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -10986,25 +11049,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="E36" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -11014,24 +11077,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -11042,37 +11105,37 @@
         <v>54</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9208655-5510-CD4D-BA73-EBF7995EEF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E76FCD5-EA2D-ED4F-B94A-D2C2BF8C33CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="-21680" windowWidth="39780" windowHeight="16380" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="215">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,500萬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>變一:文學路,樂善一路延伸計畫</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -430,10 +426,6 @@
   </si>
   <si>
     <t>2025/01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.99億</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2120,10 +2112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>施工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4684,32 +4672,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>遙遙無期？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4,355 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>萬預算被刪！</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>red</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6810,16 +6772,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>龜山區青山路、文青路口拓寬工程：
-&lt;ul&gt;
-&lt;li&gt;工程內容：青山路文青路口道路断面重新配置，分別於文青路南側、青山路東側進行道路拓寬。&lt;/li&gt;
-&lt;li&gt;工程總經費：目前約1500萬元（其中市長統籌分配款補助 900萬元）&lt;/li&gt;
-&lt;li&gt;辦理情形：112年9月20日辦理設計書圖審查，俟審查意見辦理修正後進行派工單準備，並預計於10月初邀集地方民代、里民辦理現地說明會，112年10月底進場。&lt;/li&gt;
-&lt;/ul&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7016,685 +6968,6 @@
 2023/10/24日 張市長在龜山文青路拓寬開工典禮上重申: 本案市府工程團隊積極辦理設計規劃中。
 A7合宜住宅主要聯外的文青路，多年來上下班尖峰時段車流嚴重雍塞，工務局曾總工程司清祥簡報時指出，經分析交通行為發現，文青路約有1/3交通量係來自振興路轉青山路往新莊之通勤車流，倘新闢道路銜接振興路與青山路，將可有效紓解文青路車流；惟因當地地形複雜，市府刻正進行道路工程設計，將以高架環形橋方式克服地形障礙，新闢青山路與振興路聯絡道路。 
 &lt;/p</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區大小事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>四位龜山區議員聯合質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路地下化打通至文化一路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個月。預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成設計，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年底至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年初動工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>.
-&lt;/p&gt;
-&lt;p&gt;
-2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聯合新聞網</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>原規劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樟腦寮磚窯廠遺址將保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>示意圖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-&lt;/p&gt;
-&lt;p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳雅倫及牛煦庭議員質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>青山路拓寬案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>vs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路（變一）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>希望市府不要忘記，變一道路變更設計期程，從上個會期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月份說要變更設計，到現在仍沒有看到方案。
-文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
-既然工務局能在今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月規劃、今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月就執行文青、青山拓寬案，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>那早已編列好預算的變一到底在等什麼？
-既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">土地早已取得的文青市民活動中心是否也可以使用？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成長上萬人，先花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/P&gt;
-&lt;p&gt;2021/10/05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員質詢：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月獲得內政部同意補助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
-</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7866,6 +7139,2043 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">&lt;h5&gt;A7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要道路變更規劃 - 變一案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt; 
+2023/10/24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青路拓寬開工典禮時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工務局曾總工程司清祥簡報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 說明
+&lt;ul&gt;
+&lt;li&gt;施工方式: 地下穿越式T字路銜接文化一路，樂善路及樂學路, 並結合磚窯廠紀念公園  &lt;/li&gt;
+&lt;li&gt;工程經費: 總經費 8.6億 包含地3億元及工程費5.6億元&lt;/li&gt;
+&lt;/ul&gt;
+原規劃
+&lt;ul&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工程內容：起自文化一路至文學路，道路總長約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公尺，路寬為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公尺。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工程總經費：約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬元。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦理情形：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日市長專案報告，決議採隧道方案，辦理重新設計契約變更中，預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月完成基本設計。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2021/06/04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>報導</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>合宜住宅區對外聯外道路文青路塞車情形嚴重，市府規劃下面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>案希望能改善當地交通。總計工程及用地經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元，已獲中央同意補助，目前正在進行用地取得作業，最晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年就可動工發包。。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+ &lt;ul&gt;
+   &lt;li&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進度追蹤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://reiso.tycg.gov.tw/governance-progress/12"&gt;T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字型聯外道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一，變二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>經費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">預計
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     2026/10/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">日完成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;/li&gt;
+   &lt;li&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部營建屬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/02/27 &lt;a
+       href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦理林口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區二期都市計畫，補辦公開展覽及說明會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+   &lt;/li&gt;
+   &lt;li&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/01/29 &lt;a href="file/XLK-242-A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規劃書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-05.pdf"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>都市計畫委員會第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>次會議紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/a&gt;
+   &lt;/li&gt;
+ &lt;/ul&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區交通變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖片來源：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a
+   href="https://ec.ltn.com.tw/article/breakingnews/3558405?utm_medium=R&amp;utm_campaign=SHARE&amp;utm_source=FACEBOOK&amp;fbclid=IwAR0AXAzdLKlSWeJkECpwSgm1HxNCjks-0Wxz47Wb9hHf1uWLx1_jsAZrFkA"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">自由時報
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   2021/06/04&lt;/a&gt;
+ &lt;h5&gt;A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區二期都市計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+ &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依據</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a
+   href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>營建署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2019/02/27
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>說明會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第二期開發區除必要性聯繫道路外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其餘維持現狀不予開發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有鑑於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>站區第一期開發施工時，發現部分地區埋有大量廢棄物，經都市計畫程序變更恢復原有分區之經驗，第二期開發區爰比對</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年地形圖及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年新測地形圖，將地形變異較大之地區，辦理勘測鑽探，共完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>條地電阻影像剖面探測線，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>條測線指出遭掩埋廢棄物，另完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>口鑽探井，鑽探結果各井皆有廢棄物掩埋；基於抵價地不足分配且有大量陳年廢棄物（土）違規傾倒情事，如進行開發，恐有公共安全之疑慮等因素，內政部都市計畫委員會會議決議第二期開發區維持現狀（保護區及農業區）不予開發，惟考量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">站區交通路網完整性，必要性聯繫道路宜予闢建。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/p&gt;
+ &lt;h5 id="CON-13"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路延伸與樂善一路延伸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字道路計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;
+ 2022/11/15
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園電子報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「變一道路」範圍起自文化一路至文學路與樂善一路，延伸形成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字路口，工程經費約為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億元，將保留部分牛角坡煙囪、八卦窯等文資設施，目前正辦理工程發包前置作業，預計興建長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公尺、寬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">公尺道路，將能讓交通更加方便。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部已於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021/05/26 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">核定補助經費。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要是打通文學路連接文化一路，紓解文青路車流，全長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>389</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米、將拓寬為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>米道路；因用地範圍內含牛角坡煙囪、八卦窯等文化資產設施，目前正依文化資產保存法規定辦理審議程序，於文化資產認定前，同步辦理細部設計作業，預計於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年發包。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+ &lt;a
+   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新聞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已克服八卦窯磚窯廠文資保存問題，預計於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年完成規劃設計；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>億</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6億＋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4,355 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.76億</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區文化一路至青山路道路新關工程：
+&lt;ul&gt;
+&lt;li&gt; 工程內容：起點為龜山區振興路與文化一路路口，終點為青山路二段0K+450 轉彎處，長度約為658公尺，寬度為12.5公尺，採高架橋梁3車道方式銜接起訖點。&lt;/li&gt;
+&lt;li&gt;工程總經費：預估 直接工程費 5.7億元。 工期: 21個月&lt;/li&gt;
+&lt;li&gt; 辦理情形：勞務招標已於 112年9月4日上網公告，預計 112年10月4日開標，決標後辦理設計作業。&lt;/li&gt;
+&lt;li&gt;全長 555公尺, 高架段 310公尺, 路提路段 245公尺 最大縱坡 - 5.7%&lt;/li&gt;
+&lt;li&gt;最小半徑 50公尺, 速限 30KPH&lt;/li&gt;
+&lt;/ul&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-11.jpg" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-13.jpg" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-12.jpg" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-14.jpg" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四位龜山區議員聯合質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路地下化打通至文化一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月。預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成設計，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年底至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年初動工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+&lt;/p&gt;
+&lt;p&gt;
+2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樟腦寮磚窯廠遺址將保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>示意圖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-11.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-12.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 陳雅倫及牛煦庭議員質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&gt;文青路/青山路拓寬案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>s文學路（變一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+希望市府不要忘記，變一道路變更設計期程，從上個會期5月份說要變更設計，到現在仍沒有看到方案。
+文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
+既然工務局能在今年7月規劃、今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0月就執行文青、青山拓寬案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#那早已編列好預算的變一到底在等什麼？
+既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，#土地早已取得的文青市民活動中心是否也可以使用？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7成長上萬人，先花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/P&gt;
+&lt;p&gt;2021/10/05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 陳雅倫議員質詢：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ &lt;/p&gt;
+ &lt;p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ &lt;/p&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>&lt;h5&gt;</t>
     </r>
     <r>
@@ -7877,6 +9187,7 @@
         <charset val="136"/>
       </rPr>
       <t>變二案: 牛角坡路延伸至文化一路 &lt;/h5&gt;
+&lt;ul&gt;
 &lt;li&gt;工程內容：起自文化一路至樂善一路，道路長度約170公尺（其中橋梁長度約96公尺），寬度20公尺。&lt;/li&gt;
 &lt;li&gt;工程經費：約1億9,990萬元。&lt;/li&gt;
 &lt;li&gt;辦理情形：111年12月20日開工，預計114年1月完工。&lt;/li&gt;
@@ -7904,1427 +9215,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5&gt;A7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主要道路變更規劃 - 變一案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt; 
-2023/10/24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青路拓寬開工典禮時</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工務局曾總工程司清祥簡報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 說明
+    <t>張市長 修訂資料 2023/10/25
 &lt;ul&gt;
-&lt;li&gt;施工方式: 地下穿越式T字路銜接文化一路，樂善路及樂學路, 並結合磚窯廠紀念公園  &lt;/li&gt;
-&lt;li&gt;工程經費: 總經費 8.6億 包含地3億元及工程費5.6億元&lt;/li&gt;
+&lt;li&gt;經費: 總經費 2.76億 (地 0.6億 + 工2.16億)&lt;/li&gt;
+&lt;li&gt;雙向4車道: 快車道 3m + 混合車道 4m&lt;/li&gt;
+&lt;li&gt;兩側行人道2.5m, 雙欄杆配置&lt;/li&gt;
 &lt;/ul&gt;
-原規劃
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-14-11.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區青山路、文青路口拓寬工程：
 &lt;ul&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工程內容：起自文化一路至文學路，道路總長約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>424</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公尺，路寬為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公尺。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/li&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工程總經費：約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>萬元。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/li&gt;
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦理情形：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日市長專案報告，決議採隧道方案，辦理重新設計契約變更中，預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月完成基本設計。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
+&lt;li&gt;工程內容：青山路文青路口道路断面重新配置，分別於文青路南側、青山路東側進行道路拓寬。&lt;/li&gt;
+&lt;li&gt;工程總經費：目前約1500萬元（其中市長統籌分配款補助 900萬元）2023/10/25 修訂為7,000 萬&lt;/li&gt;
+&lt;li&gt;辦理情形：112年9月20日辦理設計書圖審查，俟審查意見辦理修正後進行派工單準備，並預計於10月初邀集地方民代、里民辦理現地說明會，112年10月底進場。&lt;/li&gt;
 &lt;/ul&gt;
-&lt;p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>自由時報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2021/06/04 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>報導</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>合宜住宅區對外聯外道路文青路塞車情形嚴重，市府規劃下面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>案希望能改善當地交通。總計工程及用地經費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元，已獲中央同意補助，目前正在進行用地取得作業，最晚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年就可動工發包。。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
- &lt;ul&gt;
-   &lt;li&gt;
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進度追蹤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a href="https://reiso.tycg.gov.tw/governance-progress/12"&gt;T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字型聯外道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一，變二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/a&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>經費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">預計
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     2026/10/31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">日完成
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;/li&gt;
-   &lt;li&gt;
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部營建屬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2019/02/27 &lt;a
-       href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦理林口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區二期都市計畫，補辦公開展覽及說明會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;
-   &lt;/li&gt;
-   &lt;li&gt;
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2019/01/29 &lt;a href="file/XLK-242-A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規劃書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-05.pdf"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>都市計畫委員會第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>939</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>次會議紀錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/a&gt;
-   &lt;/li&gt;
- &lt;/ul&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-01.jpeg"  alt="A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區交通變更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">"  sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>圖片來源：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a
-   href="https://ec.ltn.com.tw/article/breakingnews/3558405?utm_medium=R&amp;utm_campaign=SHARE&amp;utm_source=FACEBOOK&amp;fbclid=IwAR0AXAzdLKlSWeJkECpwSgm1HxNCjks-0Wxz47Wb9hHf1uWLx1_jsAZrFkA"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">自由時報
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   2021/06/04&lt;/a&gt;
- &lt;h5&gt;A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區二期都市計畫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/h5&gt;
- &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>依據</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;a
-   href="https://www.cpami.gov.tw/%E6%9C%80%E6%96%B0%E6%B6%88%E6%81%AF/%E5%8D%B3%E6%99%82%E6%96%B0%E8%81%9E/63-%E5%9F%8E%E9%84%89%E7%99%BC%E5%B1%95%E5%88%86%E7%BD%B2/33635-%E8%BE%A6%E7%90%86%E6%9E%97%E5%8F%A3A7%E7%AB%99%E5%8D%80%E4%BA%8C%E6%9C%9F%E9%83%BD%E5%B8%82%E8%A8%88%E7%95%AB%EF%BC%8C%E8%A3%9C%E8%BE%A6%E5%85%AC%E9%96%8B%E5%B1%95%E8%A6%BD%E5%8F%8A%E8%AA%AA%E6%98%8E%E6%9C%83.html?fbclid=IwAR3MUT6fitdqPyQShgvWSzEdDu1h0rtXFeuKAlSTge7DSDsMpoyDpVguLrI"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>營建署</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2019/02/27
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>說明會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第二期開發區除必要性聯繫道路外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>其餘維持現狀不予開發</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有鑑於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>站區第一期開發施工時，發現部分地區埋有大量廢棄物，經都市計畫程序變更恢復原有分區之經驗，第二期開發區爰比對</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年地形圖及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年新測地形圖，將地形變異較大之地區，辦理勘測鑽探，共完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>條地電阻影像剖面探測線，其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>條測線指出遭掩埋廢棄物，另完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>口鑽探井，鑽探結果各井皆有廢棄物掩埋；基於抵價地不足分配且有大量陳年廢棄物（土）違規傾倒情事，如進行開發，恐有公共安全之疑慮等因素，內政部都市計畫委員會會議決議第二期開發區維持現狀（保護區及農業區）不予開發，惟考量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">站區交通路網完整性，必要性聯繫道路宜予闢建。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/p&gt;
- &lt;h5 id="CON-13"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路延伸與樂善一路延伸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字道路計畫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;
- 2022/11/15
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園電子報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「變一道路」範圍起自文化一路至文學路與樂善一路，延伸形成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字路口，工程經費約為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億元，將保留部分牛角坡煙囪、八卦窯等文資設施，目前正辦理工程發包前置作業，預計興建長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>424</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公尺、寬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">公尺道路，將能讓交通更加方便。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部已於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021/05/26 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">核定補助經費。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主要是打通文學路連接文化一路，紓解文青路車流，全長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>389</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米、將拓寬為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>米道路；因用地範圍內含牛角坡煙囪、八卦窯等文化資產設施，目前正依文化資產保存法規定辦理審議程序，於文化資產認定前，同步辦理細部設計作業，預計於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">年發包。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
- &lt;a
-   href="https://www.taiwanhot.net/news/988498/%E9%BE%9C%E5%B1%B1%E5%8D%97%E6%9E%97%E8%B7%AF%E6%8B%93%E5%AF%AC%E5%B7%A5%E7%A8%8B%E5%8B%95%E5%B7%A5+%E9%A0%90%E8%A8%88112%E5%B9%B4%E8%BE%B2%E6%9B%86%E5%B9%B4%E5%89%8D%E9%80%9A%E8%BB%8A?fbclid=IwAR0RpriOAPibVUlgKgQtfHU5_fSX29Bs-OQh5pXUZnOyAJsHag4kWPevv7Y"&gt;2022/03/18
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新聞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>已克服八卦窯磚窯廠文資保存問題，預計於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">年完成規劃設計；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;&lt;br&gt;</t>
-    </r>
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-01.jpeg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-12.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-13.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-14.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-15.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-16.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>億</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龜山區文化一路至青山路道路新關工程：
-&lt;ul&gt;
-&lt;li&gt; 工程內容：起點為龜山區振興路與文化一路路口，終點為青山路二段0K+450 轉彎處，長度約為658公尺，寬度為12.5公尺，採高架橋梁3車道方式銜接起訖點。&lt;/li&gt;
-&lt;li&gt;工程總經費：預估6億元。&lt;/li&gt;
-&lt;li&gt; 辦理情形：勞務招標已於 112年9月4日上網公告，預計 112年10月4日開標，決標後辦理設計作業。&lt;/li&gt;
-&lt;/ul&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-02.png" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-04.png" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10045,7 +9980,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10341,16 +10276,16 @@
         <v>61</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -10367,74 +10302,74 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>65</v>
+        <v>195</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
       <c r="A12" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="E12" s="37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="409.6">
       <c r="A13" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>73</v>
+      <c r="F13" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>16</v>
@@ -10443,114 +10378,116 @@
         <v>23</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J13" s="13"/>
+        <v>211</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="409.6">
       <c r="A14" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="I14" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="J15" s="13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10558,159 +10495,159 @@
         <v>53</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32">
       <c r="A18" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="34">
       <c r="A19" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32">
       <c r="A20" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="384">
       <c r="A21" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="160">
       <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="E22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="G22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="409.6">
       <c r="A23" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -10718,83 +10655,85 @@
         <v>53</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10802,25 +10741,25 @@
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10828,165 +10767,162 @@
         <v>53</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="51">
       <c r="A28" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="409.6">
       <c r="A29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="H29" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="134">
       <c r="A30" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="112">
       <c r="A31" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="224">
       <c r="A32" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="167">
       <c r="A33" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>16</v>
@@ -10995,22 +10931,22 @@
         <v>23</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="144">
       <c r="A34" s="10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -11018,28 +10954,28 @@
         <v>53</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
@@ -11049,25 +10985,25 @@
         <v>23</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -11077,65 +11013,65 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>54</v>
+      <c r="H37" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E76FCD5-EA2D-ED4F-B94A-D2C2BF8C33CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760D85B-D236-7E4E-86AD-A8CBA50094DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="216">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9259,6 +9259,10 @@
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-14.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-15.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-39-16.jpg" alt="青山路、文青路口拓寬工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9545,7 +9549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9658,6 +9662,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9977,10 +9984,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10308,7 +10315,7 @@
         <v>213</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>205</v>
@@ -10352,86 +10359,82 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.6">
-      <c r="A13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>57</v>
+    <row r="13" spans="1:10" ht="144">
+      <c r="A13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>208</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>212</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="409.6">
-      <c r="A14" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
-      <c r="A15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>75</v>
@@ -10440,106 +10443,112 @@
         <v>76</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>199</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
       <c r="A17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="409.6">
+      <c r="A18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32">
-      <c r="A18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="22" t="s">
-        <v>75</v>
+      <c r="G18" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" ht="34">
-      <c r="A19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="1:10" ht="32">
+      <c r="A19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -10549,23 +10558,21 @@
       <c r="H19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" ht="32">
-      <c r="A20" s="10" t="s">
-        <v>103</v>
+    <row r="20" spans="1:10" ht="34">
+      <c r="A20" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -10575,296 +10582,296 @@
       <c r="H20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="384">
-      <c r="A21" s="19" t="s">
-        <v>106</v>
+    <row r="21" spans="1:10" ht="32">
+      <c r="A21" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="26"/>
+        <v>93</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="160">
-      <c r="A22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>112</v>
+    <row r="22" spans="1:10" ht="384">
+      <c r="A22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="13"/>
+      <c r="I22" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" ht="409.6">
+    <row r="23" spans="1:10" ht="160">
       <c r="A23" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>203</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>200</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="13"/>
+        <v>207</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>138</v>
+        <v>205</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" ht="51">
+    <row r="28" spans="1:10" ht="409.6">
       <c r="A28" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="22" t="s">
-        <v>75</v>
+      <c r="G28" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>142</v>
+      <c r="I28" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" ht="409.6">
+    <row r="29" spans="1:10" ht="51">
       <c r="A29" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>204</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="22" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>93</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="134">
+    <row r="30" spans="1:10" ht="409.6">
       <c r="A30" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="G30" s="22" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>151</v>
+      <c r="I30" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="112">
+    <row r="31" spans="1:10" ht="134">
       <c r="A31" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -10875,22 +10882,22 @@
         <v>93</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="224">
+    <row r="32" spans="1:10" ht="112">
       <c r="A32" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -10901,63 +10908,63 @@
         <v>93</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="1:10" ht="167">
+    <row r="33" spans="1:10" ht="224">
       <c r="A33" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>164</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="22" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" ht="144">
+    <row r="34" spans="1:10" ht="167">
       <c r="A34" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>53</v>
+        <v>162</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J34" s="13"/>
     </row>
@@ -10982,7 +10989,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>174</v>
@@ -11067,8 +11074,8 @@
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="24" t="s">
-        <v>23</v>
+      <c r="H38" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>190</v>
@@ -11081,13 +11088,13 @@
     <hyperlink ref="D36" r:id="rId1" display="https://reiso.tycg.gov.tw/detail/8da5e917-bad3-403d-9d7a-aaf93293d83e" xr:uid="{9DF66505-2722-344D-B52A-59F598EC723E}"/>
     <hyperlink ref="D3" r:id="rId2" display="https://subservices.post.gov.tw/post/internet/Group/index.jsp?ID=1578899636045" xr:uid="{B70B6B14-8A64-4E4F-B08E-81EEDD6B3DF9}"/>
     <hyperlink ref="D8" r:id="rId3" display="https://tw.news.yahoo.com/news/%E5%8D%97%E4%BA%9E%E7%A7%91%E6%8A%8012%E5%90%8B%E5%85%88%E9%80%B2%E6%99%B6%E5%9C%93%E5%BB%A0%E5%8B%95%E5%9C%9F-%E8%90%BD%E8%85%B3%E6%96%B0%E5%8C%97%E5%8D%97%E6%9E%97%E7%A7%91%E6%8A%80%E5%9C%92%E5%8D%80-100119251.html" xr:uid="{FA8D22A1-750F-2949-B17D-897598A3A41D}"/>
-    <hyperlink ref="D24" r:id="rId4" display="https://ohd.tycg.gov.tw/home.jsp?id=145&amp;parentpath=0%2C96%2C143&amp;mcustomize=onemessages_view.jsp&amp;dataserno=202203160007&amp;aplistdn=ou%3Ddata%2Cou%3Dsocialhousing1%2Cou%3Dhouse%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR1FdJO9Rolz3pGdB6Heo8RyoLG7LPCtH5MYl_1ettltbLXW_OnTPr5ms7I" xr:uid="{94111644-B98C-9444-A22C-E22EDEBF3BD4}"/>
-    <hyperlink ref="D25" r:id="rId5" display="https://reiso.tycg.gov.tw/governance-outcome/12" xr:uid="{6C1423D9-2577-4C45-BD48-D92A1CEB3A96}"/>
-    <hyperlink ref="D26" r:id="rId6" display="https://www.facebook.com/groups/1951117865015671/permalink/5157536007707158/" xr:uid="{E17955B8-65F6-AE49-897C-BA69F8DC4B37}"/>
+    <hyperlink ref="D25" r:id="rId4" display="https://ohd.tycg.gov.tw/home.jsp?id=145&amp;parentpath=0%2C96%2C143&amp;mcustomize=onemessages_view.jsp&amp;dataserno=202203160007&amp;aplistdn=ou%3Ddata%2Cou%3Dsocialhousing1%2Cou%3Dhouse%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR1FdJO9Rolz3pGdB6Heo8RyoLG7LPCtH5MYl_1ettltbLXW_OnTPr5ms7I" xr:uid="{94111644-B98C-9444-A22C-E22EDEBF3BD4}"/>
+    <hyperlink ref="D26" r:id="rId5" display="https://reiso.tycg.gov.tw/governance-outcome/12" xr:uid="{6C1423D9-2577-4C45-BD48-D92A1CEB3A96}"/>
+    <hyperlink ref="D27" r:id="rId6" display="https://www.facebook.com/groups/1951117865015671/permalink/5157536007707158/" xr:uid="{E17955B8-65F6-AE49-897C-BA69F8DC4B37}"/>
     <hyperlink ref="D12" r:id="rId7" display="https://reiso.tycg.gov.tw/governance-progress/12" xr:uid="{CD9241DF-3C81-6C41-83F1-B4CD70A05977}"/>
-    <hyperlink ref="D27" r:id="rId8" display="https://tcwang.github.io/A7Xinlinkou/file/XLK-236-%E5%85%A7%E6%94%BF%E9%83%A8%E5%9C%9F%E5%9C%B0%E5%BE%B5%E6%94%B6%E5%AF%A9%E8%AD%B0%E5%B0%8F%E7%B5%84%E7%AC%AC247%E6%AC%A1%E6%9C%83%E8%AD%B0%E9%96%8B%E6%9C%83%E9%80%9A%E7%9F%A5%E5%96%AE%E5%8F%8A%E8%AD%B0%E7%A8%8B.pdf" xr:uid="{BC96A26C-801E-7642-96E0-B0E05BA7FFA3}"/>
-    <hyperlink ref="D33" r:id="rId9" display="https://www.tycg.gov.tw/water/home.jsp?id=519&amp;parentpath=0,177,490,512" xr:uid="{5A23F58D-AA2F-2A45-B9B9-34FFB001D82F}"/>
-    <hyperlink ref="D34" r:id="rId10" display="https://culture.tycg.gov.tw/home.jsp?id=93&amp;parentpath=0,1&amp;mcustomize=activityhot_view.jsp&amp;dataserno=202207120001&amp;aplistdn=ou=data,ou=activityhot,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y" xr:uid="{1873B9F5-9998-A247-B2D0-74DC887C0484}"/>
+    <hyperlink ref="D28" r:id="rId8" display="https://tcwang.github.io/A7Xinlinkou/file/XLK-236-%E5%85%A7%E6%94%BF%E9%83%A8%E5%9C%9F%E5%9C%B0%E5%BE%B5%E6%94%B6%E5%AF%A9%E8%AD%B0%E5%B0%8F%E7%B5%84%E7%AC%AC247%E6%AC%A1%E6%9C%83%E8%AD%B0%E9%96%8B%E6%9C%83%E9%80%9A%E7%9F%A5%E5%96%AE%E5%8F%8A%E8%AD%B0%E7%A8%8B.pdf" xr:uid="{BC96A26C-801E-7642-96E0-B0E05BA7FFA3}"/>
+    <hyperlink ref="D34" r:id="rId9" display="https://www.tycg.gov.tw/water/home.jsp?id=519&amp;parentpath=0,177,490,512" xr:uid="{5A23F58D-AA2F-2A45-B9B9-34FFB001D82F}"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://culture.tycg.gov.tw/home.jsp?id=93&amp;parentpath=0,1&amp;mcustomize=activityhot_view.jsp&amp;dataserno=202207120001&amp;aplistdn=ou=data,ou=activityhot,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y" xr:uid="{1873B9F5-9998-A247-B2D0-74DC887C0484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760D85B-D236-7E4E-86AD-A8CBA50094DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4014EC-1BF2-154A-B929-51DBB1E0015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5565,11 +5565,6 @@
     <t>生質能中心預計2022/9月正式營運。需要建立大埔垃圾處理時程表，徹底解決垃圾問題。</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;a href="https://style.yahoo.com.tw/%E5%A4%A7%E5%9F%94%E8%BD%89%E9%81%8B%E7%AB%99%E5%9E%83%E5%9C%BE%E7%88%86%E9%87%8F-%E5%B1%85%E6%B0%91%E6%8A%97%E8%AD%B0-201000840.html"&gt;中時新聞網 2022/01/29&lt;/a&gt; &lt;/p&gt;: &lt;p&gt;大埔轉運站垃圾爆量 居民抗議 &lt;p&gt;過去轉運站多暫置龜山區域垃圾，但這幾個月接受來自桃園市區、大檜溪、大樹林、埔仔等地垃圾，氣味飄散頻繁，連過年將至，垃圾依然堆積如山。他說，原本以為該轉運站只有龜山的垃圾，大家體諒，但因垃圾清運量不足，需堆放其他區域垃圾，曝曬腐臭味飄散，要求市府加強轉運量能，將堆置已久的垃圾送往焚化爐。&lt;/p&gt;
-&lt;p&gt;　居民說，垃圾及廚餘的惡臭味飄至龜山區文青里、文化里、舊路里、樂善里等4里，讓民眾相當不舒服，尤其太陽一出，惡臭味更四散，希望市府年後盡速評估解決方案。&lt;/p&gt; &lt;p&gt;環保局也說，生質能中心正式運轉在即，將再通盤規畫各區垃圾清運路線，降低各區垃圾暫置情形，並可逐步消化掩埋場垃圾以利後續活化處理。&lt;/p&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>A7站水資源回收中心第2期工程</t>
   </si>
   <si>
@@ -9264,6 +9259,45 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+桃園生質能中心進度:&lt;br&gt;
+ &lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4403033"&gt;自由時報 2023/08/21: &lt;/a&gt;桃園生質能中心營運一延再延 環保局：焚化爐每日處理600噸垃圾&lt;br&gt;
+台灣各縣市頻傳垃圾燒不完問題，桃園市人口持續正成長，也面臨家戶垃圾增加問題，第二座焚化廠桃園生質能中心，正式營運期程一延再延，憂心發生垃圾處理危機；桃市府環保局表示，生質能中心厭氧消化處理仍在養菌階段，但熱處理單元（焚化爐）每日已可處理600噸垃圾，包括龍潭店子湖垃圾掩埋場等地的垃圾已開始進行去化。
+&lt;/p&gt;
+&lt;p&gt;桃園市多處垃圾掩埋場容量已達飽和，除了欣榮焚化爐，透過促參方式在觀音區興建桃園生質能中心，包含熱處理單元、厭氧發酵單元及固化掩埋單元，但厭氧發酵養菌遲遲未成功，導致正式營運期程一延再延，地方憂心衍生垃圾問題；桃園市審計處報告亦指出，桃園市一般廢棄物產生量持續增加，但桃市一般廢棄物妥善處理率，從前年89.11%到去年雖增至92.10%，與其他五都相比仍是最低，垃圾暫存量仍待去化。
+&lt;/p&gt;環保局表示，生質能中心熱處理單元的試運轉無太大問題，目前每日已可處理600噸垃圾，並進行一般、事業廢棄物配比測試，包括龍潭店子湖掩埋場暫置垃圾已開始進行去化，只是厭氧消化處理的部分，目前仍在進行菌種馴化，待完成後才可發給相關許可證照正式營運，屆時熱處理單元每年可處理21萬9000噸、平均最高每日可達660噸。
+&lt;p&gt;另，欣榮焚化廠爐體已逾22年，即將要進行爐體更新等整改工程，今年10月1日至明年1月15日1號爐停爐107天、明年3月1日至4月15日2號爐停爐45天，明年4月16日到6月15日1、2號均停爐62天，屆時垃圾處理恐負荷不及，對此，環保局表示，屆時將調配桃園生質能中心熱處理單元及區域協作方式因應。
+&lt;p&gt;
+&lt;/p&gt;
+&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://style.yahoo.com.tw/%E5%A4%A7%E5%9F%94%E8%BD%89%E9%81%8B%E7%AB%99%E5%9E%83%E5%9C%BE%E7%88%86%E9%87%8F-%E5%B1%85%E6%B0%91%E6%8A%97%E8%AD%B0-201000840.html"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中時新聞網 2022/01/29&lt;/a&gt; &lt;/p&gt;: &lt;p&gt;大埔轉運站垃圾爆量 居民抗議 &lt;p&gt;過去轉運站多暫置龜山區域垃圾，但這幾個月接受來自桃園市區、大檜溪、大樹林、埔仔等地垃圾，氣味飄散頻繁，連過年將至，垃圾依然堆積如山。他說，原本以為該轉運站只有龜山的垃圾，大家體諒，但因垃圾清運量不足，需堆放其他區域垃圾，曝曬腐臭味飄散，要求市府加強轉運量能，將堆置已久的垃圾送往焚化爐。&lt;/p&gt;
+&lt;p&gt;　居民說，垃圾及廚餘的惡臭味飄至龜山區文青里、文化里、舊路里、樂善里等4里，讓民眾相當不舒服，尤其太陽一出，惡臭味更四散，希望市府年後盡速評估解決方案。&lt;/p&gt; &lt;p&gt;環保局也說，生質能中心正式運轉在即，將再通盤規畫各區垃圾清運路線，降低各區垃圾暫置情形，並可逐步消化掩埋場垃圾以利後續活化處理。&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9984,10 +10018,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -10289,10 +10323,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -10309,22 +10343,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -10341,10 +10375,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -10353,24 +10387,24 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="144">
       <c r="A13" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -10378,10 +10412,10 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -10402,7 +10436,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -10411,15 +10445,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>57</v>
@@ -10464,7 +10498,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -10476,7 +10510,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -10688,7 +10722,7 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>121</v>
@@ -10719,7 +10753,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -10740,19 +10774,19 @@
         <v>129</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
@@ -10774,7 +10808,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>134</v>
@@ -10847,7 +10881,7 @@
         <v>145</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>146</v>
@@ -10912,7 +10946,7 @@
       </c>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="1:10" ht="224">
+    <row r="33" spans="1:10" ht="409.6">
       <c r="A33" s="10" t="s">
         <v>156</v>
       </c>
@@ -10933,29 +10967,31 @@
       <c r="H33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" s="13"/>
+      <c r="I33" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="167">
       <c r="A34" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>16</v>
@@ -10964,53 +11000,53 @@
         <v>23</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -11020,24 +11056,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -11045,40 +11081,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4014EC-1BF2-154A-B929-51DBB1E0015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F373C-D529-F341-A623-4DFE8CE23BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -9273,16 +9273,718 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>&lt;p&gt;
-桃園生質能中心進度:&lt;br&gt;
- &lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4403033"&gt;自由時報 2023/08/21: &lt;/a&gt;桃園生質能中心營運一延再延 環保局：焚化爐每日處理600噸垃圾&lt;br&gt;
-台灣各縣市頻傳垃圾燒不完問題，桃園市人口持續正成長，也面臨家戶垃圾增加問題，第二座焚化廠桃園生質能中心，正式營運期程一延再延，憂心發生垃圾處理危機；桃市府環保局表示，生質能中心厭氧消化處理仍在養菌階段，但熱處理單元（焚化爐）每日已可處理600噸垃圾，包括龍潭店子湖垃圾掩埋場等地的垃圾已開始進行去化。
-&lt;/p&gt;
-&lt;p&gt;桃園市多處垃圾掩埋場容量已達飽和，除了欣榮焚化爐，透過促參方式在觀音區興建桃園生質能中心，包含熱處理單元、厭氧發酵單元及固化掩埋單元，但厭氧發酵養菌遲遲未成功，導致正式營運期程一延再延，地方憂心衍生垃圾問題；桃園市審計處報告亦指出，桃園市一般廢棄物產生量持續增加，但桃市一般廢棄物妥善處理率，從前年89.11%到去年雖增至92.10%，與其他五都相比仍是最低，垃圾暫存量仍待去化。
-&lt;/p&gt;環保局表示，生質能中心熱處理單元的試運轉無太大問題，目前每日已可處理600噸垃圾，並進行一般、事業廢棄物配比測試，包括龍潭店子湖掩埋場暫置垃圾已開始進行去化，只是厭氧消化處理的部分，目前仍在進行菌種馴化，待完成後才可發給相關許可證照正式營運，屆時熱處理單元每年可處理21萬9000噸、平均最高每日可達660噸。
-&lt;p&gt;另，欣榮焚化廠爐體已逾22年，即將要進行爐體更新等整改工程，今年10月1日至明年1月15日1號爐停爐107天、明年3月1日至4月15日2號爐停爐45天，明年4月16日到6月15日1、2號均停爐62天，屆時垃圾處理恐負荷不及，對此，環保局表示，屆時將調配桃園生質能中心熱處理單元及區域協作方式因應。
-&lt;p&gt;
-&lt;/p&gt;
+      <t xml:space="preserve">&lt;p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園生質能中心進度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:&lt;br&gt;
+ &lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4403033"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/08/21: &lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園生質能中心營運一延再延</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>環保局：焚化爐每日處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噸垃圾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台灣各縣市頻傳垃圾燒不完問題，桃園市人口持續正成長，也面臨家戶垃圾增加問題，第二座焚化廠桃園生質能中心，正式營運期程一延再延，憂心發生垃圾處理危機；桃市府環保局表示，生質能中心厭氧消化處理仍在養菌階段，但熱處理單元（焚化爐）每日已可處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">噸垃圾，包括龍潭店子湖垃圾掩埋場等地的垃圾已開始進行去化。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市多處垃圾掩埋場容量已達飽和，除了欣榮焚化爐，透過促參方式在觀音區興建桃園生質能中心，包含熱處理單元、厭氧發酵單元及固化掩埋單元，但厭氧發酵養菌遲遲未成功，導致正式營運期程一延再延，地方憂心衍生垃圾問題；桃園市審計處報告亦指出，桃園市一般廢棄物產生量持續增加，但桃市一般廢棄物妥善處理率，從前年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>89.11%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>到去年雖增至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>92.10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，與其他五都相比仍是最低，垃圾暫存量仍待去化。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>環保局表示，生質能中心熱處理單元的試運轉無太大問題，目前每日已可處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噸垃圾，並進行一般、事業廢棄物配比測試，包括龍潭店子湖掩埋場暫置垃圾已開始進行去化，只是厭氧消化處理的部分，目前仍在進行菌種馴化，待完成後才可發給相關許可證照正式營運，屆時熱處理單元每年可處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噸、平均最高每日可達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>660</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>噸。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>另，欣榮焚化廠爐體已逾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年，即將要進行爐體更新等整改工程，今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日至明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號爐停爐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>天、明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號爐停爐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>天，明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號均停爐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>天，屆時垃圾處理恐負荷不及，對此，環保局表示，屆時將調配桃園生質能中心熱處理單元及區域協作方式因應。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 &lt;/p&gt;
 &lt;p&gt;&lt;a href="https://style.yahoo.com.tw/%E5%A4%A7%E5%9F%94%E8%BD%89%E9%81%8B%E7%AB%99%E5%9E%83%E5%9C%BE%E7%88%86%E9%87%8F-%E5%B1%85%E6%B0%91%E6%8A%97%E8%AD%B0-201000840.html"&gt;</t>
     </r>
@@ -9294,7 +9996,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>中時新聞網 2022/01/29&lt;/a&gt; &lt;/p&gt;: &lt;p&gt;大埔轉運站垃圾爆量 居民抗議 &lt;p&gt;過去轉運站多暫置龜山區域垃圾，但這幾個月接受來自桃園市區、大檜溪、大樹林、埔仔等地垃圾，氣味飄散頻繁，連過年將至，垃圾依然堆積如山。他說，原本以為該轉運站只有龜山的垃圾，大家體諒，但因垃圾清運量不足，需堆放其他區域垃圾，曝曬腐臭味飄散，要求市府加強轉運量能，將堆置已久的垃圾送往焚化爐。&lt;/p&gt;
+      <t>中時新聞網 2022/01/29&lt;/a&gt; :大埔轉運站垃圾爆量 居民抗議 &lt;br&gt;過去轉運站多暫置龜山區域垃圾，但這幾個月接受來自桃園市區、大檜溪、大樹林、埔仔等地垃圾，氣味飄散頻繁，連過年將至，垃圾依然堆積如山。他說，原本以為該轉運站只有龜山的垃圾，大家體諒，但因垃圾清運量不足，需堆放其他區域垃圾，曝曬腐臭味飄散，要求市府加強轉運量能，將堆置已久的垃圾送往焚化爐。&lt;/p&gt;
 &lt;p&gt;　居民說，垃圾及廚餘的惡臭味飄至龜山區文青里、文化里、舊路里、樂善里等4里，讓民眾相當不舒服，尤其太陽一出，惡臭味更四散，希望市府年後盡速評估解決方案。&lt;/p&gt; &lt;p&gt;環保局也說，生質能中心正式運轉在即，將再通盤規畫各區垃圾清運路線，降低各區垃圾暫置情形，並可逐步消化掩埋場垃圾以利後續活化處理。&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10018,10 +10720,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F373C-D529-F341-A623-4DFE8CE23BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F15C28E-90E3-5B49-BC35-6FDE5CA61840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="218">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10000,6 +10000,13 @@
 &lt;p&gt;　居民說，垃圾及廚餘的惡臭味飄至龜山區文青里、文化里、舊路里、樂善里等4里，讓民眾相當不舒服，尤其太陽一出，惡臭味更四散，希望市府年後盡速評估解決方案。&lt;/p&gt; &lt;p&gt;環保局也說，生質能中心正式運轉在即，將再通盤規畫各區垃圾清運路線，降低各區垃圾暫置情形，並可逐步消化掩埋場垃圾以利後續活化處理。&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6579645202162891/"&gt;FB 謝嘉仁里長 2023/11/03 &lt;/a&gt; 文青市民活動中心-地方說明會&lt;br&gt;
+日期：112/11/08 (三) 下午 14:00～16:00&lt;br&gt;
+地點：文青水園水資源回收中心102會議室　(桃園市龜山區文青路383號) &lt;br&gt;
+&lt;a href="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-file/CON-09-planning.pdf"&gt;文青活動中心 說明文件&lt;/a&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10720,10 +10727,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -11429,7 +11436,9 @@
       <c r="I24" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F15C28E-90E3-5B49-BC35-6FDE5CA61840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD67F0F1-B88D-0B4D-A311-59E1D49AA2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -5938,39 +5938,6 @@
     <t>CON-01</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>幼兒園預計2023/7月/18日完工、國小部2023/11/19日完工,。2023/9月招收4班小一, 暫用幼兒園教室。文青國中小校舍工程預計 2024/02/09 完成。2022/8月&lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://reiso.tycg.gov.tw/detail/8da5e917-bad3-403d-9d7a-aaf93293d83e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"&gt; 完成 10.94% &lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>2024/02/09</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -10006,6 +9973,240 @@
 日期：112/11/08 (三) 下午 14:00～16:00&lt;br&gt;
 地點：文青水園水資源回收中心102會議室　(桃園市龜山區文青路383號) &lt;br&gt;
 &lt;a href="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-file/CON-09-planning.pdf"&gt;文青活動中心 說明文件&lt;/a&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;p&gt;幼兒園預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日完工、國小部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/11/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日完工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班小一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>暫用幼兒園教室。文青國中小校舍工程預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2024/02/09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022/8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://reiso.tycg.gov.tw/detail/8da5e917-bad3-403d-9d7a-aaf93293d83e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10.94% &lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;桃園市立文青國民中小學二期校舍新建統包工程 ; 招標金額: 557,021,659 ; 招標日期: 2023-10-26 ; 決標日期: 2023-10-26 ;  運動場將包含在二期工程內
+&lt;/p&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10727,10 +10928,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -11032,10 +11233,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -11052,22 +11253,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -11084,10 +11285,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -11096,10 +11297,10 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="144">
@@ -11121,7 +11322,7 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>168</v>
@@ -11145,7 +11346,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -11154,15 +11355,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>57</v>
@@ -11207,7 +11408,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -11219,7 +11420,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -11431,13 +11632,13 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>121</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
@@ -11464,7 +11665,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -11485,19 +11686,19 @@
         <v>129</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
@@ -11519,7 +11720,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>134</v>
@@ -11592,7 +11793,7 @@
         <v>145</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>146</v>
@@ -11679,10 +11880,10 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -11736,7 +11937,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>173</v>
@@ -11754,10 +11955,10 @@
         <v>176</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -11767,24 +11968,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -11792,40 +11993,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C38" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>187</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD67F0F1-B88D-0B4D-A311-59E1D49AA2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF7277-8CA8-F943-BBE9-B05955CC299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="219">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5942,35 +5942,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h5&gt;文青國中小&lt;/h5&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;p&gt;
-文青國中小學正在籌備中：&lt;a href="https://www.facebook.com/%E6%96%87%E9%9D%92%E5%9C%8B%E4%B8%AD%E5%B0%8F%E7%B1%8C%E5%82%99%E8%99%95-305945223529559/"&gt;籌備處&lt;/a&gt;設在大埔國小辦公室。
-&lt;/p&gt;
-&lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5223653741095384/"&gt;文青國中小籌備處 公告&lt;/a&gt;
-文青國民中小學新設校工程 ( 幼兒園 12 間,國小部 22 間含周邊附屬設施 )，2021 年 12 月 24 日決標，111 年 3 月 1 日開工，國小期 570 日曆天，幼兒園工期 450日曆天，依上述期程推估完工日分別 2023 年 10 月 9 日及 112 年 6 月 9 日 : 112 學年度起逐年招生幼兒園及小部一年級 4班，國小部教室倘未能提早完工，將彈性運用幼兒園園舍上課，截至 2022 年 8 月 22 日工程進度14.553%，超前4.21%。
-&lt;/p&gt;
-&lt;p&gt;文桃路增設文青國中小學，招收國中、國小各24班，並有7班幼兒園，幼兒園預計&lt;del&gt;2021&lt;/del&gt;年學年度招生，國小則預計&lt;del&gt;2022&lt;/del&gt;&amp;nbsp; 2023 ? 年學年度招生，將著重雙語教學，並設置音樂班。
-同時與鄰近的體育大學、長庚大學、銘傳大學等大專院校合作，結合教學資源推動生態、資訊教育等機會。
-&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://www.chinatimes.com/newspapers/20220110000428-260107?chdtv&amp;fbclid=IwAR3vn5IoGWKfORjrqRdsCICVyK2JcmVqi4F8PljBe6yEk4pqD9Ztuo5qtsE"&gt;中時新聞網 2022/02/10&lt;/a&gt;文青國中小終於在2021/12/27日決標，將在這月底動工，幼兒園預計2023年4月30日完工、同年8月31日國小部完工。文青國中小幼兒園校舍規畫12間、國小校舍22間。學校規畫建置國小22班、國中12班，並預留12個班級的建置量體，將來可視學生數量彈性規畫新校舍，總計可招收1392名學生。
-&lt;/p&gt;
-&lt;p&gt;文青國中小預定地面積約4公頃，校地內有約1公頃的滯洪池，可規劃為學校的生態池，預計興建幼兒園、國小、國中、意象大樓及體育館等5棟校舍，其中幼幼班招收60人、混齡班3班招收90人，國小每年級招收4班，每班29人，國中每年級招收8班，預計招收720人。
-&lt;/p&gt;
-&lt;p&gt;2022/04/01: &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/4864143740379721/"&gt;鄭文燦臉書&lt;/a&gt;:
-文青國中小動工！預計112年9月招收小一生。市府籌設 文青國民中小學 及附設幼兒園，校地面積約4公頃，全案分三期施作，預計明（112）年6月優先完成幼兒園校舍、10月完成國小校舍，部分幼兒園教室將先作為國小使用，#明年9月招收4班國小一年級新生入學。&lt;br&gt;&lt;br&gt;
-針對周邊幼兒園及國小的就學需求，市府積極與教育部進行專案協商爭取補助經費，也獲得中央50%的經費支持。目前市府已完成附近 樂善國小校舍增建，增加入學班級，並陸續設立#文德非營利幼兒園、文欣國小附設幼兒園。文青國小及附設幼兒園也會在今年完成教師遴選及校務規劃事宜，做好硬體建設及軟體籌備的工作，迎接明年9月招收新生，也紓解周邊學校的入學壓力。
-&lt;/p&gt;
-&lt;p&gt;文青國中小學將以雙語、創新、智慧等三大主題作為學校的定位，以類似科學園區實驗學校的形式，實現新學校的特色夢想，以優質的教學品質，成為龜山坪頂地區教育的領航學校，讓孩子快樂學習。
-&lt;/p&gt;
-&lt;p&gt;桃園市府 市政新聞 2020/01/06 &lt;a href="https://news.tycg.gov.tw/home.jsp?id=2&amp;parentpath=&amp;mcustomize=news_view.jsp&amp;dataserno=202001060003&amp;aplistdn=ou=news,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y"&gt;新設大崗高中採分階段規劃&lt;/a&gt;
-鄭市長指出，針對龜山區坪頂地區設置高中計畫，綜合各方意見提出兩個主要構想方案，提案一：大崗國中就地直接改制為大崗高中，但缺點為校地不太足以容納國、高中生同時使用；提案二：坪頂地區大崗國中旁文高三用地為「林口特定區都市計畫」之學校用地成立大崗高中，土地產權正透過容積移轉作業陸續取得，預計分階段進行設校規劃，亦為目前優先採行方向，新建工程以明（110）年底完成規劃設計為限，期間若土地取得有困難，則啟動評估提案一，也就是讓大崗國中就地改制完全中學的可行性。
-&lt;/p&gt;
-&lt;p&gt;早期教育局曾研議在體育大學附設實驗高中的可行性，教育局長林正峰2020/08/26強調，坪頂地區增設高中問題談了二十幾年，市府指派的坪頂高中設校籌備處主任（校長）未通過校長遴聘，派任迄今也未認真推動設校，坐領乾薪還有餘力與其前任學校同事訴訟打官司，&lt;span class="text-danger"&gt;對設校不抱太多期待&lt;/span&gt;。鑑於這幾年更因該地區人口成長快速，為確保並解決該地區學子就讀高中問題，建議市府優先推動大崗國中改制為完全中學。
-&lt;/p&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;p&gt;2021/10/04 牛煦庭議會質詢: 文青國中小招標進度，新工處回應因應第一次流標，府內已檢討完畢，2021/10月將再招標。教育局長也當場承諾112年8月的招生計畫不變。需議員們列入高風險並加強監督的項目。
 &lt;/p&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10206,6 +10177,1797 @@
       <t xml:space="preserve"> 10.94% &lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;桃園市立文青國民中小學二期校舍新建統包工程 ; 招標金額: 557,021,659 ; 招標日期: 2023-10-26 ; 決標日期: 2023-10-26 ;  運動場將包含在二期工程內
 &lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4億</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-02.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小學正在籌備中：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="https://www.facebook.com/%E6%96%87%E9%9D%92%E5%9C%8B%E4%B8%AD%E5%B0%8F%E7%B1%8C%E5%82%99%E8%99%95-305945223529559/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>籌備處</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">設在大埔國小辦公室。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5223653741095384/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小籌備處</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國民中小學新設校工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幼兒園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國小部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 22 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間含周邊附屬設施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日決標，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">111 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日開工，國小期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 570 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日曆天，幼兒園工期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日曆天，依上述期程推估完工日分別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 112 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : 112 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學年度起逐年招生幼兒園及小部一年級</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，國小部教室倘未能提早完工，將彈性運用幼兒園園舍上課，截至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 22 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日工程進度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>14.553%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，超前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文桃路增設文青國中小學，招收國中、國小各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，並有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班幼兒園，幼兒園預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;del&gt;2021&lt;/del&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年學年度招生，國小則預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;del&gt;2022&lt;/del&gt;&amp;nbsp; 2023 ? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年學年度招生，將著重雙語教學，並設置音樂班。
+同時與鄰近的體育大學、長庚大學、銘傳大學等大專院校合作，結合教學資源推動生態、資訊教育等機會。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://www.chinatimes.com/newspapers/20220110000428-260107?chdtv&amp;fbclid=IwAR3vn5IoGWKfORjrqRdsCICVyK2JcmVqi4F8PljBe6yEk4pqD9Ztuo5qtsE"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中時新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022/02/10&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小終於在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2021/12/27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日決標，將在這月底動工，幼兒園預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日完工、同年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日國小部完工。文青國中小幼兒園校舍規畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間、國小校舍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間。學校規畫建置國小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班、國中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，並預留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個班級的建置量體，將來可視學生數量彈性規畫新校舍，總計可招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">名學生。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小預定地面積約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃，校地內有約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃的滯洪池，可規劃為學校的生態池，預計興建幼兒園、國小、國中、意象大樓及體育館等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>棟校舍，其中幼幼班招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人、混齡班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人，國小每年級招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，每班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人，國中每年級招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，預計招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>720</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">人。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;2022/04/01: &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/4864143740379721/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄭文燦臉書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小動工！預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月招收小一生。市府籌設</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國民中小學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及附設幼兒園，校地面積約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃，全案分三期施作，預計明（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月優先完成幼兒園校舍、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月完成國小校舍，部分幼兒園教室將先作為國小使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班國小一年級新生入學。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>針對周邊幼兒園及國小的就學需求，市府積極與教育部進行專案協商爭取補助經費，也獲得中央</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的經費支持。目前市府已完成附近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樂善國小校舍增建，增加入學班級，並陸續設立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文德非營利幼兒園、文欣國小附設幼兒園。文青國小及附設幼兒園也會在今年完成教師遴選及校務規劃事宜，做好硬體建設及軟體籌備的工作，迎接明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月招收新生，也紓解周邊學校的入學壓力。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青國中小學將以雙語、創新、智慧等三大主題作為學校的定位，以類似科學園區實驗學校的形式，實現新學校的特色夢想，以優質的教學品質，成為龜山坪頂地區教育的領航學校，讓孩子快樂學習。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市府</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>市政新聞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2020/01/06 &lt;a href="https://news.tycg.gov.tw/home.jsp?id=2&amp;parentpath=&amp;mcustomize=news_view.jsp&amp;dataserno=202001060003&amp;aplistdn=ou=news,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新設大崗高中採分階段規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄭市長指出，針對龜山區坪頂地區設置高中計畫，綜合各方意見提出兩個主要構想方案，提案一：大崗國中就地直接改制為大崗高中，但缺點為校地不太足以容納國、高中生同時使用；提案二：坪頂地區大崗國中旁文高三用地為「林口特定區都市計畫」之學校用地成立大崗高中，土地產權正透過容積移轉作業陸續取得，預計分階段進行設校規劃，亦為目前優先採行方向，新建工程以明（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">）年底完成規劃設計為限，期間若土地取得有困難，則啟動評估提案一，也就是讓大崗國中就地改制完全中學的可行性。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>早期教育局曾研議在體育大學附設實驗高中的可行性，教育局長林正峰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2020/08/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強調，坪頂地區增設高中問題談了二十幾年，市府指派的坪頂高中設校籌備處主任（校長）未通過校長遴聘，派任迄今也未認真推動設校，坐領乾薪還有餘力與其前任學校同事訴訟打官司，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span class="text-danger"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對設校不抱太多期待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。鑑於這幾年更因該地區人口成長快速，為確保並解決該地區學子就讀高中問題，建議市府優先推動大崗國中改制為完全中學。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10928,10 +12690,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -11233,10 +12995,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -11253,22 +13015,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -11285,10 +13047,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -11297,10 +13059,10 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="144">
@@ -11322,7 +13084,7 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>168</v>
@@ -11346,7 +13108,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -11355,15 +13117,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>57</v>
@@ -11408,7 +13170,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -11420,7 +13182,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -11632,13 +13394,13 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>121</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
@@ -11665,7 +13427,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -11686,19 +13448,19 @@
         <v>129</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
@@ -11720,7 +13482,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>134</v>
@@ -11793,7 +13555,7 @@
         <v>145</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>146</v>
@@ -11880,10 +13642,10 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -11937,7 +13699,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>173</v>
@@ -11955,37 +13717,39 @@
         <v>176</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -11993,40 +13757,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C38" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF7277-8CA8-F943-BBE9-B05955CC299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D40FAF-98DB-F142-867E-52240E02025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -10213,6 +10213,7 @@
       </rPr>
       <t>&lt;/h5&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-02.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-03.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="</t>
     </r>
     <r>
@@ -12690,10 +12691,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D40FAF-98DB-F142-867E-52240E02025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A8B67-D242-E741-BD40-0BEE97D7A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -5830,72 +5830,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園市歷史建築龜山樟腦寮協和磚廠調查研究暨修復再利用計畫 &lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://culture.tycg.gov.tw/home.jsp?id=93&amp;parentpath=0,1&amp;mcustomize=activityhot_view.jsp&amp;dataserno=202207120001&amp;aplistdn=ou=data,ou=activityhot,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;2022/08/10 說明會&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2022取得道路用地, 道路工程 2022年底發包 2025年完工; 歷史建築修復將於道路工程完工後啟動, 預計2026年開放</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;p&gt;</t>
     </r>
     <r>
@@ -8532,574 +8466,6 @@
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-12.jpg" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;
  &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-38-14.jpg" alt="工程"  sizes="sm:100vw md:150vw lg:200vw" /&gt; &lt;br&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>重劃區大小事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>四位龜山區議員聯合質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變一道路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文學路地下化打通至文化一路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023/10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8~10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個月。預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024/9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成設計，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年底至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年初動工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>.
-&lt;/p&gt;
-&lt;p&gt;
-2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聯合新聞網</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>原規劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樟腦寮磚窯廠遺址將保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>示意圖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-11.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
- &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-12.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
-&lt;/p&gt;
-&lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 陳雅倫及牛煦庭議員質詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&gt;文青路/青山路拓寬案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>s文學路（變一）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-希望市府不要忘記，變一道路變更設計期程，從上個會期5月份說要變更設計，到現在仍沒有看到方案。
-文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
-既然工務局能在今年7月規劃、今年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>0月就執行文青、青山拓寬案，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#那早已編列好預算的變一到底在等什麼？
-既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，#土地早已取得的文青市民活動中心是否也可以使用？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>7成長上萬人，先花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>0萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/P&gt;
-&lt;p&gt;2021/10/05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 陳雅倫議員質詢：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- &lt;/p&gt;
- &lt;p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- &lt;/p&gt;
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11968,6 +11334,654 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6596188307175247/?mibextid=uJjRxr"&gt;FB 2023/11/08&lt;/a&gt;龜山樟腦寮協和磚廠」變更修復再利用計畫暨結構安全檢測評估，2023/11/08日公告決標。&lt;br&gt;
+桃園市歷史建築龜山樟腦寮協和磚廠調查研究暨修復再利用計畫 &lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://culture.tycg.gov.tw/home.jsp?id=93&amp;parentpath=0,1&amp;mcustomize=activityhot_view.jsp&amp;dataserno=202207120001&amp;aplistdn=ou=data,ou=activityhot,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;2022/08/10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">說明會&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>取得道路用地, 道路工程 2022年底發包 2025年完工; 歷史建築修復將於道路工程完工後啟動, 預計2026年開放</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;&lt;a href="https://today.line.me/tw/v2/article/Ggl0nW8"&gt;桃園電子報 2023/11/07&lt;/a&gt;: 陳雅倫要求加速龜山變一道路工程 &lt;br&gt;
+龜山A7合宜住宅人口稠密，成長迅速，急需一條聯外道路，也就是已編列預算的變一工程。然而工務局長汪在宙卻表示，變一原先T字型的設計，因為高架改地下的關係，只剩下一字型的設計，僅剩文學路打通，樂善一路採預留方式，且期程恐延宕至115、116年。&lt;br&gt;陳雅倫強調，樂善一路非常重要，是未來A7合宜住宅住戶通往文青國中小的重要道路，不宜刪掉，並要求加速變一道路以及儘快取得磚窯公園用地，並要求張善政提出開闢磚窯公園的期程。
+&lt;/p&gt;
+&lt;p&gt; &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6537754056352006/?mibextid=uyAsYr"&gt;FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重劃區大小事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/23&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>四位龜山區議員聯合質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變一道路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文學路地下化打通至文化一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月已完成基本設計，接下來為細部設計。因地下化工程臨近機場捷運用地，需提額外審增加設計時程的不確定性。細部設計的整個時程估計約需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月。預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成設計，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年底至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年初動工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.
+&lt;/p&gt;
+&lt;p&gt;
+2023/10/24 &lt;a href="https://udn.com/news/story/7323/7526316"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯合新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字高架道路為保存歷史建築龜山樟腦寮磚窯廠，改成地下車道穿越方式辦理，目前設計中，預定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年動工，並由文化局同步進行磚窯廠修復、煙囪補強，以及未來歷史建築紀念園區規劃工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-03.jpeg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樟腦寮磚窯廠遺址將保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>示意圖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-11.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-13-12.jpg" class="img-fluid float-right m-1" style="width:600px"&gt;&lt;br&gt;
+&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 陳雅倫及牛煦庭議員質詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/612375144201071/?mibextid=oMANbw"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&gt;文青路/青山路拓寬案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>s文學路（變一）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/10/19&lt;/a&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+希望市府不要忘記，變一道路變更設計期程，從上個會期5月份說要變更設計，到現在仍沒有看到方案。
+文青市民活動中心也沒編預算、滯洪池公園預算被高層刪除後又改口說要用超徵稅額支應。
+既然工務局能在今年7月規劃、今年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0月就執行文青、青山拓寬案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#那早已編列好預算的變一到底在等什麼？
+既然滯洪池公園可以死灰復燃使用超徵稅額，那麼，#土地早已取得的文青市民活動中心是否也可以使用？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7成長上萬人，先花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0萬、先改善壅塞，我肯定！但千萬不要忘了已編列好上億預算的變一道路、還有籌劃已久的市民活動中心！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/P&gt;
+&lt;p&gt;2021/10/05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 陳雅倫議員質詢：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>7重劃區文學路、樂善一路等瓶頸道路開通工程，聯外道路已於今年3月獲得內政部同意補助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3億元的開發經費，希望市府能加速用地取得，早日開工，讓文青里民眾不再飽受塞車之苦。工務局長賴宇亭表示，目前桃園市政府工務局已完成地價查估，正與地主進行協議價購中，不過為了盡快解決文青里聯外交通打結的困境，工務局也已經同步辦理道路開闢的細部設計規畫，年底即可完成，一切只待用地取得，即可施工。而工程範圍內有文化局9月剛通過的歷史建築「龜山樟腦寮協和磚廠」，工務局長則表示設計時就採雙贏方案同步考量避開文化資產，開路不會因此發生延期狀況。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ &lt;/p&gt;
+ &lt;p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&gt;文青里目前只有文青路作為唯一的聯外道路，但文青里建案及遷入人口數不斷成長，原本的車輛加上青山路匯集而來的車潮，加重該區交通負擔。我也建議從青山路就開始作分流，打通一條連接到振興路的引流道，讓青山路的車潮不用再進入文青里的商業區、住宅區，可以直通華亞科技園區，縮短民眾的上下班通勤時間。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ &lt;/p&gt;
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12691,10 +12705,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -12996,10 +13010,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -13016,22 +13030,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -13048,10 +13062,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -13060,13 +13074,13 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="144">
+    <row r="13" spans="1:10" ht="242">
       <c r="A13" s="10" t="s">
         <v>165</v>
       </c>
@@ -13077,7 +13091,7 @@
         <v>166</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13085,10 +13099,10 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -13109,7 +13123,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -13118,15 +13132,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>57</v>
@@ -13171,7 +13185,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -13183,7 +13197,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -13395,13 +13409,13 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>121</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
@@ -13428,7 +13442,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -13449,19 +13463,19 @@
         <v>129</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
@@ -13483,7 +13497,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>134</v>
@@ -13556,7 +13570,7 @@
         <v>145</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>146</v>
@@ -13643,10 +13657,10 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -13681,50 +13695,50 @@
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13733,24 +13747,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -13758,40 +13772,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>185</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A8B67-D242-E741-BD40-0BEE97D7A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D9C06-D92E-7A46-A356-16918FA36B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -8565,11 +8565,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
-2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -11984,6 +11979,13 @@
  &lt;/p&gt;
 </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園電子報 2023/11/07&lt;a href="https://tyenews.com/2023/11/450256/?fbclid=IwAR1q_0tiILDQRKdSUzYvNcunhaJwh3pVbK3sIy3T3oU24D8xG4tn12eiU44"&gt;陳雅倫關心桃園「垃圾危機」&lt;/a&gt; &lt;br&gt;
+針對大埔轉運站異味問題，桃園市環保局表示，大埔轉運站主要為龜山區夜間清運垃圾暫置轉運使用，惟因欣榮焚化廠進入整改期間，處理量能不足，故亦協助提供桃園區鄰近龜山之部份垃圾暫置，並隨即轉運至焚化廠。為改善垃圾暫置產生的異味，環保局已發包規劃改善大埔轉運站硬體設施，預計明(113)年7月起動工，預估工期12個月。現階段則先透過加強轉運，以暫置隔日全部轉運為目標，並搭配每日加強噴灑消毒劑及除臭劑來改善異味。未來欣榮焚化廠完成整改及觀音生質能中心正式營運後，將可大幅減少轉運垃圾之暫置時間，並在焚化廠正常運作之前題下，以轉運龜山區垃圾為原則。&lt;br&gt;
+自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12270,7 +12272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12386,6 +12388,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12705,10 +12710,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13077,7 +13082,7 @@
         <v>197</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
@@ -13091,7 +13096,7 @@
         <v>166</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13415,7 +13420,7 @@
         <v>121</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
@@ -13657,10 +13662,10 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="J33" s="13" t="s">
         <v>211</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -13732,13 +13737,13 @@
         <v>175</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>176</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13747,7 +13752,7 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>177</v>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D9C06-D92E-7A46-A356-16918FA36B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556BCA53-7A58-7647-A4A5-CEF13223C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -2200,356 +2200,6 @@
     <t>包含文青里活動中心及警察派出所, 2022/05/25 完成招標。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;h5 &gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青活動中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;p&gt;將作為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>合宜住宅區里民活動中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>派出所等規劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, &lt;a
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>href="http://web.pcc.gov.tw/tps/tpam/main/tps/tpam/tpam_tender_detail.do?searchMode=common&amp;scope=F&amp;primaryKey=71987279&amp;area=history"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>招標公告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;
-&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>自由時報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/01/14 &lt;a
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>href="https://news.ltn.com.tw/news/Taoyuan/paper/1562706?fbclid=IwAR3-x-dCAOudYws25myWuFaA25hTU5gFcni9kYHN4U9hWPtqchHaCdLXKcg"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青市民活動中心
-	居民批設計陽春</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
-&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;桃園市政府規劃在龜山區文青路旁的善捷段二六九地號土地，新建兩層樓的文青市民活動中心，配置數位學習體驗區、社區長照據點、研習教室等，昨在龜山區公所舉辦新建工程地方說明會時，居民質疑沒有配置公托中心、停車場等，過於「陽春」，也不尊重居民需求；龜山區長王雅芝回應，將把居民意見轉請相關單位評估是否納入。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;p&gt;面積約三千三百平方公尺的善捷段二六九地號土地，保留龜山警分局的派出所預定地後，以一六九七平方公尺面積作為文青市民活動中心的基地，預計斥資二九七</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>萬元新建兩層樓建物，包括一樓廣場有溜滑梯、階梯座席，室內有社區長照據點、社區廚房，二樓室內有閱報區、研習教室，室外有階梯座席，頂樓有舞台、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>PU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">軟墊活動區等。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;p&gt;與會文青里民反映，前述設計內容與其他市民活動中心相比實在太陽春；文青里長謝嘉仁認為，派出所預定地將新建五層樓建物，建坪達一二五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>坪，但文青市民活動中心兩層樓的建坪僅二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>○○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">坪，顯有不足。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;多位議員出席建議市府考慮將派出所改納入善捷段社會住宅或移至他處，讓二六九號土地能新建更大規模的綜合社福大樓，配置公托中心、微型運動場、圖書館、停車空間等，提供更多服務。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>善捷段社會住宅</t>
   </si>
   <si>
@@ -11987,6 +11637,389 @@
 自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
 2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5 &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青活動中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+&lt;p&gt;
+預計112年度委新建工程處辦理工程作業, 興建設施如下:
+&lt;ol&gt;
+&lt;li&gt;派出所:1棟3層,每層面積200坪.地上層建坪合計為600坪。&lt;/li&gt;
+&lt;li&gt;幼兒園與市民活動中心:&lt;/li&gt;
+&lt;ol&gt;
+&lt;li&gt;幼兒園:1棟3層,使用1F、2F樓層·每層面積250坪;&lt;/li&gt;
+&lt;li&gt;市民活動中心:使用3F樓層.該樓層面積200坪, 地上層建坪合計為700坪。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;li&gt;B1停車場:基礎聯合開挖.共用地下停車場1層400坪。&lt;/li&gt;
+&lt;li&gt;汽車停車位合計27個,機車停車位合計59個。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將作為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>合宜住宅區里民活動中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>派出所等規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="http://web.pcc.gov.tw/tps/tpam/main/tps/tpam/tpam_tender_detail.do?searchMode=common&amp;scope=F&amp;primaryKey=71987279&amp;area=history"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>招標公告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/01/14 &lt;a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>href="https://news.ltn.com.tw/news/Taoyuan/paper/1562706?fbclid=IwAR3-x-dCAOudYws25myWuFaA25hTU5gFcni9kYHN4U9hWPtqchHaCdLXKcg"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青市民活動中心
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>居民批設計陽春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/a&gt;:
+&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">桃園市政府規劃在龜山區文青路旁的善捷段二六九地號土地，新建兩層樓的文青市民活動中心，配置數位學習體驗區、社區長照據點、研習教室等，昨在龜山區公所舉辦新建工程地方說明會時，居民質疑沒有配置公托中心、停車場等，過於「陽春」，也不尊重居民需求；龜山區長王雅芝回應，將把居民意見轉請相關單位評估是否納入。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>面積約三千三百平方公尺的善捷段二六九地號土地，保留龜山警分局的派出所預定地後，以一六九七平方公尺面積作為文青市民活動中心的基地，預計斥資二九七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬元新建兩層樓建物，包括一樓廣場有溜滑梯、階梯座席，室內有社區長照據點、社區廚房，二樓室內有閱報區、研習教室，室外有階梯座席，頂樓有舞台、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>PU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">軟墊活動區等。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與會文青里民反映，前述設計內容與其他市民活動中心相比實在太陽春；文青里長謝嘉仁認為，派出所預定地將新建五層樓建物，建坪達一二五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>坪，但文青市民活動中心兩層樓的建坪僅二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>○○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">坪，顯有不足。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">多位議員出席建議市府考慮將派出所改納入善捷段社會住宅或移至他處，讓二六九號土地能新建更大規模的綜合社福大樓，配置公托中心、微型運動場、圖書館、停車空間等，提供更多服務。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12710,10 +12743,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13015,10 +13048,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -13035,22 +13068,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -13067,10 +13100,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -13079,24 +13112,24 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
       <c r="A13" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13104,10 +13137,10 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -13128,7 +13161,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -13137,15 +13170,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>57</v>
@@ -13190,7 +13223,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -13202,7 +13235,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -13414,30 +13447,30 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -13447,54 +13480,54 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -13502,25 +13535,25 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="409.6">
       <c r="A28" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -13531,22 +13564,22 @@
         <v>93</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="51">
       <c r="A29" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -13557,49 +13590,49 @@
         <v>93</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="409.6">
       <c r="A30" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="F30" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="134">
       <c r="A31" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -13610,22 +13643,22 @@
         <v>93</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="112">
       <c r="A32" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -13636,22 +13669,22 @@
         <v>93</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="409.6">
       <c r="A33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -13662,30 +13695,30 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
       <c r="A34" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>16</v>
@@ -13694,56 +13727,56 @@
         <v>23</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="C36" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13752,24 +13785,24 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -13777,40 +13810,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="33" t="s">
+      <c r="D38" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556BCA53-7A58-7647-A4A5-CEF13223C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70F3C8-9CA7-D041-B7ED-74FCB008770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -9200,1794 +9200,6 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;h5&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/h5&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-02.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-03.jpeg" alt="文青國中小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;p&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小學正在籌備中：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a href="https://www.facebook.com/%E6%96%87%E9%9D%92%E5%9C%8B%E4%B8%AD%E5%B0%8F%E7%B1%8C%E5%82%99%E8%99%95-305945223529559/"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>籌備處</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">設在大埔國小辦公室。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5223653741095384/"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小籌備處</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國民中小學新設校工程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>幼兒園</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>間</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國小部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 22 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>間含周邊附屬設施</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日決標，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">111 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日開工，國小期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 570 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日曆天，幼兒園工期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 450</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日曆天，依上述期程推估完工日分別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 112 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : 112 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學年度起逐年招生幼兒園及小部一年級</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班，國小部教室倘未能提早完工，將彈性運用幼兒園園舍上課，截至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2022 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 22 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日工程進度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>14.553%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，超前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.21%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文桃路增設文青國中小學，招收國中、國小各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班，並有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班幼兒園，幼兒園預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;del&gt;2021&lt;/del&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年學年度招生，國小則預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;del&gt;2022&lt;/del&gt;&amp;nbsp; 2023 ? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">年學年度招生，將著重雙語教學，並設置音樂班。
-同時與鄰近的體育大學、長庚大學、銘傳大學等大專院校合作，結合教學資源推動生態、資訊教育等機會。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://www.chinatimes.com/newspapers/20220110000428-260107?chdtv&amp;fbclid=IwAR3vn5IoGWKfORjrqRdsCICVyK2JcmVqi4F8PljBe6yEk4pqD9Ztuo5qtsE"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中時新聞網</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2022/02/10&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小終於在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2021/12/27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日決標，將在這月底動工，幼兒園預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日完工、同年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日國小部完工。文青國中小幼兒園校舍規畫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>間、國小校舍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>間。學校規畫建置國小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班、國中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班，並預留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>個班級的建置量體，將來可視學生數量彈性規畫新校舍，總計可招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1392</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">名學生。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小預定地面積約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公頃，校地內有約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公頃的滯洪池，可規劃為學校的生態池，預計興建幼兒園、國小、國中、意象大樓及體育館等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>棟校舍，其中幼幼班招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人、混齡班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人，國小每年級招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班，每班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人，國中每年級招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班，預計招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>720</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">人。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;2022/04/01: &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/4864143740379721/"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄭文燦臉書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國中小動工！預計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月招收小一生。市府籌設</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文青國民中小學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及附設幼兒園，校地面積約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公頃，全案分三期施作，預計明（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>）年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月優先完成幼兒園校舍、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月完成國小校舍，部分幼兒園教室將先作為國小使用，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>明年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月招收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班國小一年級新生入學。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>針對周邊幼兒園及國小的就學需求，市府積極與教育部進行專案協商爭取補助經費，也獲得中央</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的經費支持。目前市府已完成附近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樂善國小校舍增建，增加入學班級，並陸續設立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>文德非營利幼兒園、文欣國小附設幼兒園。文青國小及附設幼兒園也會在今年完成教師遴選及校務規劃事宜，做好硬體建設及軟體籌備的工作，迎接明年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">月招收新生，也紓解周邊學校的入學壓力。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">文青國中小學將以雙語、創新、智慧等三大主題作為學校的定位，以類似科學園區實驗學校的形式，實現新學校的特色夢想，以優質的教學品質，成為龜山坪頂地區教育的領航學校，讓孩子快樂學習。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園市府</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>市政新聞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2020/01/06 &lt;a href="https://news.tycg.gov.tw/home.jsp?id=2&amp;parentpath=&amp;mcustomize=news_view.jsp&amp;dataserno=202001060003&amp;aplistdn=ou=news,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新設大崗高中採分階段規劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄭市長指出，針對龜山區坪頂地區設置高中計畫，綜合各方意見提出兩個主要構想方案，提案一：大崗國中就地直接改制為大崗高中，但缺點為校地不太足以容納國、高中生同時使用；提案二：坪頂地區大崗國中旁文高三用地為「林口特定區都市計畫」之學校用地成立大崗高中，土地產權正透過容積移轉作業陸續取得，預計分階段進行設校規劃，亦為目前優先採行方向，新建工程以明（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">）年底完成規劃設計為限，期間若土地取得有困難，則啟動評估提案一，也就是讓大崗國中就地改制完全中學的可行性。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/p&gt;
-&lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>早期教育局曾研議在體育大學附設實驗高中的可行性，教育局長林正峰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2020/08/26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強調，坪頂地區增設高中問題談了二十幾年，市府指派的坪頂高中設校籌備處主任（校長）未通過校長遴聘，派任迄今也未認真推動設校，坐領乾薪還有餘力與其前任學校同事訴訟打官司，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;span class="text-danger"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>對設校不抱太多期待</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。鑑於這幾年更因該地區人口成長快速，為確保並解決該地區學子就讀高中問題，建議市府優先推動大崗國中改制為完全中學。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt;
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="PMingLiU"/>
         <family val="1"/>
         <charset val="136"/>
@@ -12020,6 +10232,1794 @@
       <t>&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/h5&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-02.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-03.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-01-01.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;p&gt;
+&lt;a href="https://1.wcjps.tyc.edu.tw/index.php?fbclid=IwAR2lLV_md3V7ZB83kOmbEHYyHF-tJEiJZR773IUX-tPIOd3IR__2_Tw8uqM"&gt;文青國中小 網站&lt;/a&gt;, &lt;a href="https://www.facebook.com/p/%E6%A1%83%E5%9C%92%E5%B8%82%E6%96%87%E9%9D%92%E9%9D%9E%E7%87%9F%E5%88%A9%E5%B9%BC%E5%85%92%E5%9C%92-%E5%A7%94%E8%A8%97%E7%A4%BE%E5%9C%98%E6%B3%95%E4%BA%BA%E8%87%BA%E7%81%A3%E4%BA%9E%E6%B4%B2%E5%AD%B8%E5%89%8D%E6%95%99%E8%82%B2%E5%9F%B9%E8%A8%93%E5%8D%94%E6%9C%83%E8%BE%A6%E7%90%86-100092942253127/?paipv=0&amp;eav=AfYZEv5OVHGCPCTPlayODL_padX8xf0oMDQF-PhKXrocdLlhMMcCIRA1hSyIKFp7z04&amp;_rdr"&gt;文青非營利幼兒園 Facebook&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;2022/09/01 &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/5223653741095384/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小籌備處</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國民中小學新設校工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>幼兒園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國小部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 22 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間含周邊附屬設施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日決標，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">111 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日開工，國小期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 570 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日曆天，幼兒園工期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日曆天，依上述期程推估完工日分別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 112 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : 112 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學年度起逐年招生幼兒園及小部一年級</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，國小部教室倘未能提早完工，將彈性運用幼兒園園舍上課，截至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 22 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日工程進度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>14.553%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，超前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文桃路增設文青國中小學，招收國中、國小各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，並有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班幼兒園，幼兒園預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;del&gt;2021&lt;/del&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年學年度招生，國小則預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;del&gt;2022&lt;/del&gt;&amp;nbsp; 2023 ? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">年學年度招生，將著重雙語教學，並設置音樂班。
+同時與鄰近的體育大學、長庚大學、銘傳大學等大專院校合作，結合教學資源推動生態、資訊教育等機會。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://www.chinatimes.com/newspapers/20220110000428-260107?chdtv&amp;fbclid=IwAR3vn5IoGWKfORjrqRdsCICVyK2JcmVqi4F8PljBe6yEk4pqD9Ztuo5qtsE"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中時新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2022/02/10&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小終於在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2021/12/27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日決標，將在這月底動工，幼兒園預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日完工、同年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日國小部完工。文青國中小幼兒園校舍規畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間、國小校舍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>間。學校規畫建置國小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班、國中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，並預留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個班級的建置量體，將來可視學生數量彈性規畫新校舍，總計可招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">名學生。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小預定地面積約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃，校地內有約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃的滯洪池，可規劃為學校的生態池，預計興建幼兒園、國小、國中、意象大樓及體育館等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>棟校舍，其中幼幼班招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人、混齡班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人，國小每年級招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，每班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人，國中每年級招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班，預計招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>720</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">人。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;2022/04/01: &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/4864143740379721/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄭文燦臉書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國中小動工！預計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月招收小一生。市府籌設</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國民中小學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及附設幼兒園，校地面積約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃，全案分三期施作，預計明（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月優先完成幼兒園校舍、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月完成國小校舍，部分幼兒園教室將先作為國小使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月招收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>班國小一年級新生入學。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>針對周邊幼兒園及國小的就學需求，市府積極與教育部進行專案協商爭取補助經費，也獲得中央</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的經費支持。目前市府已完成附近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樂善國小校舍增建，增加入學班級，並陸續設立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文德非營利幼兒園、文欣國小附設幼兒園。文青國小及附設幼兒園也會在今年完成教師遴選及校務規劃事宜，做好硬體建設及軟體籌備的工作，迎接明年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">月招收新生，也紓解周邊學校的入學壓力。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">文青國中小學將以雙語、創新、智慧等三大主題作為學校的定位，以類似科學園區實驗學校的形式，實現新學校的特色夢想，以優質的教學品質，成為龜山坪頂地區教育的領航學校，讓孩子快樂學習。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市府</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>市政新聞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2020/01/06 &lt;a href="https://news.tycg.gov.tw/home.jsp?id=2&amp;parentpath=&amp;mcustomize=news_view.jsp&amp;dataserno=202001060003&amp;aplistdn=ou=news,ou=chinese,ou=ap_root,o=tycg,c=tw&amp;toolsflag=Y"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新設大崗高中採分階段規劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄭市長指出，針對龜山區坪頂地區設置高中計畫，綜合各方意見提出兩個主要構想方案，提案一：大崗國中就地直接改制為大崗高中，但缺點為校地不太足以容納國、高中生同時使用；提案二：坪頂地區大崗國中旁文高三用地為「林口特定區都市計畫」之學校用地成立大崗高中，土地產權正透過容積移轉作業陸續取得，預計分階段進行設校規劃，亦為目前優先採行方向，新建工程以明（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">）年底完成規劃設計為限，期間若土地取得有困難，則啟動評估提案一，也就是讓大崗國中就地改制完全中學的可行性。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>早期教育局曾研議在體育大學附設實驗高中的可行性，教育局長林正峰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2020/08/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強調，坪頂地區增設高中問題談了二十幾年，市府指派的坪頂高中設校籌備處主任（校長）未通過校長遴聘，派任迄今也未認真推動設校，坐領乾薪還有餘力與其前任學校同事訴訟打官司，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;span class="text-danger"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對設校不抱太多期待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。鑑於這幾年更因該地區人口成長快速，為確保並解決該地區學子就讀高中問題，建議市府優先推動大崗國中改制為完全中學。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/p&gt;
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12743,10 +12743,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13115,7 +13115,7 @@
         <v>196</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
@@ -13129,7 +13129,7 @@
         <v>165</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13450,7 +13450,7 @@
         <v>201</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>211</v>
@@ -13698,7 +13698,7 @@
         <v>210</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -13785,7 +13785,7 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>176</v>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70F3C8-9CA7-D041-B7ED-74FCB008770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9931BD-8C29-C34B-8F41-AFFF436D64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
@@ -5540,51 +5540,6 @@
     <t>市府用容積轉移已取得2.88公頃，還差0.12公頃，目前有地主不願意賣，還要再協調。</t>
   </si>
   <si>
-    <r>
-      <t>&lt;h5&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">大岡高中&lt;/h5&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;p&gt; &lt;a. href="https://www.chinatimes.com/realtimenews/20230325003929-260405?chdtv"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">中時新聞網 2023/03/25&lt;/a&gt;: 桃園大崗高中推動牛步化 用地擬從5公頃縮到3公頃&lt;br&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>龜山大坪頂地區人口激增，欠缺1所市立高中，在地方爭取下，「林口特定區都市計畫」的「文高三」催生出大崗高中，但面積4.68公頃、總計43筆土地，若以市價完整取得用地，經費高達60億元，前市府以容積移轉方式陸續持有3.1公頃、約66％，但仍有約1.5公頃尚未取得。&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>樂善國小舊校舍增班</t>
   </si>
   <si>
@@ -12020,6 +11975,154 @@
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h5&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大岡高中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h5&gt;
+&lt;p&gt;
+2023/11/09 日總質詢中教育局答覆大崗高中相關規劃如下：&lt;br&gt;
+規劃內容：
+教育局設施科科長鍾佳惠說，大崗高中目前尚在取得土地，預計113學年度成立籌備處，招收班級與類科初步規畫將設置普通科、商業經營科、國際貿易科、電子商務科等，每年級至少10班。
+&lt;br&gt;設校期程：
+鍾佳惠補充，大崗高中經校地檢討後將以2.7公頃面積辦理，由於目前仍有私人產權約0.8公頃，將以林口都計容積移轉代金支應，土地預計2024年起辦理估價、協議價購，預計於2026年底完成產權移轉過戶，校舍建置經費115年度配合設校進度逐年編列，預計於2030年完工。
+&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;p&gt; &lt;a. href="https://www.chinatimes.com/realtimenews/20230325003929-260405?chdtv"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中時新聞網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/03/25&lt;/a&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園大崗高中推動牛步化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>用地擬從</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃縮到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公頃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>龜山大坪頂地區人口激增，欠缺1所市立高中，在地方爭取下，「林口特定區都市計畫」的「文高三」催生出大崗高中，但面積4.68公頃、總計43筆土地，若以市價完整取得用地，經費高達60億元，前市府以容積移轉方式陸續持有3.1公頃、約66％，但仍有約1.5公頃尚未取得。&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12743,10 +12846,10 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -13048,10 +13151,10 @@
         <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -13068,22 +13171,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -13100,10 +13203,10 @@
         <v>67</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -13112,10 +13215,10 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
@@ -13129,7 +13232,7 @@
         <v>165</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13137,7 +13240,7 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>166</v>
@@ -13161,7 +13264,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -13170,15 +13273,15 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
       <c r="A15" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>57</v>
@@ -13223,7 +13326,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -13235,7 +13338,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -13447,13 +13550,13 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
@@ -13480,7 +13583,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J25" s="13"/>
     </row>
@@ -13501,19 +13604,19 @@
         <v>128</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>129</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
@@ -13535,7 +13638,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>133</v>
@@ -13608,7 +13711,7 @@
         <v>144</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>145</v>
@@ -13695,10 +13798,10 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
@@ -13752,7 +13855,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>171</v>
@@ -13770,13 +13873,13 @@
         <v>174</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13785,7 +13888,7 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>176</v>
@@ -13810,40 +13913,40 @@
         <v>53</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
       <c r="A38" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>173</v>
       </c>
       <c r="C38" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J38" s="34"/>
     </row>

--- a/data/constructions.xlsx
+++ b/data/constructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9931BD-8C29-C34B-8F41-AFFF436D64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3CD49-DE85-964F-B52C-E81E7F851548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{72365495-1938-144B-A25C-0102D0CB6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2086,32 +2086,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>此次工程包含壽山路丹鳳橋路口增設車道、一公里三百六十公尺處至一公里四百八十公尺處（1K+360至1K+480）路段改善，工程費約四千萬元，用地取得費得參考土地查諮價格與地上物拆遷補償費等結果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>4,000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>萬</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -12122,6 +12096,36 @@
       </rPr>
       <t>龜山大坪頂地區人口激增，欠缺1所市立高中，在地方爭取下，「林口特定區都市計畫」的「文高三」催生出大崗高中，但面積4.68公頃、總計43筆土地，若以市價完整取得用地，經費高達60億元，前市府以容積移轉方式陸續持有3.1公頃、約66％，但仍有約1.5公頃尚未取得。&lt;/p&gt;</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>4,600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://tw.news.yahoo.com/%E8%A1%8C%E8%BB%8A%E5%8B%95%E7%B7%9A%E6%9B%B4%E5%AE%89%E5%85%A8-%E6%96%B0%E8%8E%8A%E5%A3%BD%E5%B1%B1%E8%B7%AF%E7%93%B6%E9%A0%B8%E8%B7%AF%E5%8F%A3%E6%8B%93%E5%AF%AC%E5%AE%8C%E6%88%90-112341722.html"&gt;Yahoo!新聞 2023/11/11&lt;/a&gt;: 行車動線更安全 新莊壽山路瓶頸路口拓寬完成&lt;br&gt;
+整體工程自今年3月開工，已於10月31日完工
+ &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/CON-37-06.jpeg"  alt="壽山路拓寬6" sizes="sm:100vw md:150vw lg:200vw" /&gt;&lt;br&gt;
+&lt;/p&gt;
+&lt;p&gt;此次工程包含壽山路丹鳳橋路口增設車道、一公里三百六十公尺處至一公里四百八十公尺處（1K+360至1K+480）路段改善，工程費約四千萬元，用地取得費得參考土地查諮價格與地上物拆遷補償費等結果。&lt;/p&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12484,9 +12488,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12527,6 +12528,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12846,15 +12850,15 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="34" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="66" style="4" customWidth="1"/>
@@ -13150,11 +13154,11 @@
       <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>203</v>
+      <c r="I10" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6">
@@ -13171,22 +13175,22 @@
         <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>205</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6">
@@ -13202,11 +13206,11 @@
       <c r="D12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>188</v>
+      <c r="E12" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>88</v>
@@ -13215,24 +13219,24 @@
         <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="242">
       <c r="A13" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>112</v>
+        <v>162</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -13240,10 +13244,10 @@
         <v>88</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -13263,8 +13267,8 @@
       <c r="E14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>202</v>
+      <c r="F14" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
@@ -13273,17 +13277,17 @@
         <v>23</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6">
-      <c r="A15" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -13326,7 +13330,7 @@
         <v>81</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>75</v>
@@ -13338,7 +13342,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6">
@@ -13483,12 +13487,12 @@
       <c r="C22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
-        <v>109</v>
+      <c r="D22" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>75</v>
@@ -13496,29 +13500,29 @@
       <c r="H22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="26"/>
+      <c r="I22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="160">
       <c r="A23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="D23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>75</v>
@@ -13527,22 +13531,22 @@
         <v>76</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="409.6">
       <c r="A24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -13550,30 +13554,30 @@
         <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6">
       <c r="A25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
@@ -13583,54 +13587,54 @@
         <v>54</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="409.6">
       <c r="A26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="F26" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6">
       <c r="A27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -13638,25 +13642,25 @@
         <v>88</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="409.6">
       <c r="A28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -13667,22 +13671,22 @@
         <v>93</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="51">
       <c r="A29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -13693,49 +13697,49 @@
         <v>93</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="409.6">
       <c r="A30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="F30" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="134">
       <c r="A31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -13746,22 +13750,22 @@
         <v>93</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="112">
       <c r="A32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -13772,22 +13776,22 @@
         <v>93</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="409.6">
       <c r="A33" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -13798,30 +13802,30 @@
         <v>93</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="167">
       <c r="A34" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>16</v>
@@ -13830,56 +13834,56 @@
         <v>23</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="64">
       <c r="A35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="409.6">
       <c r="A36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="D36" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>16</v>
@@ -13888,67 +13892,67 @@
         <v>23</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6">
       <c r="A37" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="37" t="s">
-        <v>201</v>
+      <c r="H37" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="64">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="38" t="s">
-        <v>208</v>
+      <c r="H38" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" s="34"/>
+        <v>182</v>
+      </c>
+      <c r="J38" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
